--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_9BCF0363880C1E9724C62949A9EC51A1EB6819F8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E613B198-5BF5-484A-9BE2-027FF083FF49}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_E25A585348FA07FE81BF5976537BB83A4B4D5CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6344C7A2-9E4E-4E75-AF8A-11453D0DEEF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="15" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="278">
   <si>
     <t>Categoria</t>
   </si>
@@ -852,10 +852,34 @@
     <t>02/06/2025</t>
   </si>
   <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
     <t>28/05/2025</t>
   </si>
   <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
     <t>Analisado no dia 13</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>07/06/2025</t>
+  </si>
+  <si>
+    <t>05/06/2025, 05/06/2025</t>
+  </si>
+  <si>
+    <t>excluir o ID 4841</t>
   </si>
   <si>
     <t xml:space="preserve">Dia 13 ainda não preenchido pela Tecnica </t>
@@ -1277,7 +1301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,9 +1505,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3528,12 +3549,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F5DAD2-77AF-4CF4-A2F1-E9A85EEBF212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3834D17B-77F8-49CA-B0C2-29BF2EEE85F7}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3606,11 +3625,11 @@
       </c>
       <c r="F2" s="50">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G2" s="50">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="50">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
@@ -3638,7 +3657,7 @@
       </c>
       <c r="N2" s="51">
         <f ca="1">SUM(B2:M2)</f>
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
@@ -3663,7 +3682,7 @@
       </c>
       <c r="F3" s="53">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G3" s="53">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
@@ -3695,7 +3714,7 @@
       </c>
       <c r="N3" s="54">
         <f ca="1">SUM(B3:M3)</f>
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -3777,7 +3796,7 @@
       </c>
       <c r="F5" s="59">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="59">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A5)</f>
@@ -3809,7 +3828,7 @@
       </c>
       <c r="N5" s="60">
         <f ca="1">SUM(B5:M5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75">
@@ -3952,7 +3971,7 @@
       </c>
       <c r="G8" s="68">
         <f ca="1">SUM(G2:G7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="68">
         <f ca="1">SUM(H2:H7)</f>
@@ -3980,7 +3999,7 @@
       </c>
       <c r="N8" s="68">
         <f ca="1">SUM(B8:M8)</f>
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3992,9 +4011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4005,7 +4022,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="61.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -5531,7 +5548,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -7057,7 +7074,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="73.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -8583,7 +8600,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="71.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -10109,7 +10126,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="61.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -11624,9 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11658,7 +11673,7 @@
         <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11669,19 +11684,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -11690,12 +11705,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1A2207-B627-46C1-9CC9-261668BB0085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8193F3-2559-4E67-9937-08C337003AF1}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12165,7 +12178,7 @@
       </c>
       <c r="H13" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H13" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(H$1 &amp; "!E" &amp; $A13), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I13" s="22" cm="1">
         <f t="array" aca="1" ref="I13" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(I$1 &amp; "!E" &amp; $A13), "Não")</f>
@@ -12200,7 +12213,7 @@
       </c>
       <c r="H14" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H14" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(H$1 &amp; "!E" &amp; $A14), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I14" s="22" cm="1">
         <f t="array" aca="1" ref="I14" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(I$1 &amp; "!E" &amp; $A14), "Não")</f>
@@ -12235,7 +12248,7 @@
       </c>
       <c r="H15" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H15" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(H$1 &amp; "!E" &amp; $A15), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I15" s="22" cm="1">
         <f t="array" aca="1" ref="I15" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(I$1 &amp; "!E" &amp; $A15), "Não")</f>
@@ -12270,7 +12283,7 @@
       </c>
       <c r="H16" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H16" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(H$1 &amp; "!E" &amp; $A16), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I16" s="22" cm="1">
         <f t="array" aca="1" ref="I16" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(I$1 &amp; "!E" &amp; $A16), "Não")</f>
@@ -12340,7 +12353,7 @@
       </c>
       <c r="H18" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H18" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(H$1 &amp; "!E" &amp; $A18), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I18" s="22" cm="1">
         <f t="array" aca="1" ref="I18" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(I$1 &amp; "!E" &amp; $A18), "Não")</f>
@@ -12550,7 +12563,7 @@
       </c>
       <c r="H24" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H24" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(H$1 &amp; "!E" &amp; $A24), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I24" s="22" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(I$1 &amp; "!E" &amp; $A24), "Não")</f>
@@ -12719,7 +12732,7 @@
       </c>
       <c r="H30" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H30" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(H$1 &amp; "!E" &amp; $A30), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I30" s="22" cm="1">
         <f t="array" aca="1" ref="I30" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(I$1 &amp; "!E" &amp; $A30), "Não")</f>
@@ -12754,7 +12767,7 @@
       </c>
       <c r="H31" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H31" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(H$1 &amp; "!E" &amp; $A31), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I31" s="22" cm="1">
         <f t="array" aca="1" ref="I31" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(I$1 &amp; "!E" &amp; $A31), "Não")</f>
@@ -12824,7 +12837,7 @@
       </c>
       <c r="H33" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H33" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(H$1 &amp; "!E" &amp; $A33), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I33" s="22" cm="1">
         <f t="array" aca="1" ref="I33" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(I$1 &amp; "!E" &amp; $A33), "Não")</f>
@@ -12859,7 +12872,7 @@
       </c>
       <c r="H34" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H34" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(H$1 &amp; "!E" &amp; $A34), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I34" s="22" cm="1">
         <f t="array" aca="1" ref="I34" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(I$1 &amp; "!E" &amp; $A34), "Não")</f>
@@ -12894,7 +12907,7 @@
       </c>
       <c r="H35" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H35" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(H$1 &amp; "!E" &amp; $A35), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I35" s="22" cm="1">
         <f t="array" aca="1" ref="I35" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(I$1 &amp; "!E" &amp; $A35), "Não")</f>
@@ -13028,7 +13041,7 @@
       </c>
       <c r="H40" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H40" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(H$1 &amp; "!E" &amp; $A40), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I40" s="22" cm="1">
         <f t="array" aca="1" ref="I40" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(I$1 &amp; "!E" &amp; $A40), "Não")</f>
@@ -13092,7 +13105,7 @@
       </c>
       <c r="H43" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H43" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(H$1 &amp; "!E" &amp; $A43), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I43" s="22" cm="1">
         <f t="array" aca="1" ref="I43" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(I$1 &amp; "!E" &amp; $A43), "Não")</f>
@@ -13127,7 +13140,7 @@
       </c>
       <c r="H44" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(H$1 &amp; "!E" &amp; $A44), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I44" s="22" cm="1">
         <f t="array" aca="1" ref="I44" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(I$1 &amp; "!E" &amp; $A44), "Não")</f>
@@ -13162,7 +13175,7 @@
       </c>
       <c r="H45" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H45" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(H$1 &amp; "!E" &amp; $A45), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I45" s="22" cm="1">
         <f t="array" aca="1" ref="I45" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(I$1 &amp; "!E" &amp; $A45), "Não")</f>
@@ -13197,7 +13210,7 @@
       </c>
       <c r="H46" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H46" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(H$1 &amp; "!E" &amp; $A46), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I46" s="22" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(I$1 &amp; "!E" &amp; $A46), "Não")</f>
@@ -13337,7 +13350,7 @@
       </c>
       <c r="H50" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H50" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(H$1 &amp; "!E" &amp; $A50), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I50" s="22" cm="1">
         <f t="array" aca="1" ref="I50" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(I$1 &amp; "!E" &amp; $A50), "Não")</f>
@@ -13471,7 +13484,7 @@
       </c>
       <c r="H55" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H55" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(H$1 &amp; "!E" &amp; $A55), "Não")</f>
-        <v>Atrasado</v>
+        <v>Duplicado</v>
       </c>
       <c r="I55" s="22" cm="1">
         <f t="array" aca="1" ref="I55" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(I$1 &amp; "!E" &amp; $A55), "Não")</f>
@@ -13611,7 +13624,7 @@
       </c>
       <c r="H59" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H59" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(H$1 &amp; "!E" &amp; $A59), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I59" s="22" cm="1">
         <f t="array" aca="1" ref="I59" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(I$1 &amp; "!E" &amp; $A59), "Não")</f>
@@ -13777,7 +13790,7 @@
       </c>
       <c r="H65" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H65" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(H$1 &amp; "!E" &amp; $A65), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I65" s="22" cm="1">
         <f t="array" aca="1" ref="I65" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(I$1 &amp; "!E" &amp; $A65), "Não")</f>
@@ -13814,9 +13827,9 @@
         <f t="array" aca="1" ref="H66" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(H$1 &amp; "!E" &amp; $A66), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I66" s="22" cm="1">
+      <c r="I66" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="I66" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(I$1 &amp; "!E" &amp; $A66), "Não")</f>
-        <v>0</v>
+        <v>Enviado</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -13882,7 +13895,7 @@
       </c>
       <c r="H68" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H68" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(H$1 &amp; "!E" &amp; $A68), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I68" s="22" cm="1">
         <f t="array" aca="1" ref="I68" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(I$1 &amp; "!E" &amp; $A68), "Não")</f>
@@ -13917,7 +13930,7 @@
       </c>
       <c r="H69" s="22" t="str" cm="1">
         <f t="array" aca="1" ref="H69" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(H$1 &amp; "!E" &amp; $A69), "Não")</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="I69" s="22" cm="1">
         <f t="array" aca="1" ref="I69" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(I$1 &amp; "!E" &amp; $A69), "Não")</f>
@@ -14108,9 +14121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15882,9 +15893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17660,7 +17669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -19445,9 +19454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -20849,7 +20856,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -21166,7 +21173,7 @@
       <c r="F58" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -21231,8 +21238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21241,10 +21248,9 @@
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="54.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="46" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -21448,7 +21454,7 @@
         <v>260</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -21470,10 +21476,12 @@
       <c r="D8" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G8" s="5" t="s">
         <v>96</v>
       </c>
@@ -21504,7 +21512,7 @@
         <v>258</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -21530,9 +21538,9 @@
         <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H10" s="3"/>
@@ -21555,10 +21563,12 @@
       <c r="D11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G11" s="5" t="s">
         <v>96</v>
       </c>
@@ -21582,10 +21592,12 @@
       <c r="D12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G12" s="5" t="s">
         <v>96</v>
       </c>
@@ -21609,10 +21621,12 @@
       <c r="D13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>96</v>
       </c>
@@ -21636,10 +21650,12 @@
       <c r="D14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G14" s="5" t="s">
         <v>96</v>
       </c>
@@ -21719,15 +21735,17 @@
       <c r="D17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -21748,13 +21766,13 @@
       <c r="D18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="69">
-        <v>45967</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H18" s="3"/>
@@ -21802,13 +21820,13 @@
       <c r="D20" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="69">
-        <v>45906</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H20" s="3"/>
@@ -21860,10 +21878,12 @@
       <c r="D22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G22" s="5" t="s">
         <v>96</v>
       </c>
@@ -21887,10 +21907,12 @@
       <c r="D23" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="E23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G23" s="5" t="s">
         <v>96</v>
       </c>
@@ -21968,10 +21990,12 @@
       <c r="D26" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3"/>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G26" s="5" t="s">
         <v>96</v>
       </c>
@@ -21995,10 +22019,12 @@
       <c r="D27" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G27" s="5" t="s">
         <v>96</v>
       </c>
@@ -22022,10 +22048,12 @@
       <c r="D28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="E28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="G28" s="5" t="s">
         <v>96</v>
       </c>
@@ -22049,14 +22077,18 @@
       <c r="D29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3"/>
+      <c r="E29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G29" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
         <v>96</v>
@@ -22083,7 +22115,7 @@
         <v>127</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -22113,7 +22145,7 @@
         <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
@@ -22134,10 +22166,12 @@
       <c r="D32" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3"/>
+      <c r="E32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G32" s="5" t="s">
         <v>96</v>
       </c>
@@ -22197,7 +22231,7 @@
         <v>258</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -22219,10 +22253,12 @@
       <c r="D35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="3"/>
+      <c r="E35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G35" s="5" t="s">
         <v>96</v>
       </c>
@@ -22275,12 +22311,14 @@
       <c r="D37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="E37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G37" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -22358,13 +22396,13 @@
       <c r="D40" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="69">
-        <v>45967</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H40" s="3"/>
@@ -22387,12 +22425,14 @@
       <c r="D41" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="E41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G41" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -22443,10 +22483,12 @@
       <c r="D43" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G43" s="5" t="s">
         <v>96</v>
       </c>
@@ -22470,10 +22512,12 @@
       <c r="D44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="3"/>
+      <c r="E44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G44" s="5" t="s">
         <v>96</v>
       </c>
@@ -22530,7 +22574,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H46" s="3"/>
@@ -22553,15 +22597,15 @@
       <c r="D47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -22588,7 +22632,7 @@
       <c r="F48" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H48" s="3"/>
@@ -22611,10 +22655,12 @@
       <c r="D49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="3"/>
+      <c r="E49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="G49" s="5" t="s">
         <v>96</v>
       </c>
@@ -22638,10 +22684,12 @@
       <c r="D50" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="3"/>
+      <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G50" s="5" t="s">
         <v>96</v>
       </c>
@@ -22723,10 +22771,12 @@
       <c r="D53" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="3"/>
+      <c r="E53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G53" s="5" t="s">
         <v>96</v>
       </c>
@@ -22775,13 +22825,13 @@
       <c r="D55" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="69">
-        <v>45906</v>
-      </c>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H55" s="3"/>
@@ -22811,7 +22861,7 @@
         <v>259</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -22839,7 +22889,7 @@
       <c r="F57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H57" s="3"/>
@@ -22862,11 +22912,13 @@
       <c r="D58" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="5" t="s">
+      <c r="E58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="3"/>
@@ -22929,9 +22981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22942,7 +22992,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="75.140625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -23919,8 +23969,12 @@
       <c r="D39" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="E39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="G39" s="5" t="s">
         <v>96</v>
       </c>
@@ -24468,7 +24522,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="55.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_E25A585348FA07FE81BF5976537BB83A4B4D5CC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6344C7A2-9E4E-4E75-AF8A-11453D0DEEF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{020C0FFA-9BEA-4AF6-AD1C-0D2763C9838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="15" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5055" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5106" uniqueCount="279">
   <si>
     <t>Categoria</t>
   </si>
@@ -762,7 +762,7 @@
     <t xml:space="preserve">Inserir valor do contrato com a Prefeitura </t>
   </si>
   <si>
-    <t>08/04/2025, 05/05/2025</t>
+    <t>05/05/2025, 08/04/2025</t>
   </si>
   <si>
     <t>Excluir ID4577</t>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
   </si>
   <si>
     <t>Analisado no dia 13</t>
@@ -1511,7 +1514,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="162">
+  <dxfs count="366">
     <dxf>
       <font>
         <sz val="11"/>
@@ -2829,6 +2832,2046 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF66FF66"/>
           <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFAD0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3549,7 +5592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3834D17B-77F8-49CA-B0C2-29BF2EEE85F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7180D-9720-4BD0-92B9-5E4554F0F3F2}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3625,7 +5668,7 @@
       </c>
       <c r="F2" s="50">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A2)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G2" s="50">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
@@ -3657,7 +5700,7 @@
       </c>
       <c r="N2" s="51">
         <f ca="1">SUM(B2:M2)</f>
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
@@ -3682,7 +5725,7 @@
       </c>
       <c r="F3" s="53">
         <f ca="1">COUNTIF(INDIRECT(F$1&amp;"!E2:E1000"),$A3)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" s="53">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
@@ -3714,7 +5757,7 @@
       </c>
       <c r="N3" s="54">
         <f ca="1">SUM(B3:M3)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -11673,7 +13716,7 @@
         <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -11684,19 +13727,19 @@
         <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -11705,23 +13748,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8193F3-2559-4E67-9937-08C337003AF1}">
-  <dimension ref="A1:P70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE228E6-444F-4CFE-9C46-2955144CF8EE}">
+  <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
+    <col min="4" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
@@ -11749,8 +13795,29 @@
       <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="J1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -11761,39 +13828,67 @@
         <v>24</v>
       </c>
       <c r="D2" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D2" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(D$1 &amp; "!E" &amp; $A2), "Não")</f>
+        <f t="array" aca="1" ref="D2" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(D$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
         <v>Atrasado &gt;= 2</v>
       </c>
       <c r="E2" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E2" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(E$1 &amp; "!E" &amp; $A2), "Não")</f>
+        <f t="array" aca="1" ref="E2" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(E$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
         <v>Atrasado &gt;= 2</v>
       </c>
       <c r="F2" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F2" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(F$1 &amp; "!E" &amp; $A2), "Não")</f>
+        <f t="array" aca="1" ref="F2" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(F$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
         <v>Atrasado &gt;= 2</v>
       </c>
       <c r="G2" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G2" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(G$1 &amp; "!E" &amp; $A2), "Não")</f>
+        <f t="array" aca="1" ref="G2" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(G$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
         <v>Atrasado &gt;= 2</v>
       </c>
       <c r="H2" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H2" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(H$1 &amp; "!E" &amp; $A2), "Não")</f>
+        <f t="array" aca="1" ref="H2" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(H$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I2" s="22" cm="1">
-        <f t="array" aca="1" ref="I2" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A2) = $B2, INDIRECT(I$1 &amp; "!E" &amp; $A2), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="17" t="s">
+      <c r="I2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(I$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(J$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(K$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(L$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(M$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(N$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(O$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P2" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A2) = $B2, IF(INDIRECT(P$1 &amp; "!E" &amp; $A2)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A2), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="20">
         <v>3</v>
       </c>
@@ -11804,39 +13899,67 @@
         <v>24</v>
       </c>
       <c r="D3" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(D$1 &amp; "!E" &amp; $A3), "Não")</f>
+        <f t="array" aca="1" ref="D3" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(D$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E3" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(E$1 &amp; "!E" &amp; $A3), "Não")</f>
+        <f t="array" aca="1" ref="E3" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(E$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F3" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(F$1 &amp; "!E" &amp; $A3), "Não")</f>
+        <f t="array" aca="1" ref="F3" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(F$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G3" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(G$1 &amp; "!E" &amp; $A3), "Não")</f>
+        <f t="array" aca="1" ref="G3" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(G$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H3" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(H$1 &amp; "!E" &amp; $A3), "Não")</f>
+        <f t="array" aca="1" ref="H3" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(H$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I3" s="22" cm="1">
-        <f t="array" aca="1" ref="I3" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A3) = $B3, INDIRECT(I$1 &amp; "!E" &amp; $A3), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26" t="s">
+      <c r="I3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(I$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(J$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(K$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(L$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(M$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(N$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(O$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P3" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A3) = $B3, IF(INDIRECT(P$1 &amp; "!E" &amp; $A3)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A3), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R3" s="25"/>
+      <c r="S3" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="T3" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="U3" s="25"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="20">
         <v>5</v>
       </c>
@@ -11847,39 +13970,67 @@
         <v>24</v>
       </c>
       <c r="D4" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D4" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(D$1 &amp; "!E" &amp; $A4), "Não")</f>
+        <f t="array" aca="1" ref="D4" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(D$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E4" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E4" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(E$1 &amp; "!E" &amp; $A4), "Não")</f>
+        <f t="array" aca="1" ref="E4" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(E$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F4" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F4" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(F$1 &amp; "!E" &amp; $A4), "Não")</f>
+        <f t="array" aca="1" ref="F4" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(F$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G4" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G4" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(G$1 &amp; "!E" &amp; $A4), "Não")</f>
+        <f t="array" aca="1" ref="G4" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(G$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H4" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H4" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(H$1 &amp; "!E" &amp; $A4), "Não")</f>
+        <f t="array" aca="1" ref="H4" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(H$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I4" s="22" cm="1">
-        <f t="array" aca="1" ref="I4" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A4) = $B4, INDIRECT(I$1 &amp; "!E" &amp; $A4), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29" t="s">
+      <c r="I4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(I$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(J$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(K$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(L$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(M$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(N$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(O$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P4" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A4) = $B4, IF(INDIRECT(P$1 &amp; "!E" &amp; $A4)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A4), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R4" s="28"/>
+      <c r="S4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="T4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="31"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="20">
         <v>18</v>
       </c>
@@ -11890,39 +14041,67 @@
         <v>24</v>
       </c>
       <c r="D5" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(D$1 &amp; "!E" &amp; $A5), "Não")</f>
+        <f t="array" aca="1" ref="D5" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(D$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E5" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(E$1 &amp; "!E" &amp; $A5), "Não")</f>
+        <f t="array" aca="1" ref="E5" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(E$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F5" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(F$1 &amp; "!E" &amp; $A5), "Não")</f>
+        <f t="array" aca="1" ref="F5" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(F$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G5" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(G$1 &amp; "!E" &amp; $A5), "Não")</f>
+        <f t="array" aca="1" ref="G5" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(G$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H5" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(H$1 &amp; "!E" &amp; $A5), "Não")</f>
+        <f t="array" aca="1" ref="H5" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(H$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I5" s="22" cm="1">
-        <f t="array" aca="1" ref="I5" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A5) = $B5, INDIRECT(I$1 &amp; "!E" &amp; $A5), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33" t="s">
+      <c r="I5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(I$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(J$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(K$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(L$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(M$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(N$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(O$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P5" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A5) = $B5, IF(INDIRECT(P$1 &amp; "!E" &amp; $A5)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A5), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R5" s="32"/>
+      <c r="S5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="T5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="U5" s="35"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="20">
         <v>20</v>
       </c>
@@ -11933,39 +14112,67 @@
         <v>24</v>
       </c>
       <c r="D6" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D6" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(D$1 &amp; "!E" &amp; $A6), "Não")</f>
+        <f t="array" aca="1" ref="D6" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(D$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E6" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E6" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(E$1 &amp; "!E" &amp; $A6), "Não")</f>
+        <f t="array" aca="1" ref="E6" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(E$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F6" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F6" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(F$1 &amp; "!E" &amp; $A6), "Não")</f>
+        <f t="array" aca="1" ref="F6" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(F$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G6" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G6" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(G$1 &amp; "!E" &amp; $A6), "Não")</f>
+        <f t="array" aca="1" ref="G6" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(G$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H6" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H6" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(H$1 &amp; "!E" &amp; $A6), "Não")</f>
+        <f t="array" aca="1" ref="H6" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(H$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I6" s="22" cm="1">
-        <f t="array" aca="1" ref="I6" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A6) = $B6, INDIRECT(I$1 &amp; "!E" &amp; $A6), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37" t="s">
+      <c r="I6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(I$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(J$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(K$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(L$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(M$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(N$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(O$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P6" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A6) = $B6, IF(INDIRECT(P$1 &amp; "!E" &amp; $A6)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A6), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="T6" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="U6" s="39"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="20">
         <v>40</v>
       </c>
@@ -11976,39 +14183,67 @@
         <v>24</v>
       </c>
       <c r="D7" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(D$1 &amp; "!E" &amp; $A7), "Não")</f>
+        <f t="array" aca="1" ref="D7" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(D$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E7" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(E$1 &amp; "!E" &amp; $A7), "Não")</f>
+        <f t="array" aca="1" ref="E7" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(E$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F7" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(F$1 &amp; "!E" &amp; $A7), "Não")</f>
+        <f t="array" aca="1" ref="F7" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(F$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G7" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(G$1 &amp; "!E" &amp; $A7), "Não")</f>
+        <f t="array" aca="1" ref="G7" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(G$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H7" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(H$1 &amp; "!E" &amp; $A7), "Não")</f>
+        <f t="array" aca="1" ref="H7" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(H$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I7" s="22" cm="1">
-        <f t="array" aca="1" ref="I7" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A7) = $B7, INDIRECT(I$1 &amp; "!E" &amp; $A7), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41" t="s">
+      <c r="I7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(I$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(J$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(K$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(L$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(M$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(N$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(O$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P7" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A7) = $B7, IF(INDIRECT(P$1 &amp; "!E" &amp; $A7)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A7), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="T7" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="U7" s="40"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="20">
         <v>52</v>
       </c>
@@ -12019,39 +14254,67 @@
         <v>24</v>
       </c>
       <c r="D8" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(D$1 &amp; "!E" &amp; $A8), "Não")</f>
+        <f t="array" aca="1" ref="D8" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(D$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E8" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E8" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(E$1 &amp; "!E" &amp; $A8), "Não")</f>
+        <f t="array" aca="1" ref="E8" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(E$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F8" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(F$1 &amp; "!E" &amp; $A8), "Não")</f>
+        <f t="array" aca="1" ref="F8" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(F$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G8" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G8" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(G$1 &amp; "!E" &amp; $A8), "Não")</f>
+        <f t="array" aca="1" ref="G8" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(G$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H8" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H8" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(H$1 &amp; "!E" &amp; $A8), "Não")</f>
+        <f t="array" aca="1" ref="H8" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(H$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I8" s="22" cm="1">
-        <f t="array" aca="1" ref="I8" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A8) = $B8, INDIRECT(I$1 &amp; "!E" &amp; $A8), "Não")</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44" t="s">
+      <c r="I8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(I$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(J$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(K$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(L$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(M$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(N$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(O$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P8" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A8) = $B8, IF(INDIRECT(P$1 &amp; "!E" &amp; $A8)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A8), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="44" t="s">
+      <c r="T8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="U8" s="45"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="20">
         <v>55</v>
       </c>
@@ -12062,31 +14325,59 @@
         <v>24</v>
       </c>
       <c r="D9" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(D$1 &amp; "!E" &amp; $A9), "Não")</f>
+        <f t="array" aca="1" ref="D9" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(D$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E9" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E9" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(E$1 &amp; "!E" &amp; $A9), "Não")</f>
+        <f t="array" aca="1" ref="E9" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(E$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F9" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F9" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(F$1 &amp; "!E" &amp; $A9), "Não")</f>
+        <f t="array" aca="1" ref="F9" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(F$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G9" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G9" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(G$1 &amp; "!E" &amp; $A9), "Não")</f>
+        <f t="array" aca="1" ref="G9" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(G$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H9" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(H$1 &amp; "!E" &amp; $A9), "Não")</f>
+        <f t="array" aca="1" ref="H9" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(H$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I9" s="22" cm="1">
-        <f t="array" aca="1" ref="I9" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A9) = $B9, INDIRECT(I$1 &amp; "!E" &amp; $A9), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75">
+      <c r="I9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(I$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J9" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(J$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(K$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(L$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(M$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(N$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(O$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P9" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A9) = $B9, IF(INDIRECT(P$1 &amp; "!E" &amp; $A9)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A9), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75">
       <c r="A11" s="26" t="s">
         <v>27</v>
       </c>
@@ -12114,8 +14405,29 @@
       <c r="I11" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="J11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="25">
         <v>10</v>
       </c>
@@ -12126,31 +14438,59 @@
         <v>24</v>
       </c>
       <c r="D12" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(D$1 &amp; "!E" &amp; $A12), "Não")</f>
+        <f t="array" aca="1" ref="D12" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(D$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E12" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E12" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(E$1 &amp; "!E" &amp; $A12), "Não")</f>
+        <f t="array" aca="1" ref="E12" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(E$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F12" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F12" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(F$1 &amp; "!E" &amp; $A12), "Não")</f>
+        <f t="array" aca="1" ref="F12" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(F$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G12" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G12" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(G$1 &amp; "!E" &amp; $A12), "Não")</f>
+        <f t="array" aca="1" ref="G12" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(G$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H12" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(H$1 &amp; "!E" &amp; $A12), "Não")</f>
+        <f t="array" aca="1" ref="H12" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(H$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I12" s="22" cm="1">
-        <f t="array" aca="1" ref="I12" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A12) = $B12, INDIRECT(I$1 &amp; "!E" &amp; $A12), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="I12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(I$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(J$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(K$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(L$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(M$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(N$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(O$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P12" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A12) = $B12, IF(INDIRECT(P$1 &amp; "!E" &amp; $A12)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A12), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="25">
         <v>11</v>
       </c>
@@ -12161,31 +14501,59 @@
         <v>40</v>
       </c>
       <c r="D13" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(D$1 &amp; "!E" &amp; $A13), "Não")</f>
+        <f t="array" aca="1" ref="D13" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(D$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E13" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E13" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(E$1 &amp; "!E" &amp; $A13), "Não")</f>
+        <f t="array" aca="1" ref="E13" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(E$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F13" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(F$1 &amp; "!E" &amp; $A13), "Não")</f>
+        <f t="array" aca="1" ref="F13" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(F$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G13" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G13" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(G$1 &amp; "!E" &amp; $A13), "Não")</f>
+        <f t="array" aca="1" ref="G13" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(G$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H13" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(H$1 &amp; "!E" &amp; $A13), "Não")</f>
+        <f t="array" aca="1" ref="H13" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(H$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I13" s="22" cm="1">
-        <f t="array" aca="1" ref="I13" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A13) = $B13, INDIRECT(I$1 &amp; "!E" &amp; $A13), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="I13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(I$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(J$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(K$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(L$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(M$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(N$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(O$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P13" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A13) = $B13, IF(INDIRECT(P$1 &amp; "!E" &amp; $A13)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A13), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="25">
         <v>12</v>
       </c>
@@ -12196,31 +14564,59 @@
         <v>41</v>
       </c>
       <c r="D14" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(D$1 &amp; "!E" &amp; $A14), "Não")</f>
+        <f t="array" aca="1" ref="D14" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(D$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E14" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E14" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(E$1 &amp; "!E" &amp; $A14), "Não")</f>
+        <f t="array" aca="1" ref="E14" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(E$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F14" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(F$1 &amp; "!E" &amp; $A14), "Não")</f>
+        <f t="array" aca="1" ref="F14" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(F$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G14" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G14" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(G$1 &amp; "!E" &amp; $A14), "Não")</f>
+        <f t="array" aca="1" ref="G14" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(G$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H14" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(H$1 &amp; "!E" &amp; $A14), "Não")</f>
+        <f t="array" aca="1" ref="H14" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(H$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I14" s="22" cm="1">
-        <f t="array" aca="1" ref="I14" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A14) = $B14, INDIRECT(I$1 &amp; "!E" &amp; $A14), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="I14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(I$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(J$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(K$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(L$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(M$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(N$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(O$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P14" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A14) = $B14, IF(INDIRECT(P$1 &amp; "!E" &amp; $A14)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A14), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="25">
         <v>13</v>
       </c>
@@ -12231,31 +14627,59 @@
         <v>42</v>
       </c>
       <c r="D15" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(D$1 &amp; "!E" &amp; $A15), "Não")</f>
+        <f t="array" aca="1" ref="D15" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(D$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E15" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(E$1 &amp; "!E" &amp; $A15), "Não")</f>
+        <f t="array" aca="1" ref="E15" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(E$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F15" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(F$1 &amp; "!E" &amp; $A15), "Não")</f>
+        <f t="array" aca="1" ref="F15" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(F$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G15" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G15" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(G$1 &amp; "!E" &amp; $A15), "Não")</f>
+        <f t="array" aca="1" ref="G15" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(G$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H15" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(H$1 &amp; "!E" &amp; $A15), "Não")</f>
+        <f t="array" aca="1" ref="H15" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(H$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I15" s="22" cm="1">
-        <f t="array" aca="1" ref="I15" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A15) = $B15, INDIRECT(I$1 &amp; "!E" &amp; $A15), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="I15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(I$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(J$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(K$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(L$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(M$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(N$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(O$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P15" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A15) = $B15, IF(INDIRECT(P$1 &amp; "!E" &amp; $A15)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A15), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="25">
         <v>14</v>
       </c>
@@ -12266,31 +14690,59 @@
         <v>43</v>
       </c>
       <c r="D16" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(D$1 &amp; "!E" &amp; $A16), "Não")</f>
+        <f t="array" aca="1" ref="D16" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(D$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E16" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E16" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(E$1 &amp; "!E" &amp; $A16), "Não")</f>
+        <f t="array" aca="1" ref="E16" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(E$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F16" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(F$1 &amp; "!E" &amp; $A16), "Não")</f>
+        <f t="array" aca="1" ref="F16" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(F$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G16" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G16" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(G$1 &amp; "!E" &amp; $A16), "Não")</f>
+        <f t="array" aca="1" ref="G16" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(G$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H16" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(H$1 &amp; "!E" &amp; $A16), "Não")</f>
+        <f t="array" aca="1" ref="H16" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(H$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I16" s="22" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A16) = $B16, INDIRECT(I$1 &amp; "!E" &amp; $A16), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(I$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(J$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(K$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(L$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(M$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(N$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(O$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P16" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A16) = $B16, IF(INDIRECT(P$1 &amp; "!E" &amp; $A16)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A16), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="25">
         <v>15</v>
       </c>
@@ -12301,31 +14753,59 @@
         <v>24</v>
       </c>
       <c r="D17" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(D$1 &amp; "!E" &amp; $A17), "Não")</f>
+        <f t="array" aca="1" ref="D17" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(D$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E17" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E17" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(E$1 &amp; "!E" &amp; $A17), "Não")</f>
+        <f t="array" aca="1" ref="E17" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(E$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F17" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(F$1 &amp; "!E" &amp; $A17), "Não")</f>
+        <f t="array" aca="1" ref="F17" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(F$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G17" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G17" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(G$1 &amp; "!E" &amp; $A17), "Não")</f>
+        <f t="array" aca="1" ref="G17" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(G$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H17" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(H$1 &amp; "!E" &amp; $A17), "Não")</f>
-        <v>Atrasado</v>
-      </c>
-      <c r="I17" s="22" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A17) = $B17, INDIRECT(I$1 &amp; "!E" &amp; $A17), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <f t="array" aca="1" ref="H17" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(H$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v>Enviado</v>
+      </c>
+      <c r="I17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(I$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(J$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(K$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(L$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(M$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(N$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(O$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P17" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A17) = $B17, IF(INDIRECT(P$1 &amp; "!E" &amp; $A17)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A17), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="25">
         <v>17</v>
       </c>
@@ -12336,31 +14816,59 @@
         <v>24</v>
       </c>
       <c r="D18" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(D$1 &amp; "!E" &amp; $A18), "Não")</f>
+        <f t="array" aca="1" ref="D18" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(D$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E18" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E18" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(E$1 &amp; "!E" &amp; $A18), "Não")</f>
+        <f t="array" aca="1" ref="E18" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(E$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F18" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(F$1 &amp; "!E" &amp; $A18), "Não")</f>
+        <f t="array" aca="1" ref="F18" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(F$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G18" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G18" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(G$1 &amp; "!E" &amp; $A18), "Não")</f>
+        <f t="array" aca="1" ref="G18" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(G$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H18" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(H$1 &amp; "!E" &amp; $A18), "Não")</f>
+        <f t="array" aca="1" ref="H18" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(H$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I18" s="22" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A18) = $B18, INDIRECT(I$1 &amp; "!E" &amp; $A18), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(I$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(J$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(K$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(L$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(M$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(N$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(O$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P18" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A18) = $B18, IF(INDIRECT(P$1 &amp; "!E" &amp; $A18)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A18), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="25">
         <v>31</v>
       </c>
@@ -12371,31 +14879,59 @@
         <v>24</v>
       </c>
       <c r="D19" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(D$1 &amp; "!E" &amp; $A19), "Não")</f>
+        <f t="array" aca="1" ref="D19" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(D$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E19" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E19" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(E$1 &amp; "!E" &amp; $A19), "Não")</f>
+        <f t="array" aca="1" ref="E19" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(E$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F19" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(F$1 &amp; "!E" &amp; $A19), "Não")</f>
+        <f t="array" aca="1" ref="F19" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(F$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G19" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G19" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(G$1 &amp; "!E" &amp; $A19), "Não")</f>
+        <f t="array" aca="1" ref="G19" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(G$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H19" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(H$1 &amp; "!E" &amp; $A19), "Não")</f>
-        <v>Atrasado</v>
-      </c>
-      <c r="I19" s="22" cm="1">
-        <f t="array" aca="1" ref="I19" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A19) = $B19, INDIRECT(I$1 &amp; "!E" &amp; $A19), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <f t="array" aca="1" ref="H19" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(H$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v>Enviado</v>
+      </c>
+      <c r="I19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(I$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J19" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(J$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(K$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(L$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M19" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(M$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(N$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(O$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P19" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P19" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A19) = $B19, IF(INDIRECT(P$1 &amp; "!E" &amp; $A19)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A19), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="25">
         <v>46</v>
       </c>
@@ -12406,31 +14942,59 @@
         <v>24</v>
       </c>
       <c r="D20" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D20" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(D$1 &amp; "!E" &amp; $A20), "Não")</f>
+        <f t="array" aca="1" ref="D20" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(D$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E20" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E20" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(E$1 &amp; "!E" &amp; $A20), "Não")</f>
+        <f t="array" aca="1" ref="E20" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(E$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F20" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(F$1 &amp; "!E" &amp; $A20), "Não")</f>
+        <f t="array" aca="1" ref="F20" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(F$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G20" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G20" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(G$1 &amp; "!E" &amp; $A20), "Não")</f>
+        <f t="array" aca="1" ref="G20" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(G$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H20" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(H$1 &amp; "!E" &amp; $A20), "Não")</f>
+        <f t="array" aca="1" ref="H20" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(H$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I20" s="22" cm="1">
-        <f t="array" aca="1" ref="I20" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A20) = $B20, INDIRECT(I$1 &amp; "!E" &amp; $A20), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(I$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J20" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(J$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(K$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(L$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(M$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(N$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(O$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P20" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P20" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A20) = $B20, IF(INDIRECT(P$1 &amp; "!E" &amp; $A20)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A20), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="25">
         <v>47</v>
       </c>
@@ -12441,31 +15005,59 @@
         <v>40</v>
       </c>
       <c r="D21" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D21" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(D$1 &amp; "!E" &amp; $A21), "Não")</f>
+        <f t="array" aca="1" ref="D21" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(D$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
         <v>Outras Ocorrências</v>
       </c>
       <c r="E21" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E21" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(E$1 &amp; "!E" &amp; $A21), "Não")</f>
+        <f t="array" aca="1" ref="E21" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(E$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
         <v>Outras Ocorrências</v>
       </c>
       <c r="F21" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(F$1 &amp; "!E" &amp; $A21), "Não")</f>
+        <f t="array" aca="1" ref="F21" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(F$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
         <v>Outras Ocorrências</v>
       </c>
       <c r="G21" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G21" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(G$1 &amp; "!E" &amp; $A21), "Não")</f>
+        <f t="array" aca="1" ref="G21" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(G$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
         <v>Outras Ocorrências</v>
       </c>
       <c r="H21" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(H$1 &amp; "!E" &amp; $A21), "Não")</f>
+        <f t="array" aca="1" ref="H21" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(H$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
         <v>Outras Ocorrências</v>
       </c>
-      <c r="I21" s="22" cm="1">
-        <f t="array" aca="1" ref="I21" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A21) = $B21, INDIRECT(I$1 &amp; "!E" &amp; $A21), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(I$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J21" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(J$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(K$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(L$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(M$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(N$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(O$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P21" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P21" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A21) = $B21, IF(INDIRECT(P$1 &amp; "!E" &amp; $A21)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A21), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="25">
         <v>48</v>
       </c>
@@ -12476,31 +15068,59 @@
         <v>24</v>
       </c>
       <c r="D22" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(D$1 &amp; "!E" &amp; $A22), "Não")</f>
+        <f t="array" aca="1" ref="D22" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(D$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E22" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E22" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(E$1 &amp; "!E" &amp; $A22), "Não")</f>
+        <f t="array" aca="1" ref="E22" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(E$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F22" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(F$1 &amp; "!E" &amp; $A22), "Não")</f>
+        <f t="array" aca="1" ref="F22" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(F$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G22" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G22" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(G$1 &amp; "!E" &amp; $A22), "Não")</f>
+        <f t="array" aca="1" ref="G22" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(G$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H22" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(H$1 &amp; "!E" &amp; $A22), "Não")</f>
+        <f t="array" aca="1" ref="H22" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(H$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I22" s="22" cm="1">
-        <f t="array" aca="1" ref="I22" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A22) = $B22, INDIRECT(I$1 &amp; "!E" &amp; $A22), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I22" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(I$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J22" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(J$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(K$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(L$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(M$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(N$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(O$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P22" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P22" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A22) = $B22, IF(INDIRECT(P$1 &amp; "!E" &amp; $A22)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A22), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="25">
         <v>57</v>
       </c>
@@ -12511,31 +15131,59 @@
         <v>24</v>
       </c>
       <c r="D23" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(D$1 &amp; "!E" &amp; $A23), "Não")</f>
+        <f t="array" aca="1" ref="D23" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(D$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E23" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E23" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(E$1 &amp; "!E" &amp; $A23), "Não")</f>
+        <f t="array" aca="1" ref="E23" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(E$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F23" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(F$1 &amp; "!E" &amp; $A23), "Não")</f>
+        <f t="array" aca="1" ref="F23" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(F$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G23" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G23" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(G$1 &amp; "!E" &amp; $A23), "Não")</f>
+        <f t="array" aca="1" ref="G23" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(G$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H23" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H23" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(H$1 &amp; "!E" &amp; $A23), "Não")</f>
+        <f t="array" aca="1" ref="H23" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(H$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I23" s="22" cm="1">
-        <f t="array" aca="1" ref="I23" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A23) = $B23, INDIRECT(I$1 &amp; "!E" &amp; $A23), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(I$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J23" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(J$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(K$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(L$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(M$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(N$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(O$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P23" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P23" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A23) = $B23, IF(INDIRECT(P$1 &amp; "!E" &amp; $A23)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A23), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="25">
         <v>58</v>
       </c>
@@ -12546,31 +15194,59 @@
         <v>24</v>
       </c>
       <c r="D24" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D24" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(D$1 &amp; "!E" &amp; $A24), "Não")</f>
+        <f t="array" aca="1" ref="D24" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(D$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E24" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E24" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(E$1 &amp; "!E" &amp; $A24), "Não")</f>
+        <f t="array" aca="1" ref="E24" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(E$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F24" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F24" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(F$1 &amp; "!E" &amp; $A24), "Não")</f>
+        <f t="array" aca="1" ref="F24" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(F$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G24" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G24" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(G$1 &amp; "!E" &amp; $A24), "Não")</f>
+        <f t="array" aca="1" ref="G24" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(G$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H24" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H24" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(H$1 &amp; "!E" &amp; $A24), "Não")</f>
+        <f t="array" aca="1" ref="H24" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(H$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I24" s="22" cm="1">
-        <f t="array" aca="1" ref="I24" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A24) = $B24, INDIRECT(I$1 &amp; "!E" &amp; $A24), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
+      <c r="I24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(I$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J24" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(J$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(K$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(L$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(M$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(N$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(O$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P24" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P24" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A24) = $B24, IF(INDIRECT(P$1 &amp; "!E" &amp; $A24)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A24), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75">
       <c r="A26" s="29" t="s">
         <v>29</v>
       </c>
@@ -12598,8 +15274,29 @@
       <c r="I26" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="28">
         <v>6</v>
       </c>
@@ -12610,31 +15307,59 @@
         <v>24</v>
       </c>
       <c r="D27" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(D$1 &amp; "!E" &amp; $A27), "Não")</f>
+        <f t="array" aca="1" ref="D27" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(D$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E27" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E27" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(E$1 &amp; "!E" &amp; $A27), "Não")</f>
+        <f t="array" aca="1" ref="E27" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(E$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F27" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F27" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(F$1 &amp; "!E" &amp; $A27), "Não")</f>
+        <f t="array" aca="1" ref="F27" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(F$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G27" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G27" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(G$1 &amp; "!E" &amp; $A27), "Não")</f>
+        <f t="array" aca="1" ref="G27" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(G$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H27" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(H$1 &amp; "!E" &amp; $A27), "Não")</f>
+        <f t="array" aca="1" ref="H27" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(H$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I27" s="22" cm="1">
-        <f t="array" aca="1" ref="I27" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A27) = $B27, INDIRECT(I$1 &amp; "!E" &amp; $A27), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(I$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(J$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(K$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(L$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(M$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(N$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(O$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P27" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P27" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A27) = $B27, IF(INDIRECT(P$1 &amp; "!E" &amp; $A27)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A27), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="28">
         <v>16</v>
       </c>
@@ -12645,31 +15370,59 @@
         <v>24</v>
       </c>
       <c r="D28" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(D$1 &amp; "!E" &amp; $A28), "Não")</f>
+        <f t="array" aca="1" ref="D28" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(D$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E28" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E28" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(E$1 &amp; "!E" &amp; $A28), "Não")</f>
+        <f t="array" aca="1" ref="E28" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(E$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F28" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F28" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(F$1 &amp; "!E" &amp; $A28), "Não")</f>
+        <f t="array" aca="1" ref="F28" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(F$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G28" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G28" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(G$1 &amp; "!E" &amp; $A28), "Não")</f>
+        <f t="array" aca="1" ref="G28" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(G$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H28" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H28" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(H$1 &amp; "!E" &amp; $A28), "Não")</f>
+        <f t="array" aca="1" ref="H28" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(H$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I28" s="22" cm="1">
-        <f t="array" aca="1" ref="I28" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A28) = $B28, INDIRECT(I$1 &amp; "!E" &amp; $A28), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(I$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(J$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(K$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(L$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(M$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N28" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(N$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(O$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P28" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P28" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A28) = $B28, IF(INDIRECT(P$1 &amp; "!E" &amp; $A28)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A28), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="28">
         <v>21</v>
       </c>
@@ -12680,31 +15433,59 @@
         <v>24</v>
       </c>
       <c r="D29" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(D$1 &amp; "!E" &amp; $A29), "Não")</f>
+        <f t="array" aca="1" ref="D29" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(D$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E29" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E29" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(E$1 &amp; "!E" &amp; $A29), "Não")</f>
+        <f t="array" aca="1" ref="E29" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(E$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F29" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F29" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(F$1 &amp; "!E" &amp; $A29), "Não")</f>
+        <f t="array" aca="1" ref="F29" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(F$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G29" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G29" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(G$1 &amp; "!E" &amp; $A29), "Não")</f>
+        <f t="array" aca="1" ref="G29" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(G$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H29" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H29" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(H$1 &amp; "!E" &amp; $A29), "Não")</f>
+        <f t="array" aca="1" ref="H29" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(H$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I29" s="22" cm="1">
-        <f t="array" aca="1" ref="I29" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A29) = $B29, INDIRECT(I$1 &amp; "!E" &amp; $A29), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(I$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(J$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(K$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(L$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(M$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N29" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(N$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O29" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(O$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P29" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P29" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A29) = $B29, IF(INDIRECT(P$1 &amp; "!E" &amp; $A29)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A29), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="28">
         <v>22</v>
       </c>
@@ -12715,31 +15496,59 @@
         <v>24</v>
       </c>
       <c r="D30" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(D$1 &amp; "!E" &amp; $A30), "Não")</f>
+        <f t="array" aca="1" ref="D30" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(D$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E30" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E30" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(E$1 &amp; "!E" &amp; $A30), "Não")</f>
+        <f t="array" aca="1" ref="E30" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(E$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F30" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F30" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(F$1 &amp; "!E" &amp; $A30), "Não")</f>
+        <f t="array" aca="1" ref="F30" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(F$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G30" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G30" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(G$1 &amp; "!E" &amp; $A30), "Não")</f>
+        <f t="array" aca="1" ref="G30" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(G$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H30" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(H$1 &amp; "!E" &amp; $A30), "Não")</f>
+        <f t="array" aca="1" ref="H30" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(H$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I30" s="22" cm="1">
-        <f t="array" aca="1" ref="I30" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A30) = $B30, INDIRECT(I$1 &amp; "!E" &amp; $A30), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(I$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(J$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(K$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(L$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(M$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N30" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(N$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O30" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(O$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P30" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P30" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A30) = $B30, IF(INDIRECT(P$1 &amp; "!E" &amp; $A30)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A30), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="28">
         <v>23</v>
       </c>
@@ -12750,31 +15559,59 @@
         <v>40</v>
       </c>
       <c r="D31" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(D$1 &amp; "!E" &amp; $A31), "Não")</f>
+        <f t="array" aca="1" ref="D31" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(D$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E31" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E31" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(E$1 &amp; "!E" &amp; $A31), "Não")</f>
+        <f t="array" aca="1" ref="E31" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(E$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F31" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F31" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(F$1 &amp; "!E" &amp; $A31), "Não")</f>
+        <f t="array" aca="1" ref="F31" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(F$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G31" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G31" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(G$1 &amp; "!E" &amp; $A31), "Não")</f>
+        <f t="array" aca="1" ref="G31" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(G$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H31" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H31" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(H$1 &amp; "!E" &amp; $A31), "Não")</f>
+        <f t="array" aca="1" ref="H31" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(H$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I31" s="22" cm="1">
-        <f t="array" aca="1" ref="I31" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A31) = $B31, INDIRECT(I$1 &amp; "!E" &amp; $A31), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I31" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(I$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J31" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(J$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(K$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L31" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(L$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(M$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N31" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(N$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O31" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(O$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P31" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P31" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A31) = $B31, IF(INDIRECT(P$1 &amp; "!E" &amp; $A31)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A31), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="28">
         <v>24</v>
       </c>
@@ -12785,31 +15622,59 @@
         <v>41</v>
       </c>
       <c r="D32" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(D$1 &amp; "!E" &amp; $A32), "Não")</f>
+        <f t="array" aca="1" ref="D32" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(D$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E32" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E32" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(E$1 &amp; "!E" &amp; $A32), "Não")</f>
+        <f t="array" aca="1" ref="E32" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(E$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F32" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F32" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(F$1 &amp; "!E" &amp; $A32), "Não")</f>
+        <f t="array" aca="1" ref="F32" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(F$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G32" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G32" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(G$1 &amp; "!E" &amp; $A32), "Não")</f>
+        <f t="array" aca="1" ref="G32" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(G$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H32" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H32" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(H$1 &amp; "!E" &amp; $A32), "Não")</f>
+        <f t="array" aca="1" ref="H32" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(H$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I32" s="22" cm="1">
-        <f t="array" aca="1" ref="I32" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A32) = $B32, INDIRECT(I$1 &amp; "!E" &amp; $A32), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(I$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(J$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(K$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(L$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(M$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N32" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(N$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(O$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P32" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P32" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A32) = $B32, IF(INDIRECT(P$1 &amp; "!E" &amp; $A32)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A32), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="28">
         <v>35</v>
       </c>
@@ -12820,31 +15685,59 @@
         <v>24</v>
       </c>
       <c r="D33" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(D$1 &amp; "!E" &amp; $A33), "Não")</f>
+        <f t="array" aca="1" ref="D33" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(D$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E33" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E33" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(E$1 &amp; "!E" &amp; $A33), "Não")</f>
+        <f t="array" aca="1" ref="E33" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(E$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F33" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F33" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(F$1 &amp; "!E" &amp; $A33), "Não")</f>
+        <f t="array" aca="1" ref="F33" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(F$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G33" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G33" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(G$1 &amp; "!E" &amp; $A33), "Não")</f>
+        <f t="array" aca="1" ref="G33" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(G$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H33" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H33" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(H$1 &amp; "!E" &amp; $A33), "Não")</f>
+        <f t="array" aca="1" ref="H33" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(H$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I33" s="22" cm="1">
-        <f t="array" aca="1" ref="I33" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A33) = $B33, INDIRECT(I$1 &amp; "!E" &amp; $A33), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(I$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(J$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(K$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(L$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(M$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N33" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(N$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O33" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(O$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P33" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P33" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A33) = $B33, IF(INDIRECT(P$1 &amp; "!E" &amp; $A33)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A33), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="28">
         <v>43</v>
       </c>
@@ -12855,31 +15748,59 @@
         <v>24</v>
       </c>
       <c r="D34" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(D$1 &amp; "!E" &amp; $A34), "Não")</f>
+        <f t="array" aca="1" ref="D34" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(D$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E34" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E34" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(E$1 &amp; "!E" &amp; $A34), "Não")</f>
+        <f t="array" aca="1" ref="E34" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(E$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F34" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F34" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(F$1 &amp; "!E" &amp; $A34), "Não")</f>
+        <f t="array" aca="1" ref="F34" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(F$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G34" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G34" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(G$1 &amp; "!E" &amp; $A34), "Não")</f>
+        <f t="array" aca="1" ref="G34" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(G$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H34" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H34" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(H$1 &amp; "!E" &amp; $A34), "Não")</f>
+        <f t="array" aca="1" ref="H34" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(H$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I34" s="22" cm="1">
-        <f t="array" aca="1" ref="I34" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A34) = $B34, INDIRECT(I$1 &amp; "!E" &amp; $A34), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(I$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(J$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(K$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(L$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(M$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N34" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(N$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O34" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(O$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P34" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P34" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A34) = $B34, IF(INDIRECT(P$1 &amp; "!E" &amp; $A34)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A34), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="28">
         <v>49</v>
       </c>
@@ -12890,31 +15811,59 @@
         <v>24</v>
       </c>
       <c r="D35" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(D$1 &amp; "!E" &amp; $A35), "Não")</f>
+        <f t="array" aca="1" ref="D35" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(D$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E35" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E35" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(E$1 &amp; "!E" &amp; $A35), "Não")</f>
+        <f t="array" aca="1" ref="E35" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(E$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F35" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F35" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(F$1 &amp; "!E" &amp; $A35), "Não")</f>
+        <f t="array" aca="1" ref="F35" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(F$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
         <v>Duplicado</v>
       </c>
       <c r="G35" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G35" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(G$1 &amp; "!E" &amp; $A35), "Não")</f>
+        <f t="array" aca="1" ref="G35" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(G$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H35" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H35" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(H$1 &amp; "!E" &amp; $A35), "Não")</f>
+        <f t="array" aca="1" ref="H35" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(H$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I35" s="22" cm="1">
-        <f t="array" aca="1" ref="I35" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A35) = $B35, INDIRECT(I$1 &amp; "!E" &amp; $A35), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75">
+      <c r="I35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(I$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(J$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(K$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(L$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(M$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(N$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O35" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(O$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P35" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P35" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A35) = $B35, IF(INDIRECT(P$1 &amp; "!E" &amp; $A35)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A35), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15.75">
       <c r="A37" s="33" t="s">
         <v>31</v>
       </c>
@@ -12942,8 +15891,29 @@
       <c r="I37" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="32">
         <v>9</v>
       </c>
@@ -12954,31 +15924,59 @@
         <v>24</v>
       </c>
       <c r="D38" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(D$1 &amp; "!E" &amp; $A38), "Não")</f>
+        <f t="array" aca="1" ref="D38" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(D$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E38" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E38" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(E$1 &amp; "!E" &amp; $A38), "Não")</f>
+        <f t="array" aca="1" ref="E38" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(E$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F38" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F38" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(F$1 &amp; "!E" &amp; $A38), "Não")</f>
+        <f t="array" aca="1" ref="F38" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(F$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G38" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G38" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(G$1 &amp; "!E" &amp; $A38), "Não")</f>
+        <f t="array" aca="1" ref="G38" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(G$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H38" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H38" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(H$1 &amp; "!E" &amp; $A38), "Não")</f>
+        <f t="array" aca="1" ref="H38" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(H$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I38" s="22" cm="1">
-        <f t="array" aca="1" ref="I38" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A38) = $B38, INDIRECT(I$1 &amp; "!E" &amp; $A38), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(I$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(J$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(K$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(L$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(M$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N38" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(N$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O38" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(O$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P38" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P38" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A38) = $B38, IF(INDIRECT(P$1 &amp; "!E" &amp; $A38)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A38), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="32">
         <v>36</v>
       </c>
@@ -12989,31 +15987,59 @@
         <v>24</v>
       </c>
       <c r="D39" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(D$1 &amp; "!E" &amp; $A39), "Não")</f>
+        <f t="array" aca="1" ref="D39" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(D$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E39" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E39" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(E$1 &amp; "!E" &amp; $A39), "Não")</f>
+        <f t="array" aca="1" ref="E39" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(E$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F39" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F39" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(F$1 &amp; "!E" &amp; $A39), "Não")</f>
+        <f t="array" aca="1" ref="F39" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(F$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G39" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G39" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(G$1 &amp; "!E" &amp; $A39), "Não")</f>
+        <f t="array" aca="1" ref="G39" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(G$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H39" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H39" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(H$1 &amp; "!E" &amp; $A39), "Não")</f>
+        <f t="array" aca="1" ref="H39" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(H$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I39" s="22" cm="1">
-        <f t="array" aca="1" ref="I39" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A39) = $B39, INDIRECT(I$1 &amp; "!E" &amp; $A39), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="I39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(I$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(J$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(K$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(L$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(M$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N39" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(N$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O39" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(O$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P39" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P39" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A39) = $B39, IF(INDIRECT(P$1 &amp; "!E" &amp; $A39)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A39), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="32">
         <v>37</v>
       </c>
@@ -13024,31 +16050,59 @@
         <v>24</v>
       </c>
       <c r="D40" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(D$1 &amp; "!E" &amp; $A40), "Não")</f>
+        <f t="array" aca="1" ref="D40" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(D$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E40" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E40" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(E$1 &amp; "!E" &amp; $A40), "Não")</f>
+        <f t="array" aca="1" ref="E40" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(E$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F40" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F40" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(F$1 &amp; "!E" &amp; $A40), "Não")</f>
+        <f t="array" aca="1" ref="F40" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(F$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G40" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G40" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(G$1 &amp; "!E" &amp; $A40), "Não")</f>
+        <f t="array" aca="1" ref="G40" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(G$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H40" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H40" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(H$1 &amp; "!E" &amp; $A40), "Não")</f>
+        <f t="array" aca="1" ref="H40" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(H$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I40" s="22" cm="1">
-        <f t="array" aca="1" ref="I40" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A40) = $B40, INDIRECT(I$1 &amp; "!E" &amp; $A40), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75">
+      <c r="I40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I40" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(I$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(J$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(K$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(L$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(M$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N40" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(N$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O40" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(O$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P40" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P40" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A40) = $B40, IF(INDIRECT(P$1 &amp; "!E" &amp; $A40)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A40), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15.75">
       <c r="A42" s="37" t="s">
         <v>33</v>
       </c>
@@ -13076,8 +16130,29 @@
       <c r="I42" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="36">
         <v>8</v>
       </c>
@@ -13088,31 +16163,59 @@
         <v>24</v>
       </c>
       <c r="D43" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(D$1 &amp; "!E" &amp; $A43), "Não")</f>
+        <f t="array" aca="1" ref="D43" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(D$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E43" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E43" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(E$1 &amp; "!E" &amp; $A43), "Não")</f>
+        <f t="array" aca="1" ref="E43" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(E$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F43" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F43" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(F$1 &amp; "!E" &amp; $A43), "Não")</f>
+        <f t="array" aca="1" ref="F43" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(F$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G43" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G43" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(G$1 &amp; "!E" &amp; $A43), "Não")</f>
+        <f t="array" aca="1" ref="G43" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(G$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H43" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H43" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(H$1 &amp; "!E" &amp; $A43), "Não")</f>
+        <f t="array" aca="1" ref="H43" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(H$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I43" s="22" cm="1">
-        <f t="array" aca="1" ref="I43" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A43) = $B43, INDIRECT(I$1 &amp; "!E" &amp; $A43), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(I$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(J$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(K$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(L$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(M$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N43" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(N$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O43" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(O$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P43" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P43" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A43) = $B43, IF(INDIRECT(P$1 &amp; "!E" &amp; $A43)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A43), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="36">
         <v>26</v>
       </c>
@@ -13123,31 +16226,59 @@
         <v>24</v>
       </c>
       <c r="D44" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(D$1 &amp; "!E" &amp; $A44), "Não")</f>
+        <f t="array" aca="1" ref="D44" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(D$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E44" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E44" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(E$1 &amp; "!E" &amp; $A44), "Não")</f>
+        <f t="array" aca="1" ref="E44" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(E$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F44" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F44" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(F$1 &amp; "!E" &amp; $A44), "Não")</f>
+        <f t="array" aca="1" ref="F44" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(F$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G44" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G44" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(G$1 &amp; "!E" &amp; $A44), "Não")</f>
+        <f t="array" aca="1" ref="G44" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(G$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H44" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H44" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(H$1 &amp; "!E" &amp; $A44), "Não")</f>
+        <f t="array" aca="1" ref="H44" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(H$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I44" s="22" cm="1">
-        <f t="array" aca="1" ref="I44" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A44) = $B44, INDIRECT(I$1 &amp; "!E" &amp; $A44), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(I$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(J$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(K$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(L$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(M$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N44" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(N$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O44" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(O$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P44" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P44" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A44) = $B44, IF(INDIRECT(P$1 &amp; "!E" &amp; $A44)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A44), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="36">
         <v>27</v>
       </c>
@@ -13158,31 +16289,59 @@
         <v>24</v>
       </c>
       <c r="D45" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(D$1 &amp; "!E" &amp; $A45), "Não")</f>
+        <f t="array" aca="1" ref="D45" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(D$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E45" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E45" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(E$1 &amp; "!E" &amp; $A45), "Não")</f>
+        <f t="array" aca="1" ref="E45" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(E$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F45" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F45" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(F$1 &amp; "!E" &amp; $A45), "Não")</f>
+        <f t="array" aca="1" ref="F45" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(F$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G45" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G45" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(G$1 &amp; "!E" &amp; $A45), "Não")</f>
+        <f t="array" aca="1" ref="G45" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(G$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H45" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H45" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(H$1 &amp; "!E" &amp; $A45), "Não")</f>
+        <f t="array" aca="1" ref="H45" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(H$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I45" s="22" cm="1">
-        <f t="array" aca="1" ref="I45" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A45) = $B45, INDIRECT(I$1 &amp; "!E" &amp; $A45), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="I45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I45" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(I$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J45" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(J$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K45" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(K$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L45" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(L$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(M$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N45" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(N$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O45" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(O$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P45" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P45" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A45) = $B45, IF(INDIRECT(P$1 &amp; "!E" &amp; $A45)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A45), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="36">
         <v>28</v>
       </c>
@@ -13193,31 +16352,59 @@
         <v>24</v>
       </c>
       <c r="D46" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(D$1 &amp; "!E" &amp; $A46), "Não")</f>
+        <f t="array" aca="1" ref="D46" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(D$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E46" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(E$1 &amp; "!E" &amp; $A46), "Não")</f>
+        <f t="array" aca="1" ref="E46" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(E$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F46" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F46" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(F$1 &amp; "!E" &amp; $A46), "Não")</f>
+        <f t="array" aca="1" ref="F46" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(F$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G46" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G46" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(G$1 &amp; "!E" &amp; $A46), "Não")</f>
+        <f t="array" aca="1" ref="G46" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(G$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H46" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H46" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(H$1 &amp; "!E" &amp; $A46), "Não")</f>
+        <f t="array" aca="1" ref="H46" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(H$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I46" s="22" cm="1">
-        <f t="array" aca="1" ref="I46" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A46) = $B46, INDIRECT(I$1 &amp; "!E" &amp; $A46), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I46" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(I$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J46" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(J$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K46" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(K$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L46" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(L$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M46" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(M$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N46" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(N$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O46" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(O$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P46" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P46" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A46) = $B46, IF(INDIRECT(P$1 &amp; "!E" &amp; $A46)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A46), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="36">
         <v>38</v>
       </c>
@@ -13228,31 +16415,59 @@
         <v>24</v>
       </c>
       <c r="D47" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(D$1 &amp; "!E" &amp; $A47), "Não")</f>
+        <f t="array" aca="1" ref="D47" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(D$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E47" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(E$1 &amp; "!E" &amp; $A47), "Não")</f>
+        <f t="array" aca="1" ref="E47" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(E$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F47" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F47" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(F$1 &amp; "!E" &amp; $A47), "Não")</f>
+        <f t="array" aca="1" ref="F47" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(F$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G47" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G47" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(G$1 &amp; "!E" &amp; $A47), "Não")</f>
+        <f t="array" aca="1" ref="G47" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(G$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H47" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(H$1 &amp; "!E" &amp; $A47), "Não")</f>
+        <f t="array" aca="1" ref="H47" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(H$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I47" s="22" cm="1">
-        <f t="array" aca="1" ref="I47" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A47) = $B47, INDIRECT(I$1 &amp; "!E" &amp; $A47), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="I47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I47" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(I$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J47" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(J$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K47" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(K$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L47" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(L$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M47" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(M$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N47" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(N$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O47" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(O$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P47" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P47" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A47) = $B47, IF(INDIRECT(P$1 &amp; "!E" &amp; $A47)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A47), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="36">
         <v>45</v>
       </c>
@@ -13263,31 +16478,59 @@
         <v>24</v>
       </c>
       <c r="D48" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(D$1 &amp; "!E" &amp; $A48), "Não")</f>
+        <f t="array" aca="1" ref="D48" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(D$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E48" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(E$1 &amp; "!E" &amp; $A48), "Não")</f>
+        <f t="array" aca="1" ref="E48" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(E$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F48" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F48" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(F$1 &amp; "!E" &amp; $A48), "Não")</f>
+        <f t="array" aca="1" ref="F48" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(F$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G48" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G48" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(G$1 &amp; "!E" &amp; $A48), "Não")</f>
+        <f t="array" aca="1" ref="G48" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(G$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H48" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H48" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(H$1 &amp; "!E" &amp; $A48), "Não")</f>
+        <f t="array" aca="1" ref="H48" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(H$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I48" s="22" cm="1">
-        <f t="array" aca="1" ref="I48" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A48) = $B48, INDIRECT(I$1 &amp; "!E" &amp; $A48), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I48" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(I$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J48" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(J$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K48" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(K$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L48" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(L$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M48" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(M$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N48" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(N$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O48" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(O$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P48" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P48" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A48) = $B48, IF(INDIRECT(P$1 &amp; "!E" &amp; $A48)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A48), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="36">
         <v>51</v>
       </c>
@@ -13298,31 +16541,59 @@
         <v>24</v>
       </c>
       <c r="D49" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(D$1 &amp; "!E" &amp; $A49), "Não")</f>
+        <f t="array" aca="1" ref="D49" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(D$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E49" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(E$1 &amp; "!E" &amp; $A49), "Não")</f>
+        <f t="array" aca="1" ref="E49" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(E$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F49" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F49" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(F$1 &amp; "!E" &amp; $A49), "Não")</f>
+        <f t="array" aca="1" ref="F49" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(F$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G49" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G49" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(G$1 &amp; "!E" &amp; $A49), "Não")</f>
+        <f t="array" aca="1" ref="G49" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(G$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H49" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H49" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(H$1 &amp; "!E" &amp; $A49), "Não")</f>
+        <f t="array" aca="1" ref="H49" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(H$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I49" s="22" cm="1">
-        <f t="array" aca="1" ref="I49" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A49) = $B49, INDIRECT(I$1 &amp; "!E" &amp; $A49), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="I49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I49" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(I$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J49" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(J$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K49" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(K$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L49" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(L$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M49" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(M$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N49" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(N$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O49" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(O$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P49" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P49" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A49) = $B49, IF(INDIRECT(P$1 &amp; "!E" &amp; $A49)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A49), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="36">
         <v>53</v>
       </c>
@@ -13333,31 +16604,59 @@
         <v>24</v>
       </c>
       <c r="D50" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(D$1 &amp; "!E" &amp; $A50), "Não")</f>
+        <f t="array" aca="1" ref="D50" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(D$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E50" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E50" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(E$1 &amp; "!E" &amp; $A50), "Não")</f>
+        <f t="array" aca="1" ref="E50" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(E$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F50" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F50" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(F$1 &amp; "!E" &amp; $A50), "Não")</f>
+        <f t="array" aca="1" ref="F50" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(F$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G50" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G50" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(G$1 &amp; "!E" &amp; $A50), "Não")</f>
+        <f t="array" aca="1" ref="G50" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(G$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H50" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(H$1 &amp; "!E" &amp; $A50), "Não")</f>
+        <f t="array" aca="1" ref="H50" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(H$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I50" s="22" cm="1">
-        <f t="array" aca="1" ref="I50" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A50) = $B50, INDIRECT(I$1 &amp; "!E" &amp; $A50), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75">
+      <c r="I50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I50" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(I$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J50" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(J$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K50" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(K$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L50" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(L$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M50" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(M$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N50" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(N$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O50" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(O$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P50" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P50" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A50) = $B50, IF(INDIRECT(P$1 &amp; "!E" &amp; $A50)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A50), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75">
       <c r="A52" s="41" t="s">
         <v>35</v>
       </c>
@@ -13385,8 +16684,29 @@
       <c r="I52" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="40">
         <v>4</v>
       </c>
@@ -13397,31 +16717,59 @@
         <v>24</v>
       </c>
       <c r="D53" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D53" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(D$1 &amp; "!E" &amp; $A53), "Não")</f>
+        <f t="array" aca="1" ref="D53" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(D$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E53" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E53" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(E$1 &amp; "!E" &amp; $A53), "Não")</f>
+        <f t="array" aca="1" ref="E53" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(E$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F53" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F53" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(F$1 &amp; "!E" &amp; $A53), "Não")</f>
+        <f t="array" aca="1" ref="F53" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(F$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G53" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G53" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(G$1 &amp; "!E" &amp; $A53), "Não")</f>
+        <f t="array" aca="1" ref="G53" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(G$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
         <v>Atrasado &gt;= 2</v>
       </c>
       <c r="H53" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H53" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(H$1 &amp; "!E" &amp; $A53), "Não")</f>
+        <f t="array" aca="1" ref="H53" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(H$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I53" s="22" cm="1">
-        <f t="array" aca="1" ref="I53" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A53) = $B53, INDIRECT(I$1 &amp; "!E" &amp; $A53), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="I53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I53" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(I$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J53" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(J$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K53" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(K$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L53" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(L$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M53" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(M$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N53" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(N$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O53" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(O$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P53" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P53" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A53) = $B53, IF(INDIRECT(P$1 &amp; "!E" &amp; $A53)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A53), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="40">
         <v>7</v>
       </c>
@@ -13432,31 +16780,59 @@
         <v>24</v>
       </c>
       <c r="D54" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D54" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(D$1 &amp; "!E" &amp; $A54), "Não")</f>
+        <f t="array" aca="1" ref="D54" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(D$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E54" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E54" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(E$1 &amp; "!E" &amp; $A54), "Não")</f>
+        <f t="array" aca="1" ref="E54" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(E$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F54" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F54" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(F$1 &amp; "!E" &amp; $A54), "Não")</f>
+        <f t="array" aca="1" ref="F54" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(F$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G54" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G54" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(G$1 &amp; "!E" &amp; $A54), "Não")</f>
+        <f t="array" aca="1" ref="G54" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(G$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H54" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H54" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(H$1 &amp; "!E" &amp; $A54), "Não")</f>
+        <f t="array" aca="1" ref="H54" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(H$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I54" s="22" cm="1">
-        <f t="array" aca="1" ref="I54" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A54) = $B54, INDIRECT(I$1 &amp; "!E" &amp; $A54), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="I54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I54" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(I$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J54" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(J$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K54" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(K$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L54" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(L$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M54" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(M$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N54" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(N$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O54" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(O$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P54" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P54" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A54) = $B54, IF(INDIRECT(P$1 &amp; "!E" &amp; $A54)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A54), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="40">
         <v>29</v>
       </c>
@@ -13467,31 +16843,59 @@
         <v>24</v>
       </c>
       <c r="D55" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D55" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(D$1 &amp; "!E" &amp; $A55), "Não")</f>
+        <f t="array" aca="1" ref="D55" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(D$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E55" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E55" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(E$1 &amp; "!E" &amp; $A55), "Não")</f>
+        <f t="array" aca="1" ref="E55" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(E$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F55" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F55" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(F$1 &amp; "!E" &amp; $A55), "Não")</f>
+        <f t="array" aca="1" ref="F55" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(F$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G55" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G55" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(G$1 &amp; "!E" &amp; $A55), "Não")</f>
+        <f t="array" aca="1" ref="G55" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(G$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H55" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H55" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(H$1 &amp; "!E" &amp; $A55), "Não")</f>
+        <f t="array" aca="1" ref="H55" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(H$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
         <v>Duplicado</v>
       </c>
-      <c r="I55" s="22" cm="1">
-        <f t="array" aca="1" ref="I55" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A55) = $B55, INDIRECT(I$1 &amp; "!E" &amp; $A55), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="I55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I55" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(I$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J55" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(J$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K55" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(K$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L55" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(L$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M55" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(M$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N55" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(N$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O55" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(O$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P55" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P55" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A55) = $B55, IF(INDIRECT(P$1 &amp; "!E" &amp; $A55)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A55), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="40">
         <v>30</v>
       </c>
@@ -13502,31 +16906,59 @@
         <v>24</v>
       </c>
       <c r="D56" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D56" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(D$1 &amp; "!E" &amp; $A56), "Não")</f>
+        <f t="array" aca="1" ref="D56" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(D$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E56" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E56" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(E$1 &amp; "!E" &amp; $A56), "Não")</f>
+        <f t="array" aca="1" ref="E56" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(E$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F56" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F56" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(F$1 &amp; "!E" &amp; $A56), "Não")</f>
+        <f t="array" aca="1" ref="F56" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(F$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G56" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G56" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(G$1 &amp; "!E" &amp; $A56), "Não")</f>
+        <f t="array" aca="1" ref="G56" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(G$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H56" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H56" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(H$1 &amp; "!E" &amp; $A56), "Não")</f>
+        <f t="array" aca="1" ref="H56" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(H$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I56" s="22" cm="1">
-        <f t="array" aca="1" ref="I56" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A56) = $B56, INDIRECT(I$1 &amp; "!E" &amp; $A56), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="I56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I56" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(I$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J56" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(J$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K56" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(K$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L56" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(L$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M56" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(M$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N56" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(N$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O56" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(O$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P56" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P56" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A56) = $B56, IF(INDIRECT(P$1 &amp; "!E" &amp; $A56)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A56), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="40">
         <v>33</v>
       </c>
@@ -13537,31 +16969,59 @@
         <v>24</v>
       </c>
       <c r="D57" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D57" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(D$1 &amp; "!E" &amp; $A57), "Não")</f>
+        <f t="array" aca="1" ref="D57" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(D$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E57" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E57" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(E$1 &amp; "!E" &amp; $A57), "Não")</f>
+        <f t="array" aca="1" ref="E57" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(E$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F57" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F57" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(F$1 &amp; "!E" &amp; $A57), "Não")</f>
+        <f t="array" aca="1" ref="F57" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(F$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G57" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G57" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(G$1 &amp; "!E" &amp; $A57), "Não")</f>
+        <f t="array" aca="1" ref="G57" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(G$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H57" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H57" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(H$1 &amp; "!E" &amp; $A57), "Não")</f>
+        <f t="array" aca="1" ref="H57" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(H$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I57" s="22" cm="1">
-        <f t="array" aca="1" ref="I57" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A57) = $B57, INDIRECT(I$1 &amp; "!E" &amp; $A57), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I57" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(I$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J57" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(J$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K57" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(K$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L57" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(L$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M57" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(M$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N57" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(N$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O57" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(O$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P57" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P57" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A57) = $B57, IF(INDIRECT(P$1 &amp; "!E" &amp; $A57)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A57), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="40">
         <v>34</v>
       </c>
@@ -13572,31 +17032,59 @@
         <v>24</v>
       </c>
       <c r="D58" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D58" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(D$1 &amp; "!E" &amp; $A58), "Não")</f>
+        <f t="array" aca="1" ref="D58" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(D$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E58" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E58" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(E$1 &amp; "!E" &amp; $A58), "Não")</f>
+        <f t="array" aca="1" ref="E58" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(E$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F58" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F58" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(F$1 &amp; "!E" &amp; $A58), "Não")</f>
+        <f t="array" aca="1" ref="F58" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(F$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G58" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G58" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(G$1 &amp; "!E" &amp; $A58), "Não")</f>
+        <f t="array" aca="1" ref="G58" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(G$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H58" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H58" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(H$1 &amp; "!E" &amp; $A58), "Não")</f>
+        <f t="array" aca="1" ref="H58" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(H$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I58" s="22" cm="1">
-        <f t="array" aca="1" ref="I58" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A58) = $B58, INDIRECT(I$1 &amp; "!E" &amp; $A58), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I58" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(I$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J58" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(J$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K58" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(K$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L58" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(L$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M58" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(M$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N58" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(N$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O58" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(O$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P58" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P58" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A58) = $B58, IF(INDIRECT(P$1 &amp; "!E" &amp; $A58)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A58), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="40">
         <v>41</v>
       </c>
@@ -13607,31 +17095,59 @@
         <v>24</v>
       </c>
       <c r="D59" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D59" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(D$1 &amp; "!E" &amp; $A59), "Não")</f>
+        <f t="array" aca="1" ref="D59" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(D$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E59" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E59" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(E$1 &amp; "!E" &amp; $A59), "Não")</f>
+        <f t="array" aca="1" ref="E59" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(E$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F59" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F59" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(F$1 &amp; "!E" &amp; $A59), "Não")</f>
+        <f t="array" aca="1" ref="F59" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(F$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G59" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G59" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(G$1 &amp; "!E" &amp; $A59), "Não")</f>
+        <f t="array" aca="1" ref="G59" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(G$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H59" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H59" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(H$1 &amp; "!E" &amp; $A59), "Não")</f>
+        <f t="array" aca="1" ref="H59" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(H$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I59" s="22" cm="1">
-        <f t="array" aca="1" ref="I59" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A59) = $B59, INDIRECT(I$1 &amp; "!E" &amp; $A59), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="I59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I59" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(I$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J59" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(J$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K59" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(K$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L59" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(L$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M59" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(M$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N59" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(N$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O59" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(O$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P59" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P59" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A59) = $B59, IF(INDIRECT(P$1 &amp; "!E" &amp; $A59)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A59), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="40">
         <v>56</v>
       </c>
@@ -13641,29 +17157,60 @@
       <c r="C60" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="D60" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(D$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v>UVR Sem Técnico</v>
+      </c>
       <c r="E60" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E60" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A60) = $B60, INDIRECT(E$1 &amp; "!E" &amp; $A60), "Não")</f>
+        <f t="array" aca="1" ref="E60" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(E$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F60" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F60" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A60) = $B60, INDIRECT(F$1 &amp; "!E" &amp; $A60), "Não")</f>
+        <f t="array" aca="1" ref="F60" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(F$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G60" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G60" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A60) = $B60, INDIRECT(G$1 &amp; "!E" &amp; $A60), "Não")</f>
+        <f t="array" aca="1" ref="G60" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(G$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H60" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H60" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A60) = $B60, INDIRECT(H$1 &amp; "!E" &amp; $A60), "Não")</f>
+        <f t="array" aca="1" ref="H60" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(H$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I60" s="22" cm="1">
-        <f t="array" aca="1" ref="I60" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A60) = $B60, INDIRECT(I$1 &amp; "!E" &amp; $A60), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.75">
+      <c r="I60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I60" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(I$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J60" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(J$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K60" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(K$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L60" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(L$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M60" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(M$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N60" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(N$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O60" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(O$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P60" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P60" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A60) = $B60, IF(INDIRECT(P$1 &amp; "!E" &amp; $A60)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A60), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15.75">
       <c r="A62" s="34" t="s">
         <v>37</v>
       </c>
@@ -13691,8 +17238,29 @@
       <c r="I62" s="19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="35">
         <v>19</v>
       </c>
@@ -13703,31 +17271,59 @@
         <v>24</v>
       </c>
       <c r="D63" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D63" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(D$1 &amp; "!E" &amp; $A63), "Não")</f>
+        <f t="array" aca="1" ref="D63" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(D$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="E63" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E63" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(E$1 &amp; "!E" &amp; $A63), "Não")</f>
+        <f t="array" aca="1" ref="E63" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(E$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="F63" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F63" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(F$1 &amp; "!E" &amp; $A63), "Não")</f>
+        <f t="array" aca="1" ref="F63" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(F$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="G63" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G63" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(G$1 &amp; "!E" &amp; $A63), "Não")</f>
+        <f t="array" aca="1" ref="G63" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(G$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="H63" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H63" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(H$1 &amp; "!E" &amp; $A63), "Não")</f>
+        <f t="array" aca="1" ref="H63" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(H$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I63" s="22" cm="1">
-        <f t="array" aca="1" ref="I63" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A63) = $B63, INDIRECT(I$1 &amp; "!E" &amp; $A63), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I63" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(I$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J63" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(J$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K63" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(K$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L63" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(L$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M63" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(M$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N63" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(N$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O63" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(O$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P63" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P63" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A63) = $B63, IF(INDIRECT(P$1 &amp; "!E" &amp; $A63)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A63), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="35">
         <v>25</v>
       </c>
@@ -13738,31 +17334,59 @@
         <v>24</v>
       </c>
       <c r="D64" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D64" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(D$1 &amp; "!E" &amp; $A64), "Não")</f>
+        <f t="array" aca="1" ref="D64" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(D$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E64" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E64" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(E$1 &amp; "!E" &amp; $A64), "Não")</f>
+        <f t="array" aca="1" ref="E64" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(E$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F64" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F64" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(F$1 &amp; "!E" &amp; $A64), "Não")</f>
+        <f t="array" aca="1" ref="F64" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(F$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G64" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G64" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(G$1 &amp; "!E" &amp; $A64), "Não")</f>
+        <f t="array" aca="1" ref="G64" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(G$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H64" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H64" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(H$1 &amp; "!E" &amp; $A64), "Não")</f>
+        <f t="array" aca="1" ref="H64" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(H$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I64" s="22" cm="1">
-        <f t="array" aca="1" ref="I64" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A64) = $B64, INDIRECT(I$1 &amp; "!E" &amp; $A64), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="I64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I64" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(I$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J64" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(J$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K64" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(K$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L64" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(L$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M64" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(M$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N64" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(N$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O64" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(O$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P64" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P64" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A64) = $B64, IF(INDIRECT(P$1 &amp; "!E" &amp; $A64)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A64), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="35">
         <v>32</v>
       </c>
@@ -13773,31 +17397,59 @@
         <v>24</v>
       </c>
       <c r="D65" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D65" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(D$1 &amp; "!E" &amp; $A65), "Não")</f>
+        <f t="array" aca="1" ref="D65" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(D$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E65" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E65" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(E$1 &amp; "!E" &amp; $A65), "Não")</f>
+        <f t="array" aca="1" ref="E65" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(E$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F65" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F65" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(F$1 &amp; "!E" &amp; $A65), "Não")</f>
+        <f t="array" aca="1" ref="F65" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(F$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G65" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G65" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(G$1 &amp; "!E" &amp; $A65), "Não")</f>
+        <f t="array" aca="1" ref="G65" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(G$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H65" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H65" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(H$1 &amp; "!E" &amp; $A65), "Não")</f>
+        <f t="array" aca="1" ref="H65" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(H$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I65" s="22" cm="1">
-        <f t="array" aca="1" ref="I65" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A65) = $B65, INDIRECT(I$1 &amp; "!E" &amp; $A65), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="I65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I65" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(I$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J65" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(J$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K65" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(K$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L65" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(L$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M65" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(M$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N65" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(N$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O65" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(O$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P65" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P65" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A65) = $B65, IF(INDIRECT(P$1 &amp; "!E" &amp; $A65)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A65), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="35">
         <v>39</v>
       </c>
@@ -13808,31 +17460,59 @@
         <v>24</v>
       </c>
       <c r="D66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D66" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(D$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="D66" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(D$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E66" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(E$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="E66" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(E$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F66" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(F$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="F66" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(F$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G66" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(G$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="G66" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(G$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H66" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(H$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="H66" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(H$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
       <c r="I66" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="I66" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A66) = $B66, INDIRECT(I$1 &amp; "!E" &amp; $A66), "Não")</f>
+        <f t="array" aca="1" ref="I66" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(I$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J66" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(J$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K66" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(K$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L66" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(L$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M66" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(M$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N66" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(N$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O66" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(O$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P66" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P66" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A66) = $B66, IF(INDIRECT(P$1 &amp; "!E" &amp; $A66)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A66), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="35">
         <v>42</v>
       </c>
@@ -13843,31 +17523,59 @@
         <v>24</v>
       </c>
       <c r="D67" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D67" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(D$1 &amp; "!E" &amp; $A67), "Não")</f>
+        <f t="array" aca="1" ref="D67" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(D$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E67" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E67" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(E$1 &amp; "!E" &amp; $A67), "Não")</f>
+        <f t="array" aca="1" ref="E67" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(E$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F67" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F67" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(F$1 &amp; "!E" &amp; $A67), "Não")</f>
+        <f t="array" aca="1" ref="F67" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(F$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G67" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G67" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(G$1 &amp; "!E" &amp; $A67), "Não")</f>
+        <f t="array" aca="1" ref="G67" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(G$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H67" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H67" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(H$1 &amp; "!E" &amp; $A67), "Não")</f>
+        <f t="array" aca="1" ref="H67" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(H$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I67" s="22" cm="1">
-        <f t="array" aca="1" ref="I67" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A67) = $B67, INDIRECT(I$1 &amp; "!E" &amp; $A67), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="I67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I67" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(I$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J67" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(J$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K67" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(K$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L67" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(L$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M67" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(M$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N67" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(N$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O67" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(O$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P67" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P67" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A67) = $B67, IF(INDIRECT(P$1 &amp; "!E" &amp; $A67)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A67), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="35">
         <v>44</v>
       </c>
@@ -13878,31 +17586,59 @@
         <v>24</v>
       </c>
       <c r="D68" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D68" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(D$1 &amp; "!E" &amp; $A68), "Não")</f>
+        <f t="array" aca="1" ref="D68" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(D$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E68" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E68" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(E$1 &amp; "!E" &amp; $A68), "Não")</f>
+        <f t="array" aca="1" ref="E68" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(E$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F68" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F68" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(F$1 &amp; "!E" &amp; $A68), "Não")</f>
+        <f t="array" aca="1" ref="F68" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(F$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G68" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G68" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(G$1 &amp; "!E" &amp; $A68), "Não")</f>
+        <f t="array" aca="1" ref="G68" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(G$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H68" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H68" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(H$1 &amp; "!E" &amp; $A68), "Não")</f>
+        <f t="array" aca="1" ref="H68" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(H$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I68" s="22" cm="1">
-        <f t="array" aca="1" ref="I68" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A68) = $B68, INDIRECT(I$1 &amp; "!E" &amp; $A68), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="I68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I68" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(I$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J68" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(J$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K68" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(K$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L68" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(L$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M68" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(M$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N68" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(N$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O68" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(O$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P68" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P68" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A68) = $B68, IF(INDIRECT(P$1 &amp; "!E" &amp; $A68)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A68), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="35">
         <v>50</v>
       </c>
@@ -13913,31 +17649,59 @@
         <v>24</v>
       </c>
       <c r="D69" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D69" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(D$1 &amp; "!E" &amp; $A69), "Não")</f>
+        <f t="array" aca="1" ref="D69" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(D$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="E69" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E69" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(E$1 &amp; "!E" &amp; $A69), "Não")</f>
+        <f t="array" aca="1" ref="E69" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(E$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="F69" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F69" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(F$1 &amp; "!E" &amp; $A69), "Não")</f>
+        <f t="array" aca="1" ref="F69" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(F$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="G69" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G69" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(G$1 &amp; "!E" &amp; $A69), "Não")</f>
+        <f t="array" aca="1" ref="G69" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(G$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
         <v>Enviado</v>
       </c>
       <c r="H69" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H69" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(H$1 &amp; "!E" &amp; $A69), "Não")</f>
+        <f t="array" aca="1" ref="H69" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(H$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
         <v>Enviado</v>
       </c>
-      <c r="I69" s="22" cm="1">
-        <f t="array" aca="1" ref="I69" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A69) = $B69, INDIRECT(I$1 &amp; "!E" &amp; $A69), "Não")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="I69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I69" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(I$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J69" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(J$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K69" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(K$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L69" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(L$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M69" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(M$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N69" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(N$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O69" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(O$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P69" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P69" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A69) = $B69, IF(INDIRECT(P$1 &amp; "!E" &amp; $A69)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A69), ""), "Não")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="35">
         <v>54</v>
       </c>
@@ -13948,32 +17712,740 @@
         <v>24</v>
       </c>
       <c r="D70" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="D70" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(D$1 &amp; "!E" &amp; $A70), "Não")</f>
+        <f t="array" aca="1" ref="D70" ca="1">IF(INDIRECT(D$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(D$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(D$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="E70" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="E70" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(E$1 &amp; "!E" &amp; $A70), "Não")</f>
+        <f t="array" aca="1" ref="E70" ca="1">IF(INDIRECT(E$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(E$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(E$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="F70" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="F70" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(F$1 &amp; "!E" &amp; $A70), "Não")</f>
+        <f t="array" aca="1" ref="F70" ca="1">IF(INDIRECT(F$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(F$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(F$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="G70" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="G70" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(G$1 &amp; "!E" &amp; $A70), "Não")</f>
+        <f t="array" aca="1" ref="G70" ca="1">IF(INDIRECT(G$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(G$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(G$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
         <v>UVR Sem Técnico</v>
       </c>
       <c r="H70" s="22" t="str" cm="1">
-        <f t="array" aca="1" ref="H70" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(H$1 &amp; "!E" &amp; $A70), "Não")</f>
+        <f t="array" aca="1" ref="H70" ca="1">IF(INDIRECT(H$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(H$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(H$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
         <v>Atrasado</v>
       </c>
-      <c r="I70" s="22" cm="1">
-        <f t="array" aca="1" ref="I70" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A70) = $B70, INDIRECT(I$1 &amp; "!E" &amp; $A70), "Não")</f>
-        <v>0</v>
+      <c r="I70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="I70" ca="1">IF(INDIRECT(I$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(I$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(I$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="J70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="J70" ca="1">IF(INDIRECT(J$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(J$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(J$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="K70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="K70" ca="1">IF(INDIRECT(K$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(K$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(K$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="L70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="L70" ca="1">IF(INDIRECT(L$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(L$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(L$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="M70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="M70" ca="1">IF(INDIRECT(M$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(M$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(M$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="N70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="N70" ca="1">IF(INDIRECT(N$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(N$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(N$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="O70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="O70" ca="1">IF(INDIRECT(O$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(O$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(O$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
+      </c>
+      <c r="P70" s="22" t="str" cm="1">
+        <f t="array" aca="1" ref="P70" ca="1">IF(INDIRECT(P$1 &amp; "!B" &amp; $A70) = $B70, IF(INDIRECT(P$1 &amp; "!E" &amp; $A70)&lt;&gt;"", INDIRECT(P$1 &amp; "!E" &amp; $A70), ""), "Não")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:I9">
+  <conditionalFormatting sqref="D2:L9">
+    <cfRule type="cellIs" dxfId="365" priority="391" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="364" priority="392" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="363" priority="393" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="394" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="395" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="396" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:L24 D12:H19">
+    <cfRule type="cellIs" dxfId="359" priority="385" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="386" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="387" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="388" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="389" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="390" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:H35">
+    <cfRule type="cellIs" dxfId="353" priority="379" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="380" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="381" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="382" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="383" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="384" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:H40">
+    <cfRule type="cellIs" dxfId="347" priority="373" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="374" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="375" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="376" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="377" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="378" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:H50">
+    <cfRule type="cellIs" dxfId="341" priority="367" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="368" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="369" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="370" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="371" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="372" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:H60">
+    <cfRule type="cellIs" dxfId="335" priority="361" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="362" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="363" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="364" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="365" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="366" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:H70">
+    <cfRule type="cellIs" dxfId="329" priority="355" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="356" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="357" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="358" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="359" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="360" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M9">
+    <cfRule type="cellIs" dxfId="323" priority="349" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="350" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="351" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="352" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="353" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="354" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N9">
+    <cfRule type="cellIs" dxfId="317" priority="343" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="344" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="345" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="346" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="347" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="348" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O9">
+    <cfRule type="cellIs" dxfId="311" priority="337" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="338" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="339" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="340" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="341" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="342" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P9">
+    <cfRule type="cellIs" dxfId="305" priority="331" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="332" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="333" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="334" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="335" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="336" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:L24">
+    <cfRule type="cellIs" dxfId="299" priority="325" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="326" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="327" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="328" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="329" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="330" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M24">
+    <cfRule type="cellIs" dxfId="293" priority="319" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="320" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="321" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="322" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="323" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="324" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:N24">
+    <cfRule type="cellIs" dxfId="287" priority="313" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="314" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="315" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="316" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="317" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="318" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:O24">
+    <cfRule type="cellIs" dxfId="281" priority="307" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="308" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="309" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="311" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="312" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P24">
+    <cfRule type="cellIs" dxfId="275" priority="301" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="302" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="303" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="304" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="305" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="306" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:L35">
+    <cfRule type="cellIs" dxfId="269" priority="145" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="146" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="147" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="148" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="149" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="150" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M35">
+    <cfRule type="cellIs" dxfId="263" priority="139" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="140" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="141" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="142" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="143" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="144" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N35">
+    <cfRule type="cellIs" dxfId="257" priority="133" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="134" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="135" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="136" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="137" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="138" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O35">
+    <cfRule type="cellIs" dxfId="251" priority="127" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="128" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="129" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="130" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="131" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="132" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P35">
+    <cfRule type="cellIs" dxfId="245" priority="121" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="122" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="123" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="124" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="125" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="126" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:L40">
+    <cfRule type="cellIs" dxfId="239" priority="115" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="116" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="117" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="118" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="119" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="120" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:M40">
+    <cfRule type="cellIs" dxfId="233" priority="109" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="110" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="111" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="112" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="113" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="114" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38:N40">
+    <cfRule type="cellIs" dxfId="227" priority="103" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="104" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="105" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="106" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="107" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="108" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38:O40">
+    <cfRule type="cellIs" dxfId="221" priority="97" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="98" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="99" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="100" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="101" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="102" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:P40">
+    <cfRule type="cellIs" dxfId="215" priority="91" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="92" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="93" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="94" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="95" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="96" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:L50">
+    <cfRule type="cellIs" dxfId="209" priority="85" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="86" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="87" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="88" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="89" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="90" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:M50">
+    <cfRule type="cellIs" dxfId="203" priority="79" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="80" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="81" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="82" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="83" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="84" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N50">
+    <cfRule type="cellIs" dxfId="197" priority="73" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="74" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="75" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="76" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="77" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="78" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43:O50">
+    <cfRule type="cellIs" dxfId="191" priority="67" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="68" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="69" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="70" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="71" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="72" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43:P50">
+    <cfRule type="cellIs" dxfId="185" priority="61" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="62" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="63" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="64" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="65" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="66" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:L60">
+    <cfRule type="cellIs" dxfId="179" priority="55" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="56" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="57" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="58" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="59" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="60" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53:M60">
+    <cfRule type="cellIs" dxfId="173" priority="49" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="50" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="51" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="52" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="53" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="54" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N60">
+    <cfRule type="cellIs" dxfId="167" priority="43" operator="equal">
+      <formula>"Duplicado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="44" operator="equal">
+      <formula>"UVR Sem Técnico"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="45" operator="equal">
+      <formula>"Outras Ocorrências"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="46" operator="equal">
+      <formula>"Atrasado &gt;= 2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="47" operator="equal">
+      <formula>"Atrasado"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="48" operator="equal">
+      <formula>"Enviado"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:O60">
     <cfRule type="cellIs" dxfId="161" priority="37" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -13993,7 +18465,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:I24">
+  <conditionalFormatting sqref="P53:P60">
     <cfRule type="cellIs" dxfId="155" priority="31" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14013,7 +18485,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:I35">
+  <conditionalFormatting sqref="I63:P70">
     <cfRule type="cellIs" dxfId="149" priority="25" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14033,7 +18505,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:I40">
+  <conditionalFormatting sqref="M63:M70">
     <cfRule type="cellIs" dxfId="143" priority="19" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14053,7 +18525,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:I50">
+  <conditionalFormatting sqref="N63:N70">
     <cfRule type="cellIs" dxfId="137" priority="13" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14073,7 +18545,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53:I60">
+  <conditionalFormatting sqref="O63:O70">
     <cfRule type="cellIs" dxfId="131" priority="7" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14093,7 +18565,7 @@
       <formula>"Enviado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D63:I70">
+  <conditionalFormatting sqref="P63:P70">
     <cfRule type="cellIs" dxfId="125" priority="1" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -14121,7 +18593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21238,9 +25710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -21453,7 +25923,7 @@
       <c r="F7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H7" s="3"/>
@@ -21511,7 +25981,7 @@
       <c r="F9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="3"/>
@@ -21679,10 +26149,12 @@
       <c r="D15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G15" s="5" t="s">
         <v>96</v>
       </c>
@@ -21745,7 +26217,7 @@
         <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
@@ -21770,7 +26242,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>100</v>
@@ -21882,7 +26354,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>96</v>
@@ -21911,7 +26383,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>96</v>
@@ -22023,7 +26495,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>96</v>
@@ -22052,7 +26524,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>96</v>
@@ -22081,13 +26553,13 @@
         <v>17</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G29" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
@@ -22114,7 +26586,7 @@
       <c r="F30" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H30" s="3"/>
@@ -22137,15 +26609,17 @@
       <c r="D31" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3"/>
+      <c r="E31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G31" s="5" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
@@ -22230,7 +26704,7 @@
       <c r="F34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H34" s="3"/>
@@ -22317,7 +26791,7 @@
       <c r="F37" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H37" s="3"/>
@@ -22400,7 +26874,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>100</v>
@@ -22431,7 +26905,7 @@
       <c r="F41" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H41" s="3"/>
@@ -22605,7 +27079,7 @@
         <v>100</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3" t="s">
@@ -22860,7 +27334,7 @@
       <c r="F56" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H56" s="3"/>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_3CCBCC9B137B889B01D7688C20DAE49124D5BAA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F33EA8F-70DE-4C91-91BF-148E95A796F5}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_3DCBCC9B130B0EE8B7FEB2AF72EBE1A8CC33A84E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3050359-D3CB-47C5-8320-72E0E2D97FFC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5541" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5557" uniqueCount="292">
   <si>
     <t>Categoria</t>
   </si>
@@ -904,6 +904,15 @@
   </si>
   <si>
     <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>06/07/2025</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
   </si>
   <si>
     <t>ESSE FORMULARIO POSSIVELMENTE ESTA INCORRETO POIS ESTA ADIANTADO</t>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="G2" s="28">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A2)</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H2" s="28">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
@@ -4702,7 +4711,7 @@
       </c>
       <c r="N2" s="29">
         <f ca="1">SUM(B2:M2)</f>
-        <v>274</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
@@ -4731,7 +4740,7 @@
       </c>
       <c r="G3" s="30">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="H3" s="30">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
@@ -4759,7 +4768,7 @@
       </c>
       <c r="N3" s="31">
         <f ca="1">SUM(B3:M3)</f>
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
@@ -6295,7 +6304,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -7831,7 +7840,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -9367,7 +9376,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -10903,7 +10912,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -12439,7 +12448,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -13975,7 +13984,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
@@ -14305,7 +14314,7 @@
         <v>88</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>89</v>
@@ -14322,16 +14331,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>95</v>
@@ -14361,8 +14370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14375,7 +14384,7 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
@@ -15494,7 +15503,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J5" s="45" t="str">
         <f t="array" aca="1" ref="J5" ca="1">IF(
@@ -15799,7 +15808,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J6" s="45" t="str">
         <f t="array" aca="1" ref="J6" ca="1">IF(
@@ -16104,7 +16113,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J7" s="45" t="str">
         <f t="array" aca="1" ref="J7" ca="1">IF(
@@ -17061,7 +17070,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J12" s="45" t="str">
         <f t="array" aca="1" ref="J12" ca="1">IF(
@@ -20625,7 +20634,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J24" s="45" t="str">
         <f t="array" aca="1" ref="J24" ca="1">IF(
@@ -22754,7 +22763,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J33" s="45" t="str">
         <f t="array" aca="1" ref="J33" ca="1">IF(
@@ -23695,7 +23704,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J38" s="45" t="str">
         <f t="array" aca="1" ref="J38" ca="1">IF(
@@ -23992,7 +24001,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J39" s="45" t="str">
         <f t="array" aca="1" ref="J39" ca="1">IF(
@@ -24289,7 +24298,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J40" s="45" t="str">
         <f t="array" aca="1" ref="J40" ca="1">IF(
@@ -24933,7 +24942,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J44" s="45" t="str">
         <f t="array" aca="1" ref="J44" ca="1">IF(
@@ -25230,7 +25239,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J45" s="45" t="str">
         <f t="array" aca="1" ref="J45" ca="1">IF(
@@ -25527,7 +25536,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J46" s="45" t="str">
         <f t="array" aca="1" ref="J46" ca="1">IF(
@@ -27656,7 +27665,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J55" s="45" t="str">
         <f t="array" aca="1" ref="J55" ca="1">IF(
@@ -28844,7 +28853,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J59" s="45" t="str">
         <f t="array" aca="1" ref="J59" ca="1">IF(
@@ -29141,7 +29150,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J60" s="45" t="str">
         <f t="array" aca="1" ref="J60" ca="1">IF(
@@ -31270,7 +31279,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J69" s="45" t="str">
         <f t="array" aca="1" ref="J69" ca="1">IF(
@@ -31973,9 +31982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -48876,7 +48883,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="J69" s="45" t="str">
         <f t="array" aca="1" ref="J69" ca="1">IF(
@@ -51308,7 +51315,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D26" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -54891,8 +54898,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56685,8 +56692,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B25" sqref="B25"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58456,8 +58463,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D24" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H39" sqref="H39"/>
+      <pane xSplit="3" topLeftCell="D11" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58469,7 +58476,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="83.85546875" customWidth="1"/>
+    <col min="8" max="8" width="83.140625" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -58718,10 +58725,12 @@
       <c r="D9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="E9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>281</v>
+      </c>
       <c r="G9" s="15" t="s">
         <v>95</v>
       </c>
@@ -58745,10 +58754,12 @@
       <c r="D10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="E10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G10" s="15" t="s">
         <v>95</v>
       </c>
@@ -58965,10 +58976,12 @@
       <c r="D18" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="13"/>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G18" s="15" t="s">
         <v>95</v>
       </c>
@@ -59017,10 +59030,12 @@
       <c r="D20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="E20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G20" s="15" t="s">
         <v>95</v>
       </c>
@@ -59179,10 +59194,12 @@
       <c r="D26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="13"/>
+      <c r="E26" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G26" s="15" t="s">
         <v>95</v>
       </c>
@@ -59206,10 +59223,12 @@
       <c r="D27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="13"/>
+      <c r="E27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G27" s="15" t="s">
         <v>95</v>
       </c>
@@ -59233,10 +59252,12 @@
       <c r="D28" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="13"/>
+      <c r="E28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G28" s="15" t="s">
         <v>95</v>
       </c>
@@ -59260,10 +59281,12 @@
       <c r="D29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="13"/>
+      <c r="E29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G29" s="15" t="s">
         <v>95</v>
       </c>
@@ -59426,10 +59449,12 @@
       <c r="D35" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="13"/>
+      <c r="E35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G35" s="15" t="s">
         <v>95</v>
       </c>
@@ -59453,10 +59478,12 @@
       <c r="D36" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="13"/>
+      <c r="E36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G36" s="15" t="s">
         <v>95</v>
       </c>
@@ -59480,10 +59507,12 @@
       <c r="D37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="13"/>
+      <c r="E37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G37" s="15" t="s">
         <v>95</v>
       </c>
@@ -59546,7 +59575,7 @@
         <v>95</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13" t="s">
@@ -59567,10 +59596,12 @@
       <c r="D40" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="E40" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="13"/>
+      <c r="E40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G40" s="15" t="s">
         <v>95</v>
       </c>
@@ -59594,10 +59625,12 @@
       <c r="D41" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="13"/>
+      <c r="E41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G41" s="15" t="s">
         <v>95</v>
       </c>
@@ -59681,7 +59714,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>95</v>
@@ -59710,7 +59743,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>95</v>
@@ -59793,7 +59826,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>95</v>
@@ -59816,7 +59849,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E49" s="26" t="s">
         <v>15</v>
@@ -59845,10 +59878,12 @@
       <c r="D50" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="13"/>
+      <c r="E50" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G50" s="15" t="s">
         <v>95</v>
       </c>
@@ -60007,10 +60042,12 @@
       <c r="D56" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="13"/>
+      <c r="E56" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>283</v>
+      </c>
       <c r="G56" s="15" t="s">
         <v>95</v>
       </c>
@@ -60063,10 +60100,12 @@
       <c r="D58" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="13"/>
+      <c r="E58" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="G58" s="15" t="s">
         <v>95</v>
       </c>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A800E137A4FC0A4E41A859CA2FA515DCBB7621AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAF10F1-C809-4647-A8E1-7306760DC214}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_A800E137A4EC025ACCA34ED136A9457EAB7621A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82C61980-B504-4E41-9FAC-CFD8F5C8CF35}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="320">
   <si>
     <t>Categoria</t>
   </si>
@@ -792,10 +792,13 @@
     <t xml:space="preserve">Inserir valor do contrato com a Prefeitura </t>
   </si>
   <si>
-    <t>05/05/2025, 08/04/2025</t>
+    <t>08/04/2025, 05/05/2025</t>
   </si>
   <si>
     <t>Excluir ID4577</t>
+  </si>
+  <si>
+    <t>Deletar ID4577</t>
   </si>
   <si>
     <t>Foi efetuada correção de dados inconsistentes. Troca de valores nas colunas peso e venda</t>
@@ -897,7 +900,7 @@
     <t>Solicitei tecnica revisar taxa de rejeito</t>
   </si>
   <si>
-    <t>10/07/2025, 09/06/2025</t>
+    <t>09/06/2025, 10/07/2025</t>
   </si>
   <si>
     <t xml:space="preserve">Não preenchido completo </t>
@@ -942,6 +945,9 @@
     <t>excluir o ID 4841</t>
   </si>
   <si>
+    <t>Excluir 4841</t>
+  </si>
+  <si>
     <t>Aguardando correções</t>
   </si>
   <si>
@@ -982,6 +988,9 @@
   </si>
   <si>
     <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>Técnico saiu</t>
   </si>
   <si>
     <t>Não terá lançamento por enquanto, técnica nova.</t>
@@ -1920,37 +1929,34 @@
     <xf numFmtId="0" fontId="13" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,23 +1965,26 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -6402,11 +6411,11 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="120"/>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="121"/>
@@ -6416,7 +6425,7 @@
       <c r="H11" s="121"/>
       <c r="I11" s="122"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="112" t="s">
+      <c r="K11" s="111" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="121"/>
@@ -6425,7 +6434,7 @@
       <c r="O11" s="121"/>
       <c r="P11" s="122"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="103" t="s">
+      <c r="R11" s="117" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="121"/>
@@ -6433,7 +6442,7 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="116" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="120"/>
@@ -6456,7 +6465,7 @@
       <c r="O12" s="121"/>
       <c r="P12" s="122"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="110" t="s">
+      <c r="R12" s="104" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="122"/>
@@ -6509,7 +6518,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="107" t="str">
+      <c r="R13" s="113" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 06.25</v>
       </c>
@@ -6990,7 +6999,7 @@
       <c r="R20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="105">
+      <c r="S20" s="118">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
@@ -7019,7 +7028,7 @@
       <c r="O21" s="121"/>
       <c r="P21" s="122"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="113" t="s">
         <v>47</v>
       </c>
       <c r="S21" s="121"/>
@@ -7029,15 +7038,15 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="123"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="110" t="s">
+      <c r="C22" s="104" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="122"/>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="104" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="122"/>
-      <c r="G22" s="110" t="s">
+      <c r="G22" s="104" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="122"/>
@@ -7045,15 +7054,15 @@
         <v>50</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="110" t="s">
+      <c r="K22" s="104" t="s">
         <v>48</v>
       </c>
       <c r="L22" s="122"/>
-      <c r="M22" s="110" t="s">
+      <c r="M22" s="104" t="s">
         <v>49</v>
       </c>
       <c r="N22" s="122"/>
-      <c r="O22" s="110" t="s">
+      <c r="O22" s="104" t="s">
         <v>51</v>
       </c>
       <c r="P22" s="122"/>
@@ -7074,16 +7083,16 @@
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="123"/>
       <c r="B23" s="124"/>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="112" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="122"/>
-      <c r="E23" s="104">
+      <c r="E23" s="106">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="122"/>
-      <c r="G23" s="101">
+      <c r="G23" s="105">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>8</v>
       </c>
@@ -7093,17 +7102,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="104">
+      <c r="K23" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
         <v>33</v>
       </c>
       <c r="L23" s="122"/>
-      <c r="M23" s="101">
+      <c r="M23" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
         <v>15</v>
       </c>
       <c r="N23" s="122"/>
-      <c r="O23" s="106">
+      <c r="O23" s="103">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
         <v>0.6875</v>
       </c>
@@ -7125,16 +7134,16 @@
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="123"/>
       <c r="B24" s="124"/>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="114" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="122"/>
-      <c r="E24" s="104">
+      <c r="E24" s="106">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="122"/>
-      <c r="G24" s="101">
+      <c r="G24" s="105">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>13</v>
       </c>
@@ -7144,17 +7153,17 @@
         <v>0</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="104">
+      <c r="K24" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
         <v>65</v>
       </c>
       <c r="L24" s="122"/>
-      <c r="M24" s="101">
+      <c r="M24" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
         <v>13</v>
       </c>
       <c r="N24" s="122"/>
-      <c r="O24" s="106">
+      <c r="O24" s="103">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -7176,16 +7185,16 @@
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="123"/>
       <c r="B25" s="124"/>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="110" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="122"/>
-      <c r="E25" s="104">
+      <c r="E25" s="106">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="F25" s="122"/>
-      <c r="G25" s="101">
+      <c r="G25" s="105">
         <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>3</v>
       </c>
@@ -7195,17 +7204,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="104">
+      <c r="K25" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
         <v>45</v>
       </c>
       <c r="L25" s="122"/>
-      <c r="M25" s="101">
+      <c r="M25" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
         <v>9</v>
       </c>
       <c r="N25" s="122"/>
-      <c r="O25" s="106">
+      <c r="O25" s="103">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -7227,16 +7236,16 @@
     <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="123"/>
       <c r="B26" s="124"/>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="107" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="122"/>
-      <c r="E26" s="104">
+      <c r="E26" s="106">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>1</v>
       </c>
       <c r="F26" s="122"/>
-      <c r="G26" s="101">
+      <c r="G26" s="105">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
@@ -7246,17 +7255,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="104">
+      <c r="K26" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>14</v>
       </c>
       <c r="L26" s="122"/>
-      <c r="M26" s="101">
+      <c r="M26" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
         <v>4</v>
       </c>
       <c r="N26" s="122"/>
-      <c r="O26" s="106">
+      <c r="O26" s="103">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
         <v>0.77777777777777779</v>
       </c>
@@ -7278,16 +7287,16 @@
     <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="123"/>
       <c r="B27" s="124"/>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="115" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="122"/>
-      <c r="E27" s="104">
+      <c r="E27" s="106">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
       <c r="F27" s="122"/>
-      <c r="G27" s="101">
+      <c r="G27" s="105">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7297,17 +7306,17 @@
         <v>0.875</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="104">
+      <c r="K27" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
         <v>45</v>
       </c>
       <c r="L27" s="122"/>
-      <c r="M27" s="101">
+      <c r="M27" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
         <v>4</v>
       </c>
       <c r="N27" s="122"/>
-      <c r="O27" s="106">
+      <c r="O27" s="103">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
         <v>0.91836734693877553</v>
       </c>
@@ -7329,16 +7338,16 @@
     <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="123"/>
       <c r="B28" s="124"/>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="119" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="122"/>
-      <c r="E28" s="104">
+      <c r="E28" s="106">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F28" s="122"/>
-      <c r="G28" s="101">
+      <c r="G28" s="105">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>8</v>
       </c>
@@ -7348,17 +7357,17 @@
         <v>0</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="104">
+      <c r="K28" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>37</v>
       </c>
       <c r="L28" s="122"/>
-      <c r="M28" s="101">
+      <c r="M28" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
         <v>11</v>
       </c>
       <c r="N28" s="122"/>
-      <c r="O28" s="106">
+      <c r="O28" s="103">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
         <v>0.77083333333333337</v>
       </c>
@@ -7367,7 +7376,7 @@
       <c r="R28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="117">
+      <c r="S28" s="102">
         <f ca="1">VLOOKUP($T$12,$C$20:$P$25,13,FALSE)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -7377,16 +7386,16 @@
     <row r="29" spans="1:21">
       <c r="A29" s="125"/>
       <c r="B29" s="126"/>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="109" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="122"/>
-      <c r="E29" s="104">
+      <c r="E29" s="106">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="F29" s="122"/>
-      <c r="G29" s="101">
+      <c r="G29" s="105">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
@@ -7396,17 +7405,17 @@
         <v>0.75</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="104">
+      <c r="K29" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
         <v>28</v>
       </c>
       <c r="L29" s="122"/>
-      <c r="M29" s="101">
+      <c r="M29" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
         <v>21</v>
       </c>
       <c r="N29" s="122"/>
-      <c r="O29" s="106">
+      <c r="O29" s="103">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
         <v>0.5714285714285714</v>
       </c>
@@ -7442,53 +7451,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="A12:B29"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="R11:T11"/>
@@ -7504,6 +7466,53 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="354" priority="5" operator="equal">
@@ -7553,7 +7562,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -8275,7 +8284,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>119</v>
@@ -8591,7 +8600,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>119</v>
@@ -9158,7 +9167,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -10755,7 +10764,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -12352,7 +12361,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -13949,7 +13958,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -15546,7 +15555,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H46" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -17143,8 +17152,8 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17177,7 +17186,7 @@
         <v>112</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>113</v>
@@ -17189,7 +17198,7 @@
         <v>115</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>117</v>
@@ -17203,16 +17212,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>119</v>
@@ -17232,16 +17241,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>119</v>
@@ -17284,7 +17293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -52785,7 +52796,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H38" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -54569,7 +54580,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H36" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -56415,9 +56426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56431,7 +56442,7 @@
     <col min="8" max="8" width="132" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="92" customWidth="1"/>
+    <col min="11" max="11" width="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -57933,9 +57944,11 @@
       <c r="H49" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="I49" s="22"/>
+      <c r="I49" s="22" t="s">
+        <v>245</v>
+      </c>
       <c r="J49" s="22" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="K49" s="22"/>
     </row>
@@ -58023,7 +58036,7 @@
         <v>123</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22" t="s">
@@ -58113,7 +58126,7 @@
         <v>123</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I55" s="22"/>
       <c r="J55" s="22" t="s">
@@ -58274,7 +58287,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -58376,7 +58389,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>123</v>
@@ -58434,7 +58447,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>123</v>
@@ -58464,7 +58477,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>123</v>
@@ -58494,7 +58507,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>123</v>
@@ -58524,7 +58537,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>123</v>
@@ -58554,22 +58567,22 @@
         <v>14</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>123</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -58590,13 +58603,13 @@
         <v>14</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22" t="s">
@@ -58622,13 +58635,13 @@
         <v>14</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22" t="s">
@@ -58654,13 +58667,13 @@
         <v>14</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22" t="s">
@@ -58686,13 +58699,13 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
@@ -58718,13 +58731,13 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
@@ -58750,7 +58763,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>123</v>
@@ -58780,7 +58793,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>123</v>
@@ -58810,7 +58823,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>123</v>
@@ -58840,7 +58853,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>123</v>
@@ -58898,7 +58911,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>123</v>
@@ -58928,7 +58941,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>123</v>
@@ -58958,13 +58971,13 @@
         <v>14</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G22" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22" t="s">
@@ -58990,13 +59003,13 @@
         <v>14</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22" t="s">
@@ -59022,13 +59035,13 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22" t="s">
@@ -59054,7 +59067,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>123</v>
@@ -59084,7 +59097,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>123</v>
@@ -59114,7 +59127,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>123</v>
@@ -59144,7 +59157,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>123</v>
@@ -59174,22 +59187,22 @@
         <v>14</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>123</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -59210,7 +59223,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>123</v>
@@ -59240,7 +59253,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>123</v>
@@ -59270,7 +59283,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>123</v>
@@ -59300,7 +59313,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>123</v>
@@ -59330,7 +59343,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>123</v>
@@ -59360,13 +59373,13 @@
         <v>14</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22" t="s">
@@ -59392,7 +59405,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>123</v>
@@ -59422,7 +59435,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>119</v>
@@ -59452,7 +59465,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>123</v>
@@ -59482,7 +59495,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>123</v>
@@ -59512,7 +59525,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>119</v>
@@ -59542,7 +59555,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>123</v>
@@ -59572,7 +59585,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>119</v>
@@ -59602,13 +59615,13 @@
         <v>14</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="s">
@@ -59634,7 +59647,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>123</v>
@@ -59664,7 +59677,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>123</v>
@@ -59694,13 +59707,13 @@
         <v>14</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="s">
@@ -59730,7 +59743,7 @@
         <v>123</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
@@ -59756,7 +59769,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>123</v>
@@ -59786,7 +59799,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>123</v>
@@ -59816,7 +59829,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>123</v>
@@ -59846,7 +59859,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>123</v>
@@ -59876,7 +59889,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>123</v>
@@ -59906,7 +59919,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>123</v>
@@ -59964,7 +59977,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>123</v>
@@ -59994,7 +60007,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>123</v>
@@ -60024,7 +60037,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>123</v>
@@ -60054,13 +60067,13 @@
         <v>14</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I58" s="22"/>
       <c r="J58" s="22" t="s">
@@ -60129,8 +60142,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="G15" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60204,7 +60217,7 @@
         <v>119</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22" t="s">
@@ -60230,7 +60243,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>123</v>
@@ -60264,7 +60277,7 @@
         <v>119</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I4" s="22"/>
       <c r="J4" s="22" t="s">
@@ -60320,7 +60333,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>123</v>
@@ -60350,7 +60363,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>123</v>
@@ -60380,7 +60393,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>123</v>
@@ -60410,7 +60423,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>123</v>
@@ -60440,7 +60453,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>123</v>
@@ -60470,7 +60483,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>123</v>
@@ -60500,13 +60513,13 @@
         <v>14</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22" t="s">
@@ -60532,13 +60545,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
@@ -60564,13 +60577,13 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
@@ -60596,7 +60609,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>123</v>
@@ -60626,7 +60639,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>123</v>
@@ -60656,13 +60669,13 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22" t="s">
@@ -60688,7 +60701,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>123</v>
@@ -60722,7 +60735,7 @@
         <v>119</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
@@ -60748,7 +60761,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>123</v>
@@ -60808,7 +60821,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>123</v>
@@ -60838,7 +60851,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>123</v>
@@ -60868,13 +60881,13 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22" t="s">
@@ -60900,7 +60913,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>123</v>
@@ -60930,7 +60943,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>123</v>
@@ -60960,7 +60973,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>123</v>
@@ -60990,7 +61003,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>123</v>
@@ -61020,17 +61033,19 @@
         <v>17</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="I29" s="22"/>
+        <v>293</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>294</v>
+      </c>
       <c r="J29" s="22" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="K29" s="22"/>
     </row>
@@ -61082,7 +61097,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>123</v>
@@ -61112,7 +61127,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>123</v>
@@ -61172,7 +61187,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>123</v>
@@ -61202,7 +61217,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>123</v>
@@ -61232,7 +61247,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>123</v>
@@ -61262,7 +61277,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>123</v>
@@ -61322,7 +61337,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>123</v>
@@ -61352,7 +61367,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>123</v>
@@ -61382,7 +61397,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>123</v>
@@ -61442,13 +61457,13 @@
         <v>14</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="s">
@@ -61474,7 +61489,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>123</v>
@@ -61504,7 +61519,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>123</v>
@@ -61534,7 +61549,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>123</v>
@@ -61568,7 +61583,7 @@
         <v>123</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
@@ -61594,7 +61609,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>123</v>
@@ -61624,7 +61639,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>123</v>
@@ -61654,7 +61669,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>123</v>
@@ -61684,7 +61699,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>123</v>
@@ -61714,7 +61729,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>123</v>
@@ -61744,7 +61759,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>123</v>
@@ -61802,7 +61817,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>123</v>
@@ -61832,7 +61847,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>123</v>
@@ -61892,7 +61907,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>123</v>
@@ -61964,9 +61979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D36" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62065,7 +62080,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>119</v>
@@ -62123,7 +62138,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>119</v>
@@ -62153,13 +62168,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22" t="s">
@@ -62185,7 +62200,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>119</v>
@@ -62215,7 +62230,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>123</v>
@@ -62245,7 +62260,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>119</v>
@@ -62275,7 +62290,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>119</v>
@@ -62305,7 +62320,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>119</v>
@@ -62335,7 +62350,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>119</v>
@@ -62365,7 +62380,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>119</v>
@@ -62395,7 +62410,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>119</v>
@@ -62425,7 +62440,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>119</v>
@@ -62455,7 +62470,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>123</v>
@@ -62485,7 +62500,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G17" s="24" t="s">
         <v>119</v>
@@ -62515,7 +62530,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>119</v>
@@ -62549,7 +62564,7 @@
         <v>119</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
@@ -62575,7 +62590,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>119</v>
@@ -62605,7 +62620,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>123</v>
@@ -62635,7 +62650,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>123</v>
@@ -62665,7 +62680,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>123</v>
@@ -62695,7 +62710,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>123</v>
@@ -62725,7 +62740,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>123</v>
@@ -62755,7 +62770,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>123</v>
@@ -62785,7 +62800,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>123</v>
@@ -62815,7 +62830,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>123</v>
@@ -62845,7 +62860,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>119</v>
@@ -62875,7 +62890,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>119</v>
@@ -62905,7 +62920,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G31" s="24" t="s">
         <v>119</v>
@@ -62935,13 +62950,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="s">
@@ -62967,7 +62982,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>119</v>
@@ -62997,7 +63012,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>119</v>
@@ -63027,7 +63042,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>119</v>
@@ -63057,7 +63072,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>123</v>
@@ -63087,7 +63102,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>119</v>
@@ -63117,7 +63132,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>123</v>
@@ -63147,13 +63162,13 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="s">
@@ -63179,7 +63194,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>119</v>
@@ -63209,7 +63224,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>119</v>
@@ -63239,7 +63254,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>123</v>
@@ -63269,7 +63284,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>123</v>
@@ -63299,7 +63314,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>123</v>
@@ -63329,7 +63344,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>123</v>
@@ -63362,7 +63377,9 @@
       <c r="G46" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="22"/>
+      <c r="H46" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="s">
         <v>119</v>
@@ -63390,7 +63407,9 @@
       <c r="G47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="22"/>
+      <c r="H47" s="22" t="s">
+        <v>309</v>
+      </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
         <v>119</v>
@@ -63415,7 +63434,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>119</v>
@@ -63449,7 +63468,7 @@
         <v>119</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22" t="s">
@@ -63475,7 +63494,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>123</v>
@@ -63505,7 +63524,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>123</v>
@@ -63535,7 +63554,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>119</v>
@@ -63565,13 +63584,13 @@
         <v>14</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22" t="s">
@@ -63601,7 +63620,7 @@
         <v>119</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="22" t="s">
@@ -63627,7 +63646,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>119</v>
@@ -63657,7 +63676,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>119</v>
@@ -63687,7 +63706,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>119</v>
@@ -63717,7 +63736,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G58" s="24" t="s">
         <v>119</v>
@@ -63771,13 +63790,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_A800E137A4EC025ACCA34ED136A9457EAB7621A8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82C61980-B504-4E41-9FAC-CFD8F5C8CF35}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_B8809D6766924DC81A3805D412B5A1DEA6762159" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4FF02F4-38E6-453C-A2AA-91748E913BE2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5064" uniqueCount="323">
   <si>
     <t>Categoria</t>
   </si>
@@ -906,6 +906,9 @@
     <t xml:space="preserve">Não preenchido completo </t>
   </si>
   <si>
+    <t>ID 4868</t>
+  </si>
+  <si>
     <t>10/06/2025</t>
   </si>
   <si>
@@ -972,6 +975,9 @@
     <t>10/07/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">Falta Atualizar dados ja falei com tecnica </t>
+  </si>
+  <si>
     <t>14/07/2025</t>
   </si>
   <si>
@@ -1000,6 +1006,9 @@
   </si>
   <si>
     <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -1935,17 +1944,20 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1959,19 +1971,16 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6018,7 +6027,7 @@
       </c>
       <c r="H2" s="37">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="37">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="N2" s="38">
         <f ca="1">SUM(B2:M2)</f>
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -6071,7 +6080,7 @@
       </c>
       <c r="G3" s="39">
         <f ca="1">COUNTIF(INDIRECT(G$1&amp;"!E2:E1000"),$A3)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="39">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
@@ -6099,7 +6108,7 @@
       </c>
       <c r="N3" s="40">
         <f ca="1">SUM(B3:M3)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -6356,11 +6365,11 @@
       </c>
       <c r="G8" s="49">
         <f ca="1">SUM(G2:G7)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="49">
         <f ca="1">SUM(H2:H7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="49">
         <f ca="1">SUM(I2:I7)</f>
@@ -6384,7 +6393,7 @@
       </c>
       <c r="N8" s="49">
         <f ca="1">SUM(B8:M8)</f>
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6415,7 +6424,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="120"/>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="114" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="121"/>
@@ -6425,7 +6434,7 @@
       <c r="H11" s="121"/>
       <c r="I11" s="122"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="111" t="s">
+      <c r="K11" s="114" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="121"/>
@@ -6446,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="120"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="109" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="121"/>
@@ -6456,7 +6465,7 @@
       <c r="H12" s="121"/>
       <c r="I12" s="122"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="109" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="121"/>
@@ -6465,7 +6474,7 @@
       <c r="O12" s="121"/>
       <c r="P12" s="122"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="104" t="s">
+      <c r="R12" s="103" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="122"/>
@@ -6518,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="113" t="str">
+      <c r="R13" s="112" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 06.25</v>
       </c>
@@ -6607,7 +6616,7 @@
       </c>
       <c r="E15" s="39">
         <f t="array" aca="1" ref="E15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="41">
         <f t="array" aca="1" ref="F15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6628,11 +6637,11 @@
       <c r="J15" s="10"/>
       <c r="K15" s="53">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Enviado")</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L15" s="39">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado &gt;= 2")</f>
@@ -7009,7 +7018,7 @@
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="123"/>
       <c r="B21" s="124"/>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="109" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="121"/>
@@ -7019,7 +7028,7 @@
       <c r="H21" s="121"/>
       <c r="I21" s="122"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="109" t="s">
         <v>46</v>
       </c>
       <c r="L21" s="121"/>
@@ -7028,7 +7037,7 @@
       <c r="O21" s="121"/>
       <c r="P21" s="122"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="113" t="s">
+      <c r="R21" s="112" t="s">
         <v>47</v>
       </c>
       <c r="S21" s="121"/>
@@ -7038,15 +7047,15 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="123"/>
       <c r="B22" s="124"/>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="103" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="122"/>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="103" t="s">
         <v>48</v>
       </c>
       <c r="F22" s="122"/>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="103" t="s">
         <v>49</v>
       </c>
       <c r="H22" s="122"/>
@@ -7054,15 +7063,15 @@
         <v>50</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="104" t="s">
+      <c r="K22" s="103" t="s">
         <v>48</v>
       </c>
       <c r="L22" s="122"/>
-      <c r="M22" s="104" t="s">
+      <c r="M22" s="103" t="s">
         <v>49</v>
       </c>
       <c r="N22" s="122"/>
-      <c r="O22" s="104" t="s">
+      <c r="O22" s="103" t="s">
         <v>51</v>
       </c>
       <c r="P22" s="122"/>
@@ -7083,7 +7092,7 @@
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="123"/>
       <c r="B23" s="124"/>
-      <c r="C23" s="112" t="s">
+      <c r="C23" s="115" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="122"/>
@@ -7112,7 +7121,7 @@
         <v>15</v>
       </c>
       <c r="N23" s="122"/>
-      <c r="O23" s="103">
+      <c r="O23" s="104">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
         <v>0.6875</v>
       </c>
@@ -7134,38 +7143,38 @@
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="123"/>
       <c r="B24" s="124"/>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="107" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="122"/>
       <c r="E24" s="106">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F24" s="122"/>
       <c r="G24" s="105">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H24" s="122"/>
       <c r="I24" s="63">
         <f ca="1">E24/SUM(E24:H24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="L24" s="122"/>
       <c r="M24" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N24" s="122"/>
-      <c r="O24" s="103">
+      <c r="O24" s="104">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
-        <v>0.83333333333333337</v>
+        <v>0.97468354430379744</v>
       </c>
       <c r="P24" s="122"/>
       <c r="Q24" s="11"/>
@@ -7185,7 +7194,7 @@
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="123"/>
       <c r="B25" s="124"/>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="111" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="122"/>
@@ -7214,7 +7223,7 @@
         <v>9</v>
       </c>
       <c r="N25" s="122"/>
-      <c r="O25" s="103">
+      <c r="O25" s="104">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -7236,7 +7245,7 @@
     <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="123"/>
       <c r="B26" s="124"/>
-      <c r="C26" s="107" t="s">
+      <c r="C26" s="108" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="122"/>
@@ -7265,7 +7274,7 @@
         <v>4</v>
       </c>
       <c r="N26" s="122"/>
-      <c r="O26" s="103">
+      <c r="O26" s="104">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
         <v>0.77777777777777779</v>
       </c>
@@ -7287,7 +7296,7 @@
     <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="123"/>
       <c r="B27" s="124"/>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="113" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="122"/>
@@ -7316,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="122"/>
-      <c r="O27" s="103">
+      <c r="O27" s="104">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
         <v>0.91836734693877553</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>11</v>
       </c>
       <c r="N28" s="122"/>
-      <c r="O28" s="103">
+      <c r="O28" s="104">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
         <v>0.77083333333333337</v>
       </c>
@@ -7386,7 +7395,7 @@
     <row r="29" spans="1:21">
       <c r="A29" s="125"/>
       <c r="B29" s="126"/>
-      <c r="C29" s="109" t="s">
+      <c r="C29" s="110" t="s">
         <v>44</v>
       </c>
       <c r="D29" s="122"/>
@@ -7415,7 +7424,7 @@
         <v>21</v>
       </c>
       <c r="N29" s="122"/>
-      <c r="O29" s="103">
+      <c r="O29" s="104">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
         <v>0.5714285714285714</v>
       </c>
@@ -7466,53 +7475,53 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="C11:I11"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R12:S12"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="354" priority="5" operator="equal">
@@ -8284,7 +8293,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>119</v>
@@ -8600,7 +8609,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>119</v>
@@ -9068,8 +9077,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
+      <c r="E57" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>315</v>
+      </c>
       <c r="G57" s="24" t="s">
         <v>119</v>
       </c>
@@ -17186,7 +17199,7 @@
         <v>112</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>113</v>
@@ -17198,7 +17211,7 @@
         <v>115</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>117</v>
@@ -17212,16 +17225,16 @@
         <v>59</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>119</v>
@@ -17241,16 +17254,16 @@
         <v>44</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>164</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>119</v>
@@ -17293,9 +17306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -22369,7 +22380,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Sem Técnico</v>
       </c>
       <c r="J20" s="67" t="str">
         <f t="array" aca="1" ref="J20" ca="1">IF(
@@ -22666,7 +22677,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Sem Técnico</v>
       </c>
       <c r="J21" s="67" t="str">
         <f t="array" aca="1" ref="J21" ca="1">IF(
@@ -23282,7 +23293,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="K23" s="67" t="str">
         <f t="array" aca="1" ref="K23" ca="1">IF(
@@ -37597,7 +37608,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J12" s="55" t="str">
         <f t="array" aca="1" ref="J12" ca="1">IF(
@@ -37894,7 +37905,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J13" s="55" t="str">
         <f t="array" aca="1" ref="J13" ca="1">IF(
@@ -38191,7 +38202,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J14" s="55" t="str">
         <f t="array" aca="1" ref="J14" ca="1">IF(
@@ -38466,7 +38477,7 @@
         FALSE
     )
 )</f>
-        <v>Sim</v>
+        <v>Não</v>
       </c>
       <c r="I15" s="55" t="str">
         <f t="array" aca="1" ref="I15" ca="1">IF(
@@ -38488,7 +38499,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J15" s="55" t="str">
         <f t="array" aca="1" ref="J15" ca="1">IF(
@@ -38785,7 +38796,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J16" s="55" t="str">
         <f t="array" aca="1" ref="J16" ca="1">IF(
@@ -39082,7 +39093,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J17" s="55" t="str">
         <f t="array" aca="1" ref="J17" ca="1">IF(
@@ -39379,7 +39390,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J18" s="55" t="str">
         <f t="array" aca="1" ref="J18" ca="1">IF(
@@ -39676,7 +39687,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J19" s="55" t="str">
         <f t="array" aca="1" ref="J19" ca="1">IF(
@@ -39973,7 +39984,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J20" s="55" t="str">
         <f t="array" aca="1" ref="J20" ca="1">IF(
@@ -40270,7 +40281,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J21" s="55" t="str">
         <f t="array" aca="1" ref="J21" ca="1">IF(
@@ -40567,7 +40578,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J22" s="55" t="str">
         <f t="array" aca="1" ref="J22" ca="1">IF(
@@ -40864,7 +40875,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J23" s="55" t="str">
         <f t="array" aca="1" ref="J23" ca="1">IF(
@@ -40886,7 +40897,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="K23" s="55" t="str">
         <f t="array" aca="1" ref="K23" ca="1">IF(
@@ -41161,7 +41172,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="J24" s="55" t="str">
         <f t="array" aca="1" ref="J24" ca="1">IF(
@@ -56427,8 +56438,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J49" sqref="J49"/>
+      <pane xSplit="3" topLeftCell="D39" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60141,9 +60152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G15" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60548,12 +60559,14 @@
         <v>279</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="J13" s="22" t="s">
         <v>119</v>
       </c>
@@ -60577,13 +60590,13 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22" t="s">
@@ -60609,7 +60622,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>123</v>
@@ -60675,7 +60688,7 @@
         <v>123</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22" t="s">
@@ -60701,7 +60714,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>123</v>
@@ -60735,7 +60748,7 @@
         <v>119</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
@@ -60821,7 +60834,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>123</v>
@@ -60851,7 +60864,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>123</v>
@@ -60881,13 +60894,13 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G24" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22" t="s">
@@ -60913,7 +60926,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>123</v>
@@ -60973,7 +60986,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>123</v>
@@ -61003,7 +61016,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>123</v>
@@ -61033,16 +61046,16 @@
         <v>17</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>224</v>
@@ -61097,7 +61110,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>123</v>
@@ -61367,7 +61380,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>123</v>
@@ -61463,7 +61476,7 @@
         <v>123</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I43" s="22"/>
       <c r="J43" s="22" t="s">
@@ -61583,7 +61596,7 @@
         <v>123</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
@@ -61907,7 +61920,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>123</v>
@@ -61920,7 +61933,7 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -61979,9 +61992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D36" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H47" sqref="H47"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62080,7 +62093,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>119</v>
@@ -62138,7 +62151,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>119</v>
@@ -62168,13 +62181,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22" t="s">
@@ -62200,7 +62213,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>119</v>
@@ -62230,7 +62243,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>123</v>
@@ -62260,7 +62273,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>119</v>
@@ -62290,10 +62303,10 @@
         <v>14</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -62320,10 +62333,10 @@
         <v>14</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -62350,10 +62363,10 @@
         <v>14</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -62380,12 +62393,14 @@
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" s="22"/>
+        <v>123</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="22" t="s">
         <v>119</v>
@@ -62410,10 +62425,10 @@
         <v>14</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -62440,10 +62455,10 @@
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -62470,7 +62485,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>123</v>
@@ -62500,10 +62515,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -62530,7 +62545,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>119</v>
@@ -62564,7 +62579,7 @@
         <v>119</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22" t="s">
@@ -62590,7 +62605,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>119</v>
@@ -62620,7 +62635,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>123</v>
@@ -62650,7 +62665,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>123</v>
@@ -62680,7 +62695,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>123</v>
@@ -62710,7 +62725,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>123</v>
@@ -62740,7 +62755,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>123</v>
@@ -62770,7 +62785,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>123</v>
@@ -62800,7 +62815,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>123</v>
@@ -62830,7 +62845,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>123</v>
@@ -62860,7 +62875,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>119</v>
@@ -62890,7 +62905,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G30" s="24" t="s">
         <v>119</v>
@@ -62920,10 +62935,10 @@
         <v>14</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -62950,13 +62965,13 @@
         <v>14</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22" t="s">
@@ -62982,7 +62997,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>119</v>
@@ -63012,7 +63027,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>119</v>
@@ -63042,7 +63057,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G35" s="24" t="s">
         <v>119</v>
@@ -63072,7 +63087,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>123</v>
@@ -63102,7 +63117,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G37" s="24" t="s">
         <v>119</v>
@@ -63132,7 +63147,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>123</v>
@@ -63162,13 +63177,13 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>123</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22" t="s">
@@ -63194,7 +63209,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>119</v>
@@ -63224,7 +63239,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>119</v>
@@ -63254,7 +63269,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>123</v>
@@ -63284,7 +63299,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>123</v>
@@ -63314,7 +63329,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>123</v>
@@ -63344,7 +63359,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>123</v>
@@ -63371,14 +63386,14 @@
         <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="s">
@@ -63401,14 +63416,14 @@
         <v>João Henrique Assunção de Sousa</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I47" s="22"/>
       <c r="J47" s="22" t="s">
@@ -63434,10 +63449,10 @@
         <v>14</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -63468,7 +63483,7 @@
         <v>119</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22" t="s">
@@ -63494,7 +63509,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>123</v>
@@ -63524,7 +63539,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>123</v>
@@ -63554,7 +63569,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G52" s="24" t="s">
         <v>119</v>
@@ -63584,13 +63599,13 @@
         <v>14</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>119</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I53" s="22"/>
       <c r="J53" s="22" t="s">
@@ -63620,7 +63635,7 @@
         <v>119</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I54" s="22"/>
       <c r="J54" s="22" t="s">
@@ -63646,7 +63661,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G55" s="24" t="s">
         <v>119</v>
@@ -63676,7 +63691,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G56" s="24" t="s">
         <v>119</v>
@@ -63706,10 +63721,10 @@
         <v>14</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -63736,10 +63751,10 @@
         <v>14</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -63749,7 +63764,7 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -63790,13 +63805,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_979BE724FBEA8FE81E7057AE25AA03BDA876F6A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A32C776-F8FE-448B-8C78-C98EAEF69384}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_771F946C7BBA80A076295CFA8D8B09BDA876F916" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9284D646-C3E6-463B-8718-78E2F8D01FB7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="15" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5120" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="326">
   <si>
     <t>Categoria</t>
   </si>
@@ -789,7 +789,7 @@
     <t xml:space="preserve">Inserir valor do contrato com a Prefeitura </t>
   </si>
   <si>
-    <t>08/04/2025, 05/05/2025</t>
+    <t>05/05/2025, 08/04/2025</t>
   </si>
   <si>
     <t>Excluir ID4577</t>
@@ -999,7 +999,13 @@
     <t>Não terá lançamento por enquanto, técnica nova.</t>
   </si>
   <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
     <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
   </si>
   <si>
     <t>25/07/2025</t>
@@ -1932,43 +1938,28 @@
     <xf numFmtId="0" fontId="13" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,16 +1968,31 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -5936,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6021,7 +6027,7 @@
       </c>
       <c r="H2" s="36">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I2" s="36">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
@@ -6045,7 +6051,7 @@
       </c>
       <c r="N2" s="37">
         <f ca="1">SUM(B2:M2)</f>
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -6078,7 +6084,7 @@
       </c>
       <c r="H3" s="38">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I3" s="38">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
@@ -6102,7 +6108,7 @@
       </c>
       <c r="N3" s="39">
         <f ca="1">SUM(B3:M3)</f>
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -6414,11 +6420,11 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="101" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="119"/>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="111" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="120"/>
@@ -6428,7 +6434,7 @@
       <c r="H11" s="120"/>
       <c r="I11" s="121"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="111" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="120"/>
@@ -6437,7 +6443,7 @@
       <c r="O11" s="120"/>
       <c r="P11" s="121"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="102" t="s">
+      <c r="R11" s="114" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="120"/>
@@ -6445,11 +6451,11 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="107" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="119"/>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="106" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="120"/>
@@ -6459,7 +6465,7 @@
       <c r="H12" s="120"/>
       <c r="I12" s="121"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="107" t="s">
+      <c r="K12" s="106" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="120"/>
@@ -6468,7 +6474,7 @@
       <c r="O12" s="120"/>
       <c r="P12" s="121"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="109" t="s">
+      <c r="R12" s="100" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="121"/>
@@ -6521,7 +6527,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="106" t="str">
+      <c r="R13" s="116" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 06.25</v>
       </c>
@@ -6562,11 +6568,11 @@
       <c r="J14" s="10"/>
       <c r="K14" s="52">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Enviado")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="38">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" s="40">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado &gt;= 2")</f>
@@ -6700,11 +6706,11 @@
       <c r="J16" s="10"/>
       <c r="K16" s="52">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Enviado")</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" s="38">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M16" s="40">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado &gt;= 2")</f>
@@ -6838,11 +6844,11 @@
       <c r="J18" s="10"/>
       <c r="K18" s="52">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Enviado")</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="38">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" s="40">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado &gt;= 2")</f>
@@ -6907,11 +6913,11 @@
       <c r="J19" s="10"/>
       <c r="K19" s="52">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Enviado")</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L19" s="38">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M19" s="40">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado &gt;= 2")</f>
@@ -6976,11 +6982,11 @@
       <c r="J20" s="10"/>
       <c r="K20" s="52">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Enviado")</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" s="38">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M20" s="40">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado &gt;= 2")</f>
@@ -7002,7 +7008,7 @@
       <c r="R20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="104">
+      <c r="S20" s="115">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>0.66666666666666663</v>
       </c>
@@ -7012,7 +7018,7 @@
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="122"/>
       <c r="B21" s="123"/>
-      <c r="C21" s="107" t="s">
+      <c r="C21" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="120"/>
@@ -7022,7 +7028,7 @@
       <c r="H21" s="120"/>
       <c r="I21" s="121"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="107" t="s">
+      <c r="K21" s="106" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="120"/>
@@ -7031,7 +7037,7 @@
       <c r="O21" s="120"/>
       <c r="P21" s="121"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="106" t="s">
+      <c r="R21" s="116" t="s">
         <v>46</v>
       </c>
       <c r="S21" s="120"/>
@@ -7041,15 +7047,15 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="122"/>
       <c r="B22" s="123"/>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="100" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="121"/>
-      <c r="E22" s="109" t="s">
+      <c r="E22" s="100" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="121"/>
-      <c r="G22" s="109" t="s">
+      <c r="G22" s="100" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="121"/>
@@ -7057,15 +7063,15 @@
         <v>49</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="109" t="s">
+      <c r="K22" s="100" t="s">
         <v>47</v>
       </c>
       <c r="L22" s="121"/>
-      <c r="M22" s="109" t="s">
+      <c r="M22" s="100" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="121"/>
-      <c r="O22" s="109" t="s">
+      <c r="O22" s="100" t="s">
         <v>50</v>
       </c>
       <c r="P22" s="121"/>
@@ -7075,27 +7081,27 @@
       </c>
       <c r="S22" s="13">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,9,FALSE)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T22" s="14">
         <f ca="1">S22/SUM($S$22:$S$27)</f>
-        <v>0.84126984126984128</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="122"/>
       <c r="B23" s="123"/>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="112" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="121"/>
-      <c r="E23" s="103">
+      <c r="E23" s="104">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="121"/>
-      <c r="G23" s="100">
+      <c r="G23" s="103">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>8</v>
       </c>
@@ -7105,17 +7111,17 @@
         <v>0</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="103">
+      <c r="K23" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
         <v>33</v>
       </c>
       <c r="L23" s="121"/>
-      <c r="M23" s="100">
+      <c r="M23" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
         <v>23</v>
       </c>
       <c r="N23" s="121"/>
-      <c r="O23" s="105">
+      <c r="O23" s="102">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
         <v>0.5892857142857143</v>
       </c>
@@ -7126,27 +7132,27 @@
       </c>
       <c r="S23" s="38">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,10,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23" s="55">
         <f ca="1">S23/SUM($S$22:$S$27)</f>
-        <v>0.12698412698412698</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="122"/>
       <c r="B24" s="123"/>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="113" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="121"/>
-      <c r="E24" s="103">
+      <c r="E24" s="104">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>13</v>
       </c>
       <c r="F24" s="121"/>
-      <c r="G24" s="100">
+      <c r="G24" s="103">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
@@ -7156,17 +7162,17 @@
         <v>1</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="103">
+      <c r="K24" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
         <v>77</v>
       </c>
       <c r="L24" s="121"/>
-      <c r="M24" s="100">
+      <c r="M24" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
         <v>14</v>
       </c>
       <c r="N24" s="121"/>
-      <c r="O24" s="105">
+      <c r="O24" s="102">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
         <v>0.84615384615384615</v>
       </c>
@@ -7188,16 +7194,16 @@
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="122"/>
       <c r="B25" s="123"/>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="109" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="121"/>
-      <c r="E25" s="103">
+      <c r="E25" s="104">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="F25" s="121"/>
-      <c r="G25" s="100">
+      <c r="G25" s="103">
         <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>3</v>
       </c>
@@ -7207,17 +7213,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="103">
+      <c r="K25" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
         <v>45</v>
       </c>
       <c r="L25" s="121"/>
-      <c r="M25" s="100">
+      <c r="M25" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
         <v>18</v>
       </c>
       <c r="N25" s="121"/>
-      <c r="O25" s="105">
+      <c r="O25" s="102">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
         <v>0.7142857142857143</v>
       </c>
@@ -7239,16 +7245,16 @@
     <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="122"/>
       <c r="B26" s="123"/>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="105" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="121"/>
-      <c r="E26" s="103">
+      <c r="E26" s="104">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>1</v>
       </c>
       <c r="F26" s="121"/>
-      <c r="G26" s="100">
+      <c r="G26" s="103">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7258,17 +7264,17 @@
         <v>0.5</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="103">
+      <c r="K26" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>14</v>
       </c>
       <c r="L26" s="121"/>
-      <c r="M26" s="100">
+      <c r="M26" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
         <v>6</v>
       </c>
       <c r="N26" s="121"/>
-      <c r="O26" s="105">
+      <c r="O26" s="102">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
         <v>0.7</v>
       </c>
@@ -7294,12 +7300,12 @@
         <v>40</v>
       </c>
       <c r="D27" s="121"/>
-      <c r="E27" s="103">
+      <c r="E27" s="104">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
       <c r="F27" s="121"/>
-      <c r="G27" s="100">
+      <c r="G27" s="103">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
@@ -7309,19 +7315,19 @@
         <v>1</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="103">
+      <c r="K27" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L27" s="121"/>
-      <c r="M27" s="100">
+      <c r="M27" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N27" s="121"/>
-      <c r="O27" s="105">
+      <c r="O27" s="102">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P27" s="121"/>
       <c r="Q27" s="11"/>
@@ -7341,16 +7347,16 @@
     <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="122"/>
       <c r="B28" s="123"/>
-      <c r="C28" s="108" t="s">
+      <c r="C28" s="117" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="121"/>
-      <c r="E28" s="103">
+      <c r="E28" s="104">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
       <c r="F28" s="121"/>
-      <c r="G28" s="100">
+      <c r="G28" s="103">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7360,17 +7366,17 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="103">
+      <c r="K28" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>44</v>
       </c>
       <c r="L28" s="121"/>
-      <c r="M28" s="100">
+      <c r="M28" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
         <v>12</v>
       </c>
       <c r="N28" s="121"/>
-      <c r="O28" s="105">
+      <c r="O28" s="102">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
         <v>0.7857142857142857</v>
       </c>
@@ -7379,7 +7385,7 @@
       <c r="R28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="115">
+      <c r="S28" s="118">
         <f ca="1">VLOOKUP($T$12,$C$20:$P$25,13,FALSE)</f>
         <v>0.7142857142857143</v>
       </c>
@@ -7389,16 +7395,16 @@
     <row r="29" spans="1:21">
       <c r="A29" s="124"/>
       <c r="B29" s="125"/>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="108" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="121"/>
-      <c r="E29" s="103">
+      <c r="E29" s="104">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
       <c r="F29" s="121"/>
-      <c r="G29" s="100">
+      <c r="G29" s="103">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
@@ -7408,17 +7414,17 @@
         <v>0.75</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="103">
+      <c r="K29" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
         <v>28</v>
       </c>
       <c r="L29" s="121"/>
-      <c r="M29" s="100">
+      <c r="M29" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
         <v>28</v>
       </c>
       <c r="N29" s="121"/>
-      <c r="O29" s="105">
+      <c r="O29" s="102">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
         <v>0.5</v>
       </c>
@@ -7454,59 +7460,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A12:B29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="M23:N23"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="O23:P23"/>
@@ -7514,8 +7467,61 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A12:B29"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="C12:I12"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="354" priority="5" operator="equal">
@@ -7562,11 +7568,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7619,7 +7626,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -7647,7 +7654,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -7675,7 +7682,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="27" t="s">
         <v>42</v>
       </c>
@@ -7703,7 +7710,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -7731,7 +7738,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
@@ -7759,7 +7766,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="27" t="s">
         <v>42</v>
       </c>
@@ -7773,10 +7780,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="22"/>
+      <c r="E7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="G7" s="24" t="s">
         <v>118</v>
       </c>
@@ -7815,7 +7824,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="30" t="s">
         <v>38</v>
       </c>
@@ -7843,7 +7852,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="31" t="s">
         <v>35</v>
       </c>
@@ -7871,7 +7880,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="31" t="s">
         <v>35</v>
       </c>
@@ -7899,7 +7908,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="31" t="s">
         <v>35</v>
       </c>
@@ -7927,7 +7936,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="31" t="s">
         <v>35</v>
       </c>
@@ -7955,7 +7964,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="31" t="s">
         <v>35</v>
       </c>
@@ -7983,7 +7992,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="31" t="s">
         <v>35</v>
       </c>
@@ -8011,7 +8020,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="28" t="s">
         <v>26</v>
       </c>
@@ -8039,7 +8048,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="31" t="s">
         <v>35</v>
       </c>
@@ -8067,7 +8076,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -8095,7 +8104,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -8123,7 +8132,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -8137,10 +8146,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="22"/>
+      <c r="E20" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="G20" s="24" t="s">
         <v>118</v>
       </c>
@@ -8151,7 +8162,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="28" t="s">
         <v>26</v>
       </c>
@@ -8179,7 +8190,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="28" t="s">
         <v>26</v>
       </c>
@@ -8207,7 +8218,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="28" t="s">
         <v>26</v>
       </c>
@@ -8235,7 +8246,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="28" t="s">
         <v>26</v>
       </c>
@@ -8263,7 +8274,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -8337,10 +8348,10 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -8377,7 +8388,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="27" t="s">
         <v>42</v>
       </c>
@@ -8405,7 +8416,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="27" t="s">
         <v>42</v>
       </c>
@@ -8433,7 +8444,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="31" t="s">
         <v>35</v>
       </c>
@@ -8461,7 +8472,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -8475,10 +8486,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Osair Wrublak</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="22"/>
+      <c r="E32" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>312</v>
+      </c>
       <c r="G32" s="24" t="s">
         <v>118</v>
       </c>
@@ -8489,7 +8502,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="27" t="s">
         <v>42</v>
       </c>
@@ -8517,7 +8530,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="27" t="s">
         <v>42</v>
       </c>
@@ -8545,7 +8558,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="28" t="s">
         <v>26</v>
       </c>
@@ -8559,10 +8572,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Suzana Gotardo de Meira </v>
       </c>
-      <c r="E35" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="22"/>
+      <c r="E35" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="G35" s="24" t="s">
         <v>118</v>
       </c>
@@ -8573,7 +8588,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="30" t="s">
         <v>38</v>
       </c>
@@ -8601,7 +8616,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="30" t="s">
         <v>38</v>
       </c>
@@ -8657,7 +8672,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -8675,7 +8690,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>118</v>
@@ -8687,7 +8702,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -8705,7 +8720,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>118</v>
@@ -8717,7 +8732,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="27" t="s">
         <v>42</v>
       </c>
@@ -8735,7 +8750,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G41" s="24" t="s">
         <v>118</v>
@@ -8747,7 +8762,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -8775,7 +8790,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="28" t="s">
         <v>26</v>
       </c>
@@ -8803,7 +8818,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -8859,7 +8874,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="31" t="s">
         <v>35</v>
       </c>
@@ -8887,7 +8902,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="31" t="s">
         <v>35</v>
       </c>
@@ -8915,7 +8930,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="31" t="s">
         <v>35</v>
       </c>
@@ -8943,7 +8958,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="28" t="s">
         <v>26</v>
       </c>
@@ -8961,7 +8976,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G49" s="24" t="s">
         <v>118</v>
@@ -8973,7 +8988,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -9015,12 +9030,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="22"/>
+      <c r="E51" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>314</v>
+      </c>
       <c r="G51" s="24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -9029,7 +9046,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -9085,7 +9102,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -9113,7 +9130,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -9141,7 +9158,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="27" t="s">
         <v>42</v>
       </c>
@@ -9169,7 +9186,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="31" t="s">
         <v>35</v>
       </c>
@@ -9187,7 +9204,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>118</v>
@@ -9199,7 +9216,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="31" t="s">
         <v>35</v>
       </c>
@@ -9228,7 +9245,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -12482,7 +12505,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -14079,7 +14102,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -17307,7 +17330,7 @@
         <v>111</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>112</v>
@@ -17319,7 +17342,7 @@
         <v>114</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>116</v>
@@ -17333,16 +17356,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>118</v>
@@ -17362,7 +17385,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>163</v>
@@ -17371,7 +17394,7 @@
         <v>290</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>118</v>
@@ -18872,7 +18895,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K6" s="66" t="str">
         <f t="array" aca="1" ref="K6" ca="1">IF(
@@ -25827,7 +25850,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K33" s="66" t="str">
         <f t="array" aca="1" ref="K33" ca="1">IF(
@@ -29491,7 +29514,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K49" s="66" t="str">
         <f t="array" aca="1" ref="K49" ca="1">IF(
@@ -30432,7 +30455,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K54" s="66" t="str">
         <f t="array" aca="1" ref="K54" ca="1">IF(
@@ -33155,7 +33178,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K65" s="66" t="str">
         <f t="array" aca="1" ref="K65" ca="1">IF(
@@ -45907,7 +45930,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K45" s="54" t="str">
         <f t="array" aca="1" ref="K45" ca="1">IF(
@@ -47095,7 +47118,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K49" s="54" t="str">
         <f t="array" aca="1" ref="K49" ca="1">IF(
@@ -52914,7 +52937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -60261,8 +60284,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -62101,7 +62124,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D26" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -63869,7 +63892,7 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_D34D17D1B5F2E9EEB717B011D0F62C1420560E4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A3F6E68-4B0C-4F47-9467-FC144C2B3BAF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_DB0E27BFB6B72F41C77C7954BC56251420560B68" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87E13006-90CD-4BAA-8DBF-44F94824BB81}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5179" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5187" uniqueCount="344">
   <si>
     <t>Categoria</t>
   </si>
@@ -1029,13 +1029,16 @@
     <t>12/08/2025</t>
   </si>
   <si>
+    <t>27/08/2025</t>
+  </si>
+  <si>
     <t>17/07/2025</t>
   </si>
   <si>
-    <t>01/08/2025</t>
+    <t>29/08/2025</t>
   </si>
   <si>
-    <t>Técnico teve um problema de saúde e está afastado</t>
+    <t>01/08/2025</t>
   </si>
   <si>
     <t>25/07/2025</t>
@@ -1050,7 +1053,10 @@
     <t>28/07/2025</t>
   </si>
   <si>
-    <t>Excluir o formulário ID5185/ O formulário correto está sendo editado por preenchimento incorreto</t>
+    <t>Solicitei a revisão no dia</t>
+  </si>
+  <si>
+    <t>O técnico preencheu tudo como "Outros materiais" já solicitei a correção (solicitei revisão 28/08/2025)</t>
   </si>
   <si>
     <t>ID5185</t>
@@ -1060,6 +1066,12 @@
   </si>
   <si>
     <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -1691,7 +1703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1987,6 +1999,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="43" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5993,7 +6008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:N27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6078,11 +6095,11 @@
       </c>
       <c r="H2" s="37">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A2)</f>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" s="37">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A2)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="37">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
@@ -6102,7 +6119,7 @@
       </c>
       <c r="N2" s="38">
         <f ca="1">SUM(B2:M2)</f>
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -6135,7 +6152,7 @@
       </c>
       <c r="H3" s="39">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A3)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" s="39">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
@@ -6159,7 +6176,7 @@
       </c>
       <c r="N3" s="40">
         <f ca="1">SUM(B3:M3)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -6424,7 +6441,7 @@
       </c>
       <c r="I8" s="49">
         <f ca="1">SUM(I2:I7)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" s="49">
         <f ca="1">SUM(J2:J7)</f>
@@ -6444,7 +6461,7 @@
       </c>
       <c r="N8" s="49">
         <f ca="1">SUM(B8:M8)</f>
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6471,72 +6488,72 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="104" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="123"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="117" t="s">
+      <c r="R11" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="121"/>
-      <c r="T11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="123"/>
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="110" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="110" t="s">
+      <c r="K12" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="123"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="113" t="s">
+      <c r="R12" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="122"/>
+      <c r="S12" s="123"/>
       <c r="T12" s="51" t="s">
         <v>26</v>
       </c>
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="125"/>
       <c r="C13" s="50" t="s">
         <v>25</v>
       </c>
@@ -6578,17 +6595,17 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="107" t="str">
+      <c r="R13" s="108" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 07.25</v>
       </c>
-      <c r="S13" s="121"/>
-      <c r="T13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="123"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="123"/>
-      <c r="B14" s="124"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="125"/>
       <c r="C14" s="52" t="s">
         <v>33</v>
       </c>
@@ -6647,17 +6664,17 @@
       </c>
       <c r="S14" s="13">
         <f ca="1">VLOOKUP($T$12,$C$14:$I$18,2, FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T14" s="14">
         <f ca="1">S14/SUM($S$14:$S$19)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="125"/>
       <c r="C15" s="54" t="s">
         <v>35</v>
       </c>
@@ -6716,23 +6733,23 @@
       </c>
       <c r="S15" s="39">
         <f ca="1">VLOOKUP($T$12,$C$14:$I$18,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="56">
         <f ca="1">S15/SUM($S$14:$S$19)</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1">
-      <c r="A16" s="123"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="53" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="53">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="39">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
@@ -6757,7 +6774,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="53">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Enviado")</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L16" s="39">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado")</f>
@@ -6794,8 +6811,8 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="123"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="58" t="s">
         <v>39</v>
       </c>
@@ -6863,18 +6880,18 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="123"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="53">
         <f t="array" aca="1" ref="D18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="39">
         <f t="array" aca="1" ref="E18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="41">
         <f t="array" aca="1" ref="F18" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C18)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6895,11 +6912,11 @@
       <c r="J18" s="10"/>
       <c r="K18" s="53">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Enviado")</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L18" s="39">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado &gt;= 2")</f>
@@ -6932,18 +6949,18 @@
       <c r="U18" s="10"/>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="61" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="53">
         <f t="array" aca="1" ref="D19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C19)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="39">
         <f t="array" aca="1" ref="E19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C19)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="41">
         <f t="array" aca="1" ref="F19" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C19)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -7001,8 +7018,8 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A20" s="123"/>
-      <c r="B20" s="124"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="62" t="s">
         <v>43</v>
       </c>
@@ -7012,7 +7029,7 @@
       </c>
       <c r="E20" s="39">
         <f t="array" aca="1" ref="E20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="41">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -7033,11 +7050,11 @@
       <c r="J20" s="10"/>
       <c r="K20" s="53">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Enviado")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L20" s="39">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado &gt;= 2")</f>
@@ -7059,175 +7076,175 @@
       <c r="R20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="118">
+      <c r="S20" s="119">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
-        <v>0.75</v>
-      </c>
-      <c r="T20" s="120"/>
+        <v>0.875</v>
+      </c>
+      <c r="T20" s="121"/>
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A21" s="123"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="110" t="s">
+      <c r="A21" s="124"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="122"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="123"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="121"/>
-      <c r="T21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="123"/>
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1">
-      <c r="A22" s="123"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="113" t="s">
+      <c r="A22" s="124"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="113" t="s">
+      <c r="D22" s="123"/>
+      <c r="E22" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="113" t="s">
+      <c r="F22" s="123"/>
+      <c r="G22" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="122"/>
+      <c r="H22" s="123"/>
       <c r="I22" s="50" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="113" t="s">
+      <c r="K22" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="113" t="s">
+      <c r="L22" s="123"/>
+      <c r="M22" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="122"/>
-      <c r="O22" s="113" t="s">
+      <c r="N22" s="123"/>
+      <c r="O22" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="122"/>
+      <c r="P22" s="123"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="13">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,9,FALSE)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T22" s="14">
         <f ca="1">S22/SUM($S$22:$S$27)</f>
-        <v>0.98245614035087714</v>
+        <v>1</v>
       </c>
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" s="123"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="115" t="s">
+      <c r="A23" s="124"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="102">
+      <c r="D23" s="123"/>
+      <c r="E23" s="103">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="F23" s="122"/>
-      <c r="G23" s="106">
+      <c r="F23" s="123"/>
+      <c r="G23" s="107">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="H23" s="122"/>
+      <c r="H23" s="123"/>
       <c r="I23" s="63">
         <f ca="1">E23/SUM(E23:H23)</f>
         <v>0.75</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="102">
+      <c r="K23" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
         <v>51</v>
       </c>
-      <c r="L23" s="122"/>
-      <c r="M23" s="106">
+      <c r="L23" s="123"/>
+      <c r="M23" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
         <v>5</v>
       </c>
-      <c r="N23" s="122"/>
-      <c r="O23" s="105">
+      <c r="N23" s="123"/>
+      <c r="O23" s="106">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
         <v>0.9107142857142857</v>
       </c>
-      <c r="P23" s="122"/>
+      <c r="P23" s="123"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="55" t="s">
         <v>36</v>
       </c>
       <c r="S23" s="39">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,10,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="56">
         <f ca="1">S23/SUM($S$22:$S$27)</f>
-        <v>1.7543859649122806E-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
-      <c r="A24" s="123"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="101" t="s">
+      <c r="A24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="102">
+      <c r="D24" s="123"/>
+      <c r="E24" s="103">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>11</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="106">
+      <c r="F24" s="123"/>
+      <c r="G24" s="107">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="H24" s="122"/>
+      <c r="H24" s="123"/>
       <c r="I24" s="63">
         <f ca="1">E24/SUM(E24:H24)</f>
         <v>0.84615384615384615</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="102">
+      <c r="K24" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
         <v>88</v>
       </c>
-      <c r="L24" s="122"/>
-      <c r="M24" s="106">
+      <c r="L24" s="123"/>
+      <c r="M24" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
         <v>3</v>
       </c>
-      <c r="N24" s="122"/>
-      <c r="O24" s="105">
+      <c r="N24" s="123"/>
+      <c r="O24" s="106">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
         <v>0.96703296703296704</v>
       </c>
-      <c r="P24" s="122"/>
+      <c r="P24" s="123"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="55" t="s">
         <v>38</v>
@@ -7243,42 +7260,42 @@
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="A25" s="123"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="112" t="s">
+      <c r="A25" s="124"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="122"/>
-      <c r="E25" s="102">
+      <c r="D25" s="123"/>
+      <c r="E25" s="103">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="123"/>
+      <c r="G25" s="107">
+        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="106">
-        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>9</v>
-      </c>
-      <c r="H25" s="122"/>
+      <c r="H25" s="123"/>
       <c r="I25" s="63">
         <f ca="1">E25/SUM(E25:H25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="102">
+      <c r="K25" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
-        <v>45</v>
-      </c>
-      <c r="L25" s="122"/>
-      <c r="M25" s="106">
+        <v>54</v>
+      </c>
+      <c r="L25" s="123"/>
+      <c r="M25" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
-        <v>18</v>
-      </c>
-      <c r="N25" s="122"/>
-      <c r="O25" s="105">
+        <v>10</v>
+      </c>
+      <c r="N25" s="123"/>
+      <c r="O25" s="106">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="P25" s="122"/>
+        <v>0.84375</v>
+      </c>
+      <c r="P25" s="123"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="55" t="s">
         <v>40</v>
@@ -7294,42 +7311,42 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
-      <c r="A26" s="123"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="109" t="s">
+      <c r="A26" s="124"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="102">
+      <c r="D26" s="123"/>
+      <c r="E26" s="103">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>1</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="106">
+      <c r="F26" s="123"/>
+      <c r="G26" s="107">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="H26" s="122"/>
+      <c r="H26" s="123"/>
       <c r="I26" s="63">
         <f ca="1">E26/SUM(E26:H26)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="102">
+      <c r="K26" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>15</v>
       </c>
-      <c r="L26" s="122"/>
-      <c r="M26" s="106">
+      <c r="L26" s="123"/>
+      <c r="M26" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
         <v>5</v>
       </c>
-      <c r="N26" s="122"/>
-      <c r="O26" s="105">
+      <c r="N26" s="123"/>
+      <c r="O26" s="106">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
         <v>0.75</v>
       </c>
-      <c r="P26" s="122"/>
+      <c r="P26" s="123"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="55" t="s">
         <v>41</v>
@@ -7345,42 +7362,42 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
-      <c r="A27" s="123"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="114" t="s">
+      <c r="A27" s="124"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="122"/>
-      <c r="E27" s="102">
+      <c r="D27" s="123"/>
+      <c r="E27" s="103">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>6</v>
-      </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="106">
+        <v>7</v>
+      </c>
+      <c r="F27" s="123"/>
+      <c r="G27" s="107">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="122"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="123"/>
       <c r="I27" s="63">
         <f ca="1">E27/SUM(E27:H27)</f>
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="102">
+      <c r="K27" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
-        <v>54</v>
-      </c>
-      <c r="L27" s="122"/>
-      <c r="M27" s="106">
+        <v>55</v>
+      </c>
+      <c r="L27" s="123"/>
+      <c r="M27" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
         <v>3</v>
       </c>
-      <c r="N27" s="122"/>
-      <c r="O27" s="105">
+      <c r="N27" s="123"/>
+      <c r="O27" s="106">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="P27" s="122"/>
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="P27" s="123"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="55" t="s">
         <v>19</v>
@@ -7396,90 +7413,90 @@
       <c r="U27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
-      <c r="A28" s="123"/>
-      <c r="B28" s="124"/>
-      <c r="C28" s="119" t="s">
+      <c r="A28" s="124"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="102">
+      <c r="D28" s="123"/>
+      <c r="E28" s="103">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>6</v>
       </c>
-      <c r="F28" s="122"/>
-      <c r="G28" s="106">
+      <c r="F28" s="123"/>
+      <c r="G28" s="107">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>2</v>
       </c>
-      <c r="H28" s="122"/>
+      <c r="H28" s="123"/>
       <c r="I28" s="63">
         <f ca="1">E28/SUM(E28:H28)</f>
         <v>0.75</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="102">
+      <c r="K28" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>50</v>
       </c>
-      <c r="L28" s="122"/>
-      <c r="M28" s="106">
+      <c r="L28" s="123"/>
+      <c r="M28" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
         <v>6</v>
       </c>
-      <c r="N28" s="122"/>
-      <c r="O28" s="105">
+      <c r="N28" s="123"/>
+      <c r="O28" s="106">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="P28" s="122"/>
+      <c r="P28" s="123"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="108">
+      <c r="S28" s="109">
         <f ca="1">VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="T28" s="122"/>
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="T28" s="123"/>
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="111" t="s">
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="122"/>
-      <c r="E29" s="102">
+      <c r="D29" s="123"/>
+      <c r="E29" s="103">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="106">
+        <v>5</v>
+      </c>
+      <c r="F29" s="123"/>
+      <c r="G29" s="107">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="H29" s="122"/>
+        <v>2</v>
+      </c>
+      <c r="H29" s="123"/>
       <c r="I29" s="63">
         <f ca="1">E29/SUM(E29:H29)</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="102">
+      <c r="K29" s="103">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
-        <v>37</v>
-      </c>
-      <c r="L29" s="122"/>
-      <c r="M29" s="106">
+        <v>42</v>
+      </c>
+      <c r="L29" s="123"/>
+      <c r="M29" s="107">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
-        <v>19</v>
-      </c>
-      <c r="N29" s="122"/>
-      <c r="O29" s="105">
+        <v>14</v>
+      </c>
+      <c r="N29" s="123"/>
+      <c r="O29" s="106">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
-        <v>0.6607142857142857</v>
-      </c>
-      <c r="P29" s="122"/>
+        <v>0.75</v>
+      </c>
+      <c r="P29" s="123"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -7521,8 +7538,8 @@
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R13:T13"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="R13:T13"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C12:I12"/>
@@ -7619,11 +7636,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7635,7 +7653,7 @@
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="101" customWidth="1"/>
+    <col min="8" max="8" width="103" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -7676,7 +7694,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -7704,7 +7722,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -7734,7 +7752,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -7762,7 +7780,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -7792,7 +7810,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -7812,8 +7830,8 @@
       <c r="F6" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>122</v>
+      <c r="G6" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -7822,7 +7840,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -7842,7 +7860,7 @@
       <c r="F7" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H7" s="22"/>
@@ -7852,7 +7870,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="28" t="s">
         <v>26</v>
       </c>
@@ -7912,7 +7930,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -7942,7 +7960,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -7972,7 +7990,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -8002,7 +8020,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -8070,7 +8088,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -8100,7 +8118,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -8120,8 +8138,8 @@
       <c r="F16" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="31" t="s">
-        <v>122</v>
+      <c r="G16" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -8130,7 +8148,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -8160,7 +8178,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -8218,7 +8236,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -8248,7 +8266,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -8268,8 +8286,8 @@
       <c r="F21" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>122</v>
+      <c r="G21" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -8278,7 +8296,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -8298,8 +8316,8 @@
       <c r="F22" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="31" t="s">
-        <v>122</v>
+      <c r="G22" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -8308,7 +8326,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -8328,8 +8346,8 @@
       <c r="F23" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>122</v>
+      <c r="G23" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -8338,7 +8356,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -8358,8 +8376,8 @@
       <c r="F24" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>122</v>
+      <c r="G24" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -8382,12 +8400,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Marcos Alexandre Esmocoviski </v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="22"/>
+      <c r="E25" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>322</v>
+      </c>
       <c r="G25" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -8396,7 +8416,7 @@
       </c>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" hidden="1">
       <c r="A26" s="28" t="s">
         <v>26</v>
       </c>
@@ -8426,7 +8446,7 @@
       </c>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="28" t="s">
         <v>26</v>
       </c>
@@ -8444,7 +8464,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>120</v>
@@ -8456,7 +8476,7 @@
       </c>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="28" t="s">
         <v>26</v>
       </c>
@@ -8486,7 +8506,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -8506,7 +8526,7 @@
       <c r="F29" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H29" s="22"/>
@@ -8516,7 +8536,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -8530,10 +8550,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="22"/>
+      <c r="E30" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>324</v>
+      </c>
       <c r="G30" s="31" t="s">
         <v>122</v>
       </c>
@@ -8544,7 +8566,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -8595,7 +8617,7 @@
         <v>313</v>
       </c>
       <c r="G32" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -8604,7 +8626,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -8624,7 +8646,7 @@
       <c r="F33" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H33" s="22"/>
@@ -8634,7 +8656,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -8654,7 +8676,7 @@
       <c r="F34" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H34" s="22"/>
@@ -8664,7 +8686,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -8682,10 +8704,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G35" s="31" t="s">
-        <v>122</v>
+        <v>325</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
@@ -8754,7 +8776,7 @@
       </c>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" hidden="1">
       <c r="A38" s="28" t="s">
         <v>26</v>
       </c>
@@ -8769,15 +8791,15 @@
         <v xml:space="preserve">Anderson Batista Siqueira </v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="F38" s="101">
+        <v>45666</v>
+      </c>
       <c r="G38" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>324</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H38" s="22"/>
       <c r="I38" s="22"/>
       <c r="J38" s="22" t="s">
         <v>122</v>
@@ -8805,7 +8827,7 @@
         <v>313</v>
       </c>
       <c r="G39" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -8814,7 +8836,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -8832,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G40" s="24" t="s">
         <v>120</v>
@@ -8844,7 +8866,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -8862,9 +8884,9 @@
         <v>14</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G41" s="31" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H41" s="22"/>
@@ -8874,9 +8896,9 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="32" t="s">
-        <v>43</v>
+    <row r="42" spans="1:11" hidden="1">
+      <c r="A42" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>106</v>
@@ -8894,8 +8916,8 @@
       <c r="F42" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G42" s="31" t="s">
-        <v>122</v>
+      <c r="G42" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -8904,7 +8926,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -8924,8 +8946,8 @@
       <c r="F43" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>122</v>
+      <c r="G43" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
@@ -8955,7 +8977,7 @@
         <v>310</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
@@ -8964,7 +8986,7 @@
       </c>
       <c r="K44" s="22"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="28" t="s">
         <v>26</v>
       </c>
@@ -8994,7 +9016,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -9016,7 +9038,7 @@
         <v>122</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I46" s="22"/>
       <c r="J46" s="22" t="s">
@@ -9024,7 +9046,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -9054,7 +9076,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -9084,7 +9106,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -9102,12 +9124,14 @@
         <v>14</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="22"/>
+        <v>329</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>330</v>
+      </c>
       <c r="I49" s="22"/>
       <c r="J49" s="22" t="s">
         <v>122</v>
@@ -9135,7 +9159,7 @@
         <v>315</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -9144,7 +9168,7 @@
       </c>
       <c r="K50" s="22"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="28" t="s">
         <v>26</v>
       </c>
@@ -9162,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G51" s="24" t="s">
         <v>120</v>
@@ -9174,7 +9198,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -9204,7 +9228,7 @@
       </c>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="28" t="s">
         <v>26</v>
       </c>
@@ -9228,16 +9252,16 @@
         <v>122</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J53" s="22" t="s">
         <v>120</v>
       </c>
       <c r="K53" s="22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9268,7 +9292,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -9298,7 +9322,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -9318,7 +9342,7 @@
       <c r="F56" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="24" t="s">
         <v>120</v>
       </c>
       <c r="H56" s="22"/>
@@ -9328,7 +9352,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -9346,7 +9370,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G57" s="24" t="s">
         <v>120</v>
@@ -9358,7 +9382,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -9389,7 +9413,14 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Guarapuava"/>
+        <filter val="Laranjeiras do Sul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="69" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -9449,8 +9480,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10167,8 +10198,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Savana Lemes Rodrigues</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>335</v>
+      </c>
       <c r="G27" s="31" t="s">
         <v>122</v>
       </c>
@@ -10743,8 +10778,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Cigolini</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="E49" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>335</v>
+      </c>
       <c r="G49" s="31" t="s">
         <v>122</v>
       </c>
@@ -10769,8 +10808,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="E50" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>336</v>
+      </c>
       <c r="G50" s="31" t="s">
         <v>122</v>
       </c>
@@ -17472,7 +17515,7 @@
         <v>113</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G1" s="20" t="s">
         <v>114</v>
@@ -17484,7 +17527,7 @@
         <v>116</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>118</v>
@@ -17498,16 +17541,16 @@
         <v>58</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>122</v>
@@ -17527,7 +17570,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>165</v>
@@ -17536,7 +17579,7 @@
         <v>290</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>122</v>
@@ -17579,9 +17622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -26610,7 +26651,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="L35" s="67" t="str">
         <f t="array" aca="1" ref="L35" ca="1">IF(
@@ -28492,7 +28533,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="L45" s="67" t="str">
         <f t="array" aca="1" ref="L45" ca="1">IF(
@@ -29064,7 +29105,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K47" s="67" t="str">
         <f t="array" aca="1" ref="K47" ca="1">IF(
@@ -32968,7 +33009,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Enviado</v>
       </c>
       <c r="K64" s="67" t="str">
         <f t="array" aca="1" ref="K64" ca="1">IF(
@@ -33839,7 +33880,7 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="J67" s="67" t="str">
+      <c r="J67" s="67" t="e">
         <f t="array" aca="1" ref="J67" ca="1">IF(
     VLOOKUP(
         $A67,
@@ -33859,7 +33900,7 @@
         FALSE
     )
 )</f>
-        <v>Enviado</v>
+        <v>#N/A</v>
       </c>
       <c r="K67" s="67" t="str">
         <f t="array" aca="1" ref="K67" ca="1">IF(
@@ -34475,7 +34516,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="L69" s="67" t="str">
         <f t="array" aca="1" ref="L69" ca="1">IF(
@@ -41759,7 +41800,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K27" s="55" t="str">
         <f t="array" aca="1" ref="K27" ca="1">IF(
@@ -42056,7 +42097,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K28" s="55" t="str">
         <f t="array" aca="1" ref="K28" ca="1">IF(
@@ -42353,7 +42394,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K29" s="55" t="str">
         <f t="array" aca="1" ref="K29" ca="1">IF(
@@ -42650,7 +42691,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K30" s="55" t="str">
         <f t="array" aca="1" ref="K30" ca="1">IF(
@@ -42947,7 +42988,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K31" s="55" t="str">
         <f t="array" aca="1" ref="K31" ca="1">IF(
@@ -43244,7 +43285,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K32" s="55" t="str">
         <f t="array" aca="1" ref="K32" ca="1">IF(
@@ -43541,7 +43582,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K33" s="55" t="str">
         <f t="array" aca="1" ref="K33" ca="1">IF(
@@ -43838,7 +43879,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K34" s="55" t="str">
         <f t="array" aca="1" ref="K34" ca="1">IF(
@@ -44135,7 +44176,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K35" s="55" t="str">
         <f t="array" aca="1" ref="K35" ca="1">IF(
@@ -44157,7 +44198,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="L35" s="55" t="str">
         <f t="array" aca="1" ref="L35" ca="1">IF(
@@ -46039,7 +46080,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="L45" s="55" t="str">
         <f t="array" aca="1" ref="L45" ca="1">IF(
@@ -46611,7 +46652,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K47" s="55" t="str">
         <f t="array" aca="1" ref="K47" ca="1">IF(
@@ -50572,7 +50613,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K64" s="55" t="str">
         <f t="array" aca="1" ref="K64" ca="1">IF(
@@ -50869,7 +50910,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K65" s="55" t="str">
         <f t="array" aca="1" ref="K65" ca="1">IF(
@@ -51166,7 +51207,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K66" s="55" t="str">
         <f t="array" aca="1" ref="K66" ca="1">IF(
@@ -51443,7 +51484,7 @@
 )</f>
         <v>Sim</v>
       </c>
-      <c r="J67" s="55" t="str">
+      <c r="J67" s="55" t="e">
         <f t="array" aca="1" ref="J67" ca="1">IF(
     VLOOKUP(
         $A67,
@@ -51463,7 +51504,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>#N/A</v>
       </c>
       <c r="K67" s="55" t="str">
         <f t="array" aca="1" ref="K67" ca="1">IF(
@@ -51760,7 +51801,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K68" s="55" t="str">
         <f t="array" aca="1" ref="K68" ca="1">IF(
@@ -52057,7 +52098,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="K69" s="55" t="str">
         <f t="array" aca="1" ref="K69" ca="1">IF(
@@ -52079,7 +52120,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="L69" s="55" t="str">
         <f t="array" aca="1" ref="L69" ca="1">IF(
@@ -53022,6 +53063,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53079,7 +53121,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -53108,7 +53150,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -53139,7 +53181,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -53168,7 +53210,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -53197,7 +53239,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -53226,7 +53268,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -53284,7 +53326,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
@@ -53313,7 +53355,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -53342,7 +53384,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -53371,7 +53413,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -53400,7 +53442,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -53435,7 +53477,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -53464,7 +53506,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -53493,7 +53535,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -53522,7 +53564,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -53553,7 +53595,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -53584,7 +53626,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -53611,7 +53653,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -53640,7 +53682,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -53669,7 +53711,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -53698,7 +53740,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -53727,7 +53769,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -53756,7 +53798,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -53874,7 +53916,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -53903,7 +53945,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -53932,7 +53974,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -53961,7 +54003,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -53990,7 +54032,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -54019,7 +54061,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -54048,7 +54090,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -54077,7 +54119,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -54106,7 +54148,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -54164,7 +54206,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -54193,7 +54235,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -54222,7 +54264,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -54251,7 +54293,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -54280,7 +54322,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -54309,7 +54351,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -54367,7 +54409,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -54396,7 +54438,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -54425,7 +54467,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -54454,7 +54496,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -54483,7 +54525,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -54541,7 +54583,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -54601,7 +54643,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -54626,7 +54668,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -54655,7 +54697,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -54682,7 +54724,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -54713,7 +54755,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -54749,7 +54791,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="135" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -54806,6 +54854,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -54863,7 +54912,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -54893,7 +54942,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -54927,7 +54976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -54957,7 +55006,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -54987,7 +55036,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -55017,7 +55066,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -55077,7 +55126,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
@@ -55107,7 +55156,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -55137,7 +55186,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -55167,7 +55216,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -55197,7 +55246,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -55227,7 +55276,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -55257,7 +55306,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -55287,7 +55336,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -55317,7 +55366,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -55349,7 +55398,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -55381,7 +55430,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -55409,7 +55458,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -55439,7 +55488,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -55469,7 +55518,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -55499,7 +55548,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -55529,7 +55578,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -55559,7 +55608,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -55683,7 +55732,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -55715,7 +55764,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -55745,7 +55794,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -55775,7 +55824,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -55805,7 +55854,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -55835,7 +55884,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -55865,7 +55914,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -55895,7 +55944,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -55925,7 +55974,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -55985,7 +56034,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -56015,7 +56064,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -56045,7 +56094,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -56075,7 +56124,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -56105,7 +56154,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -56135,7 +56184,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -56197,7 +56246,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -56227,7 +56276,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -56257,7 +56306,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -56289,7 +56338,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -56319,7 +56368,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -56379,7 +56428,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -56445,7 +56494,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -56473,7 +56522,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -56503,7 +56552,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -56533,7 +56582,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -56565,7 +56614,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -56596,7 +56645,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="124" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -56653,6 +56708,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -56710,7 +56766,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -56740,7 +56796,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -56776,7 +56832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -56808,7 +56864,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -56838,7 +56894,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -56868,7 +56924,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -56928,7 +56984,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
@@ -56958,7 +57014,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -56990,7 +57046,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -57022,7 +57078,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -57052,7 +57108,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -57082,7 +57138,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -57114,7 +57170,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -57146,7 +57202,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -57176,7 +57232,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -57208,7 +57264,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -57238,7 +57294,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -57266,7 +57322,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -57296,7 +57352,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -57326,7 +57382,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -57356,7 +57412,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -57386,7 +57442,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -57416,7 +57472,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -57538,7 +57594,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -57568,7 +57624,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -57598,7 +57654,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -57628,7 +57684,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -57658,7 +57714,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -57688,7 +57744,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -57718,7 +57774,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -57748,7 +57804,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -57778,7 +57834,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -57838,7 +57894,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -57868,7 +57924,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -57898,7 +57954,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -57928,7 +57984,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -57958,7 +58014,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -57988,7 +58044,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -58050,7 +58106,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -58082,7 +58138,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -58112,7 +58168,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -58144,7 +58200,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -58180,7 +58236,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -58240,7 +58296,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -58302,7 +58358,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -58330,7 +58386,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -58362,7 +58418,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -58392,7 +58448,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -58424,7 +58480,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -58455,7 +58511,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="113" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -58512,6 +58574,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58569,7 +58632,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -58599,7 +58662,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -58629,7 +58692,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -58657,7 +58720,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -58687,7 +58750,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -58717,7 +58780,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -58777,7 +58840,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
@@ -58813,7 +58876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -58845,7 +58908,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -58877,7 +58940,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -58909,7 +58972,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -58941,7 +59004,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -58973,7 +59036,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -59003,7 +59066,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -59033,7 +59096,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -59063,7 +59126,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -59093,7 +59156,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -59121,7 +59184,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -59151,7 +59214,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -59181,7 +59244,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -59213,7 +59276,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -59245,7 +59308,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -59277,7 +59340,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -59397,7 +59460,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -59433,7 +59496,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -59463,7 +59526,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -59493,7 +59556,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -59523,7 +59586,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -59553,7 +59616,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -59583,7 +59646,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -59615,7 +59678,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -59645,7 +59708,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -59705,7 +59768,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -59735,7 +59798,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -59765,7 +59828,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -59795,7 +59858,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -59825,7 +59888,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -59857,7 +59920,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -59917,7 +59980,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -59949,7 +60012,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -59979,7 +60042,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -60009,7 +60072,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -60039,7 +60102,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -60099,7 +60162,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -60159,7 +60222,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -60187,7 +60250,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -60217,7 +60280,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -60247,7 +60310,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -60277,7 +60340,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -60310,7 +60373,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="102" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -60367,6 +60436,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60424,7 +60494,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -60454,7 +60524,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -60484,7 +60554,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -60514,7 +60584,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -60544,7 +60614,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -60574,7 +60644,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -60634,7 +60704,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="29" t="s">
         <v>39</v>
       </c>
@@ -60664,7 +60734,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -60694,7 +60764,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -60724,7 +60794,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -60756,7 +60826,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -60792,7 +60862,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -60824,7 +60894,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -60854,7 +60924,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -60884,7 +60954,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -60916,7 +60986,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -60946,7 +61016,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -60976,7 +61046,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -61006,7 +61076,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -61036,7 +61106,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -61066,7 +61136,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -61096,7 +61166,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -61128,7 +61198,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -61248,7 +61318,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -61284,7 +61354,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -61314,7 +61384,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -61344,7 +61414,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -61374,7 +61444,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -61404,7 +61474,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -61434,7 +61504,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -61464,7 +61534,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -61494,7 +61564,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -61554,7 +61624,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -61584,7 +61654,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -61614,7 +61684,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -61644,7 +61714,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -61674,7 +61744,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -61706,7 +61776,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -61766,7 +61836,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -61796,7 +61866,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -61826,7 +61896,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -61856,7 +61926,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -61886,7 +61956,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -61946,7 +62016,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -62006,7 +62076,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -62034,7 +62104,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -62064,7 +62134,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -62094,7 +62164,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -62124,7 +62194,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -62155,7 +62225,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="91" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -62212,6 +62288,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62269,7 +62346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -62297,7 +62374,7 @@
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1">
       <c r="A3" s="21" t="s">
         <v>33</v>
       </c>
@@ -62327,7 +62404,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -62355,7 +62432,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="21" t="s">
         <v>33</v>
       </c>
@@ -62385,7 +62462,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
@@ -62417,7 +62494,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -62477,7 +62554,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="26" t="s">
         <v>42</v>
       </c>
@@ -62507,7 +62584,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="30" t="s">
         <v>35</v>
       </c>
@@ -62537,7 +62614,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="30" t="s">
         <v>35</v>
       </c>
@@ -62567,7 +62644,7 @@
       </c>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -62597,7 +62674,7 @@
       </c>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="30" t="s">
         <v>35</v>
       </c>
@@ -62629,7 +62706,7 @@
       </c>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="30" t="s">
         <v>35</v>
       </c>
@@ -62659,7 +62736,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
@@ -62689,7 +62766,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="27" t="s">
         <v>37</v>
       </c>
@@ -62719,7 +62796,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" hidden="1">
       <c r="A17" s="30" t="s">
         <v>35</v>
       </c>
@@ -62749,7 +62826,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
@@ -62779,7 +62856,7 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
@@ -62809,7 +62886,7 @@
       </c>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
@@ -62839,7 +62916,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="27" t="s">
         <v>37</v>
       </c>
@@ -62869,7 +62946,7 @@
       </c>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="27" t="s">
         <v>37</v>
       </c>
@@ -62899,7 +62976,7 @@
       </c>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="27" t="s">
         <v>37</v>
       </c>
@@ -62929,7 +63006,7 @@
       </c>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="27" t="s">
         <v>37</v>
       </c>
@@ -62959,7 +63036,7 @@
       </c>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="32" t="s">
         <v>43</v>
       </c>
@@ -63079,7 +63156,7 @@
       </c>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" hidden="1">
       <c r="A29" s="26" t="s">
         <v>42</v>
       </c>
@@ -63109,7 +63186,7 @@
       </c>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="26" t="s">
         <v>42</v>
       </c>
@@ -63139,7 +63216,7 @@
       </c>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" hidden="1">
       <c r="A31" s="30" t="s">
         <v>35</v>
       </c>
@@ -63169,7 +63246,7 @@
       </c>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="32" t="s">
         <v>43</v>
       </c>
@@ -63201,7 +63278,7 @@
       </c>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="26" t="s">
         <v>42</v>
       </c>
@@ -63231,7 +63308,7 @@
       </c>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="26" t="s">
         <v>42</v>
       </c>
@@ -63261,7 +63338,7 @@
       </c>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="27" t="s">
         <v>37</v>
       </c>
@@ -63291,7 +63368,7 @@
       </c>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="29" t="s">
         <v>39</v>
       </c>
@@ -63321,7 +63398,7 @@
       </c>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="29" t="s">
         <v>39</v>
       </c>
@@ -63381,7 +63458,7 @@
       </c>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="32" t="s">
         <v>43</v>
       </c>
@@ -63413,7 +63490,7 @@
       </c>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="21" t="s">
         <v>33</v>
       </c>
@@ -63443,7 +63520,7 @@
       </c>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="26" t="s">
         <v>42</v>
       </c>
@@ -63473,7 +63550,7 @@
       </c>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="32" t="s">
         <v>43</v>
       </c>
@@ -63503,7 +63580,7 @@
       </c>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="27" t="s">
         <v>37</v>
       </c>
@@ -63533,7 +63610,7 @@
       </c>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="32" t="s">
         <v>43</v>
       </c>
@@ -63593,7 +63670,7 @@
       </c>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="30" t="s">
         <v>35</v>
       </c>
@@ -63623,7 +63700,7 @@
       </c>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="30" t="s">
         <v>35</v>
       </c>
@@ -63653,7 +63730,7 @@
       </c>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="30" t="s">
         <v>35</v>
       </c>
@@ -63683,7 +63760,7 @@
       </c>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="27" t="s">
         <v>37</v>
       </c>
@@ -63715,7 +63792,7 @@
       </c>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="32" t="s">
         <v>43</v>
       </c>
@@ -63775,7 +63852,7 @@
       </c>
       <c r="K51" s="22"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="21" t="s">
         <v>33</v>
       </c>
@@ -63835,7 +63912,7 @@
       </c>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="32" t="s">
         <v>43</v>
       </c>
@@ -63865,7 +63942,7 @@
       </c>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="21" t="s">
         <v>33</v>
       </c>
@@ -63895,7 +63972,7 @@
       </c>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="26" t="s">
         <v>42</v>
       </c>
@@ -63925,7 +64002,7 @@
       </c>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
@@ -63955,7 +64032,7 @@
       </c>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="30" t="s">
         <v>35</v>
       </c>
@@ -63986,7 +64063,13 @@
       <c r="K58" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-000008000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Londrina"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_B6BED1CFC2F09670637ECD5388F359EE34EF27F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF5CE27-9181-4252-A3E3-26BE92C2DBB9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_31C809AE7C57DA41FDC1EA752B7826490035933C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B175D5-930E-4D75-B931-3AF2D78A51AD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <sheet name="12.25" sheetId="15" r:id="rId15"/>
     <sheet name="Irregulares" sheetId="16" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'01.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'02.25'!$A$1:$G$1</definedName>
@@ -36,12 +33,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'05.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'06.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'07.25'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'09.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Irregulares!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08.25'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,28 +58,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,7 +801,7 @@
     <t>Removido 4570. 4488 removido no mês anterior</t>
   </si>
   <si>
-    <t>09/09/2025, 04/06/2025</t>
+    <t>25/09/2025</t>
   </si>
   <si>
     <t>Técnica está impossibilidade de visitar a UVR e/ou conseguir os dados</t>
@@ -2183,23 +2158,59 @@
     <xf numFmtId="0" fontId="18" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2209,42 +2220,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -5426,19 +5401,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Form 1 - Município"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5726,9 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5797,7 +5757,7 @@
       </c>
       <c r="D2" s="39">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A2)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="39">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A2)</f>
@@ -5837,7 +5797,7 @@
       </c>
       <c r="N2" s="40">
         <f ca="1">SUM(B2:M2)</f>
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -5968,7 +5928,7 @@
       </c>
       <c r="D5" s="45">
         <f ca="1">COUNTIF(INDIRECT(D$1&amp;"!E2:E1000"),$A5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="45">
         <f ca="1">COUNTIF(INDIRECT(E$1&amp;"!E2:E1000"),$A5)</f>
@@ -6008,7 +5968,7 @@
       </c>
       <c r="N5" s="46">
         <f ca="1">SUM(B5:M5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
@@ -6206,11 +6166,11 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="111" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="115" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="126"/>
@@ -6220,7 +6180,7 @@
       <c r="H11" s="126"/>
       <c r="I11" s="127"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="119" t="s">
+      <c r="K11" s="115" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="126"/>
@@ -6229,7 +6189,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="116" t="s">
+      <c r="R11" s="113" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="126"/>
@@ -6237,11 +6197,11 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="120" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="125"/>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="106" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="126"/>
@@ -6251,7 +6211,7 @@
       <c r="H12" s="126"/>
       <c r="I12" s="127"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="118" t="s">
+      <c r="K12" s="106" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="126"/>
@@ -6260,7 +6220,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="113" t="s">
+      <c r="R12" s="116" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="127"/>
@@ -6313,7 +6273,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="117" t="str">
+      <c r="R13" s="114" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 08.25</v>
       </c>
@@ -6699,7 +6659,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Enviado")</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado")</f>
@@ -6711,7 +6671,7 @@
       </c>
       <c r="N19" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Duplicado")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="47">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Outras Ocorrências")</f>
@@ -6794,7 +6754,7 @@
       <c r="R20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="120">
+      <c r="S20" s="117">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>0.875</v>
       </c>
@@ -6804,7 +6764,7 @@
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="129"/>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="106" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="126"/>
@@ -6814,7 +6774,7 @@
       <c r="H21" s="126"/>
       <c r="I21" s="127"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="118" t="s">
+      <c r="K21" s="106" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="126"/>
@@ -6823,7 +6783,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="127"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="117" t="s">
+      <c r="R21" s="114" t="s">
         <v>46</v>
       </c>
       <c r="S21" s="126"/>
@@ -6833,15 +6793,15 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="116" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="127"/>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="116" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="127"/>
-      <c r="G22" s="113" t="s">
+      <c r="G22" s="116" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="127"/>
@@ -6849,15 +6809,15 @@
         <v>49</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="113" t="s">
+      <c r="K22" s="116" t="s">
         <v>47</v>
       </c>
       <c r="L22" s="127"/>
-      <c r="M22" s="113" t="s">
+      <c r="M22" s="116" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="127"/>
-      <c r="O22" s="113" t="s">
+      <c r="O22" s="116" t="s">
         <v>50</v>
       </c>
       <c r="P22" s="127"/>
@@ -6878,36 +6838,36 @@
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="129"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="119" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="127"/>
-      <c r="E23" s="109">
+      <c r="E23" s="104">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" s="127"/>
-      <c r="G23" s="106">
+      <c r="G23" s="105">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H23" s="127"/>
       <c r="I23" s="65">
         <f ca="1">E23/SUM(E23:H23)</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="109">
+      <c r="K23" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
         <v>63</v>
       </c>
       <c r="L23" s="127"/>
-      <c r="M23" s="106">
+      <c r="M23" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
         <v>1</v>
       </c>
       <c r="N23" s="127"/>
-      <c r="O23" s="107">
+      <c r="O23" s="108">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
         <v>0.984375</v>
       </c>
@@ -6929,16 +6889,16 @@
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="129"/>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="121" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="127"/>
-      <c r="E24" s="109">
+      <c r="E24" s="104">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>12</v>
       </c>
       <c r="F24" s="127"/>
-      <c r="G24" s="106">
+      <c r="G24" s="105">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -6948,17 +6908,17 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="109">
+      <c r="K24" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
         <v>79</v>
       </c>
       <c r="L24" s="127"/>
-      <c r="M24" s="106">
+      <c r="M24" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
         <v>9</v>
       </c>
       <c r="N24" s="127"/>
-      <c r="O24" s="107">
+      <c r="O24" s="108">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
         <v>0.89772727272727271</v>
       </c>
@@ -6980,16 +6940,16 @@
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="124" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="127"/>
-      <c r="E25" s="109">
+      <c r="E25" s="104">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="127"/>
-      <c r="G25" s="106">
+      <c r="G25" s="105">
         <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>9</v>
       </c>
@@ -6999,17 +6959,17 @@
         <v>0</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="109">
+      <c r="K25" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
         <v>40</v>
       </c>
       <c r="L25" s="127"/>
-      <c r="M25" s="106">
+      <c r="M25" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
         <v>8</v>
       </c>
       <c r="N25" s="127"/>
-      <c r="O25" s="107">
+      <c r="O25" s="108">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
         <v>0.83333333333333337</v>
       </c>
@@ -7031,16 +6991,16 @@
     <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="128"/>
       <c r="B26" s="129"/>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="123" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="127"/>
-      <c r="E26" s="109">
+      <c r="E26" s="104">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
       <c r="F26" s="127"/>
-      <c r="G26" s="106">
+      <c r="G26" s="105">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7050,17 +7010,17 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="109">
+      <c r="K26" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>20</v>
       </c>
       <c r="L26" s="127"/>
-      <c r="M26" s="106">
+      <c r="M26" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
         <v>9</v>
       </c>
       <c r="N26" s="127"/>
-      <c r="O26" s="107">
+      <c r="O26" s="108">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
         <v>0.68965517241379315</v>
       </c>
@@ -7082,16 +7042,16 @@
     <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="128"/>
       <c r="B27" s="129"/>
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="109" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="127"/>
-      <c r="E27" s="109">
+      <c r="E27" s="104">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
       <c r="F27" s="127"/>
-      <c r="G27" s="106">
+      <c r="G27" s="105">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7101,17 +7061,17 @@
         <v>0.875</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="109">
+      <c r="K27" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
         <v>61</v>
       </c>
       <c r="L27" s="127"/>
-      <c r="M27" s="106">
+      <c r="M27" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
         <v>5</v>
       </c>
       <c r="N27" s="127"/>
-      <c r="O27" s="107">
+      <c r="O27" s="108">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
         <v>0.9242424242424242</v>
       </c>
@@ -7133,16 +7093,16 @@
     <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="128"/>
       <c r="B28" s="129"/>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="127"/>
-      <c r="E28" s="109">
+      <c r="E28" s="104">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
       <c r="F28" s="127"/>
-      <c r="G28" s="106">
+      <c r="G28" s="105">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
@@ -7152,17 +7112,17 @@
         <v>1</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="109">
+      <c r="K28" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>59</v>
       </c>
       <c r="L28" s="127"/>
-      <c r="M28" s="106">
+      <c r="M28" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
         <v>5</v>
       </c>
       <c r="N28" s="127"/>
-      <c r="O28" s="107">
+      <c r="O28" s="108">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
         <v>0.921875</v>
       </c>
@@ -7171,7 +7131,7 @@
       <c r="R28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="114">
+      <c r="S28" s="118">
         <f ca="1">VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
         <v>0.9242424242424242</v>
       </c>
@@ -7181,16 +7141,16 @@
     <row r="29" spans="1:21">
       <c r="A29" s="130"/>
       <c r="B29" s="131"/>
-      <c r="C29" s="122" t="s">
+      <c r="C29" s="112" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="127"/>
-      <c r="E29" s="109">
+      <c r="E29" s="104">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="F29" s="127"/>
-      <c r="G29" s="106">
+      <c r="G29" s="105">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>3</v>
       </c>
@@ -7200,19 +7160,19 @@
         <v>0.625</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="109">
+      <c r="K29" s="104">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L29" s="127"/>
-      <c r="M29" s="106">
+      <c r="M29" s="105">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N29" s="127"/>
-      <c r="O29" s="107">
+      <c r="O29" s="108">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
-        <v>0.84375</v>
+        <v>0.953125</v>
       </c>
       <c r="P29" s="127"/>
       <c r="Q29" s="10"/>
@@ -7253,7 +7213,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19"/>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="122" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="127"/>
@@ -7275,7 +7235,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19"/>
-      <c r="C34" s="105" t="s">
+      <c r="C34" s="107" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="127"/>
@@ -7295,7 +7255,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="19"/>
-      <c r="C35" s="105" t="s">
+      <c r="C35" s="107" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="127"/>
@@ -7315,7 +7275,7 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="107" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="127"/>
@@ -7342,7 +7302,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="19"/>
-      <c r="C37" s="105" t="s">
+      <c r="C37" s="107" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="127"/>
@@ -7369,7 +7329,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="19"/>
-      <c r="C38" s="105" t="s">
+      <c r="C38" s="107" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="127"/>
@@ -7396,7 +7356,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="19"/>
-      <c r="C39" s="105" t="s">
+      <c r="C39" s="107" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="127"/>
@@ -7423,7 +7383,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="19"/>
-      <c r="C40" s="105" t="s">
+      <c r="C40" s="107" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="127"/>
@@ -7450,7 +7410,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19"/>
-      <c r="C41" s="105" t="s">
+      <c r="C41" s="107" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="127"/>
@@ -7477,7 +7437,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="19"/>
-      <c r="C42" s="105" t="s">
+      <c r="C42" s="107" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="127"/>
@@ -7504,7 +7464,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="19"/>
-      <c r="C43" s="105" t="s">
+      <c r="C43" s="107" t="s">
         <v>66</v>
       </c>
       <c r="D43" s="127"/>
@@ -7531,7 +7491,7 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="19"/>
-      <c r="C44" s="105" t="s">
+      <c r="C44" s="107" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="127"/>
@@ -7558,7 +7518,7 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="19"/>
-      <c r="C45" s="105" t="s">
+      <c r="C45" s="107" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="127"/>
@@ -7585,7 +7545,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="19"/>
-      <c r="C46" s="105" t="s">
+      <c r="C46" s="107" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="127"/>
@@ -7612,7 +7572,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="19"/>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="107" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="127"/>
@@ -7646,19 +7606,54 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A12:B29"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C47:D47"/>
@@ -7675,54 +7670,19 @@
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="A12:B29"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="306" priority="5" operator="equal">
@@ -7773,7 +7733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8356,11 +8316,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -9046,7 +9006,7 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="24" t="s">
@@ -9590,13 +9550,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0900-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0900-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9608,9 +9568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D25" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9714,7 +9674,7 @@
         <v>350</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -9774,7 +9734,7 @@
         <v>360</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -10164,7 +10124,7 @@
         <v>364</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -10187,11 +10147,11 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -10224,7 +10184,7 @@
         <v>348</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -10795,7 +10755,7 @@
       <c r="F39" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="24"/>
@@ -10826,7 +10786,7 @@
         <v>363</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -11125,7 +11085,7 @@
       <c r="F50" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H50" s="24"/>
@@ -11186,7 +11146,7 @@
         <v>350</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -11276,7 +11236,7 @@
         <v>363</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -11417,13 +11377,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11437,7 +11397,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13020,13 +12980,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13040,7 +13000,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14619,13 +14579,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14639,7 +14599,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16218,13 +16178,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16238,7 +16198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17817,13 +17777,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17977,9 +17937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -17990,8 +17948,8 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
-    <col min="8" max="9" width="20" customWidth="1"/>
-    <col min="10" max="15" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
@@ -26007,7 +25965,7 @@
 )</f>
         <v>Enviado</v>
       </c>
-      <c r="J36" s="72" t="str" cm="1">
+      <c r="J36" s="72" t="str">
         <f t="array" aca="1" ref="J36" ca="1">IF(
     VLOOKUP(
         $A36,
@@ -29608,7 +29566,7 @@
         FALSE
     )
 )</f>
-        <v>Duplicado</v>
+        <v>Enviado</v>
       </c>
       <c r="G53" s="72" t="str">
         <f t="array" aca="1" ref="G53" ca="1">IF(
@@ -34019,7 +33977,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:O14 D17:O25 D43:O50 D53:O60 D63:O70 D28:O40">
+  <conditionalFormatting sqref="D2:O14 D17:O25 D28:O40 D43:O50 D53:O60 D63:O70">
     <cfRule type="cellIs" dxfId="297" priority="67" operator="equal">
       <formula>"Duplicado"</formula>
     </cfRule>
@@ -34107,16 +34065,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="17" max="17" width="9.140625" customWidth="1"/>
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
@@ -40906,7 +40862,7 @@
 )</f>
         <v>Sim</v>
       </c>
-      <c r="H28" s="57" t="str" cm="1">
+      <c r="H28" s="57" t="str">
         <f t="array" aca="1" ref="H28" ca="1">IF(
     VLOOKUP(
         $A28,
@@ -40928,7 +40884,7 @@
 )</f>
         <v>Sim</v>
       </c>
-      <c r="I28" s="57" t="str" cm="1">
+      <c r="I28" s="57" t="str">
         <f t="array" aca="1" ref="I28" ca="1">IF(
     VLOOKUP(
         $A28,
@@ -49514,7 +49470,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L64" s="57" t="str">
         <f t="array" aca="1" ref="L64" ca="1">IF(
@@ -49819,7 +49775,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L65" s="57" t="str">
         <f t="array" aca="1" ref="L65" ca="1">IF(
@@ -50124,7 +50080,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L66" s="57" t="str">
         <f t="array" aca="1" ref="L66" ca="1">IF(
@@ -50429,7 +50385,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L67" s="57" t="str">
         <f t="array" aca="1" ref="L67" ca="1">IF(
@@ -50734,7 +50690,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L68" s="57" t="str">
         <f t="array" aca="1" ref="L68" ca="1">IF(
@@ -51039,7 +50995,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L69" s="57" t="str">
         <f t="array" aca="1" ref="L69" ca="1">IF(
@@ -51344,7 +51300,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L70" s="57" t="str">
         <f t="array" aca="1" ref="L70" ca="1">IF(
@@ -51994,7 +51950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53762,13 +53718,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -53780,9 +53736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55611,13 +55567,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0400-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0400-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -55631,7 +55587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55641,7 +55597,8 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="7" width="27" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="132" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
@@ -55763,8 +55720,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>17</v>
+      <c r="E4" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>246</v>
@@ -57471,13 +57428,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -57491,7 +57448,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59328,13 +59285,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -59348,7 +59305,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59941,7 +59898,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -61173,13 +61130,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -61193,7 +61150,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -61776,7 +61733,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -63008,13 +62965,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_31C809AE7C57DA41FDC1EA752B7826490035933C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B175D5-930E-4D75-B931-3AF2D78A51AD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_31C809AE0CA0D0BC732C1A752B78263360F262F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F09026EB-1DF3-491B-A48E-E823747D788D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="386">
   <si>
     <t>Categoria</t>
   </si>
@@ -1143,6 +1143,9 @@
     <t>24/07/2025</t>
   </si>
   <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
     <t>09/09/2025</t>
   </si>
   <si>
@@ -1186,6 +1189,15 @@
   </si>
   <si>
     <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -2158,59 +2170,23 @@
     <xf numFmtId="0" fontId="18" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2220,6 +2196,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -5781,7 +5793,7 @@
       </c>
       <c r="J2" s="39">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A2)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2" s="39">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
@@ -5797,7 +5809,7 @@
       </c>
       <c r="N2" s="40">
         <f ca="1">SUM(B2:M2)</f>
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -5834,11 +5846,11 @@
       </c>
       <c r="I3" s="41">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="41">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K3" s="41">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
@@ -5854,7 +5866,7 @@
       </c>
       <c r="N3" s="42">
         <f ca="1">SUM(B3:M3)</f>
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -5887,11 +5899,11 @@
       </c>
       <c r="H4" s="43">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="43">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="43">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
@@ -5911,7 +5923,7 @@
       </c>
       <c r="N4" s="44">
         <f ca="1">SUM(B4:M4)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
@@ -6058,7 +6070,7 @@
       </c>
       <c r="H7" s="49">
         <f ca="1">COUNTIF(INDIRECT(H$1&amp;"!E2:E1000"),$A7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="49">
         <f ca="1">COUNTIF(INDIRECT(I$1&amp;"!E2:E1000"),$A7)</f>
@@ -6082,7 +6094,7 @@
       </c>
       <c r="N7" s="50">
         <f ca="1">SUM(B7:M7)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
@@ -6123,7 +6135,7 @@
       </c>
       <c r="J8" s="51">
         <f ca="1">SUM(J2:J7)</f>
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="K8" s="51">
         <f ca="1">SUM(K2:K7)</f>
@@ -6139,7 +6151,7 @@
       </c>
       <c r="N8" s="51">
         <f ca="1">SUM(B8:M8)</f>
-        <v>461</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6166,11 +6178,11 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="121" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="125"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="119" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="126"/>
@@ -6180,7 +6192,7 @@
       <c r="H11" s="126"/>
       <c r="I11" s="127"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="115" t="s">
+      <c r="K11" s="119" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="126"/>
@@ -6189,7 +6201,7 @@
       <c r="O11" s="126"/>
       <c r="P11" s="127"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="113" t="s">
+      <c r="R11" s="116" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="126"/>
@@ -6197,11 +6209,11 @@
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="104" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="125"/>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="118" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="126"/>
@@ -6211,7 +6223,7 @@
       <c r="H12" s="126"/>
       <c r="I12" s="127"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="106" t="s">
+      <c r="K12" s="118" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="126"/>
@@ -6220,7 +6232,7 @@
       <c r="O12" s="126"/>
       <c r="P12" s="127"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="116" t="s">
+      <c r="R12" s="113" t="s">
         <v>25</v>
       </c>
       <c r="S12" s="127"/>
@@ -6273,7 +6285,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="114" t="str">
+      <c r="R13" s="117" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
         <v>Envios - Mês de Referência - 08.25</v>
       </c>
@@ -6318,7 +6330,7 @@
       </c>
       <c r="L14" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M14" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado &gt;= 2")</f>
@@ -6383,11 +6395,11 @@
       <c r="J15" s="10"/>
       <c r="K15" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Enviado")</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado &gt;= 2")</f>
@@ -6452,15 +6464,15 @@
       <c r="J16" s="10"/>
       <c r="K16" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Enviado")</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado &gt;= 2")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Duplicado")</f>
@@ -6500,11 +6512,11 @@
       </c>
       <c r="E17" s="41">
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="43">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="45">
         <f t="array" aca="1" ref="G17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Duplicado"))), 0)</f>
@@ -6525,7 +6537,7 @@
       </c>
       <c r="L17" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$38:$P$40"), "Atrasado")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$38:$P$40"), "Atrasado &gt;= 2")</f>
@@ -6594,7 +6606,7 @@
       </c>
       <c r="L18" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M18" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado &gt;= 2")</f>
@@ -6659,11 +6671,11 @@
       <c r="J19" s="10"/>
       <c r="K19" s="55">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Enviado")</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L19" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M19" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado &gt;= 2")</f>
@@ -6707,11 +6719,11 @@
       </c>
       <c r="E20" s="41">
         <f t="array" aca="1" ref="E20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="43">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="45">
         <f t="array" aca="1" ref="G20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Duplicado"))), 0)</f>
@@ -6732,7 +6744,7 @@
       </c>
       <c r="L20" s="41">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M20" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado &gt;= 2")</f>
@@ -6754,7 +6766,7 @@
       <c r="R20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="117">
+      <c r="S20" s="120">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>0.875</v>
       </c>
@@ -6764,7 +6776,7 @@
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
       <c r="A21" s="128"/>
       <c r="B21" s="129"/>
-      <c r="C21" s="106" t="s">
+      <c r="C21" s="118" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="126"/>
@@ -6774,7 +6786,7 @@
       <c r="H21" s="126"/>
       <c r="I21" s="127"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="106" t="s">
+      <c r="K21" s="118" t="s">
         <v>45</v>
       </c>
       <c r="L21" s="126"/>
@@ -6783,7 +6795,7 @@
       <c r="O21" s="126"/>
       <c r="P21" s="127"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="114" t="s">
+      <c r="R21" s="117" t="s">
         <v>46</v>
       </c>
       <c r="S21" s="126"/>
@@ -6793,15 +6805,15 @@
     <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="128"/>
       <c r="B22" s="129"/>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="113" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="127"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="113" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="127"/>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="113" t="s">
         <v>48</v>
       </c>
       <c r="H22" s="127"/>
@@ -6809,15 +6821,15 @@
         <v>49</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="116" t="s">
+      <c r="K22" s="113" t="s">
         <v>47</v>
       </c>
       <c r="L22" s="127"/>
-      <c r="M22" s="116" t="s">
+      <c r="M22" s="113" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="127"/>
-      <c r="O22" s="116" t="s">
+      <c r="O22" s="113" t="s">
         <v>50</v>
       </c>
       <c r="P22" s="127"/>
@@ -6831,23 +6843,23 @@
       </c>
       <c r="T22" s="14">
         <f ca="1">S22/SUM($S$22:$S$27)</f>
-        <v>1</v>
+        <v>0.90277777777777779</v>
       </c>
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="128"/>
       <c r="B23" s="129"/>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="115" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="127"/>
-      <c r="E23" s="104">
+      <c r="E23" s="109">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
       <c r="F23" s="127"/>
-      <c r="G23" s="105">
+      <c r="G23" s="106">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
@@ -6857,19 +6869,19 @@
         <v>1</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="104">
+      <c r="K23" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
         <v>63</v>
       </c>
       <c r="L23" s="127"/>
-      <c r="M23" s="105">
+      <c r="M23" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")</f>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N23" s="127"/>
-      <c r="O23" s="108">
+      <c r="O23" s="107">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
-        <v>0.984375</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="P23" s="127"/>
       <c r="Q23" s="11"/>
@@ -6878,27 +6890,27 @@
       </c>
       <c r="S23" s="41">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,10,FALSE)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T23" s="58">
         <f ca="1">S23/SUM($S$22:$S$27)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="128"/>
       <c r="B24" s="129"/>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="108" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="127"/>
-      <c r="E24" s="104">
+      <c r="E24" s="109">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>12</v>
       </c>
       <c r="F24" s="127"/>
-      <c r="G24" s="105">
+      <c r="G24" s="106">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -6908,19 +6920,19 @@
         <v>0.92307692307692313</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="104">
+      <c r="K24" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="L24" s="127"/>
-      <c r="M24" s="105">
+      <c r="M24" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")</f>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="N24" s="127"/>
-      <c r="O24" s="108">
+      <c r="O24" s="107">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
-        <v>0.89772727272727271</v>
+        <v>0.79090909090909089</v>
       </c>
       <c r="P24" s="127"/>
       <c r="Q24" s="11"/>
@@ -6940,38 +6952,38 @@
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="128"/>
       <c r="B25" s="129"/>
-      <c r="C25" s="124" t="s">
+      <c r="C25" s="112" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="127"/>
-      <c r="E25" s="104">
+      <c r="E25" s="109">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="F25" s="127"/>
+      <c r="G25" s="106">
+        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
-      </c>
-      <c r="F25" s="127"/>
-      <c r="G25" s="105">
-        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
-        <v>9</v>
       </c>
       <c r="H25" s="127"/>
       <c r="I25" s="65">
         <f ca="1">E25/SUM(E25:H25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="104">
+      <c r="K25" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
         <v>40</v>
       </c>
       <c r="L25" s="127"/>
-      <c r="M25" s="105">
+      <c r="M25" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N25" s="127"/>
-      <c r="O25" s="108">
+      <c r="O25" s="107">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P25" s="127"/>
       <c r="Q25" s="11"/>
@@ -6991,16 +7003,16 @@
     <row r="26" spans="1:21" ht="15" customHeight="1">
       <c r="A26" s="128"/>
       <c r="B26" s="129"/>
-      <c r="C26" s="123" t="s">
+      <c r="C26" s="111" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="127"/>
-      <c r="E26" s="104">
+      <c r="E26" s="109">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>2</v>
       </c>
       <c r="F26" s="127"/>
-      <c r="G26" s="105">
+      <c r="G26" s="106">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7010,19 +7022,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="104">
+      <c r="K26" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>20</v>
       </c>
       <c r="L26" s="127"/>
-      <c r="M26" s="105">
+      <c r="M26" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N26" s="127"/>
-      <c r="O26" s="108">
+      <c r="O26" s="107">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
-        <v>0.68965517241379315</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="P26" s="127"/>
       <c r="Q26" s="11"/>
@@ -7042,16 +7054,16 @@
     <row r="27" spans="1:21" ht="15" customHeight="1">
       <c r="A27" s="128"/>
       <c r="B27" s="129"/>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="123" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="127"/>
-      <c r="E27" s="104">
+      <c r="E27" s="109">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
       <c r="F27" s="127"/>
-      <c r="G27" s="105">
+      <c r="G27" s="106">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>1</v>
       </c>
@@ -7061,19 +7073,19 @@
         <v>0.875</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="104">
+      <c r="K27" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
         <v>61</v>
       </c>
       <c r="L27" s="127"/>
-      <c r="M27" s="105">
+      <c r="M27" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N27" s="127"/>
-      <c r="O27" s="108">
+      <c r="O27" s="107">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
-        <v>0.9242424242424242</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="P27" s="127"/>
       <c r="Q27" s="11"/>
@@ -7093,16 +7105,16 @@
     <row r="28" spans="1:21" ht="15" customHeight="1">
       <c r="A28" s="128"/>
       <c r="B28" s="129"/>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="124" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="127"/>
-      <c r="E28" s="104">
+      <c r="E28" s="109">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>8</v>
       </c>
       <c r="F28" s="127"/>
-      <c r="G28" s="105">
+      <c r="G28" s="106">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>0</v>
       </c>
@@ -7112,28 +7124,28 @@
         <v>1</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="104">
+      <c r="K28" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>59</v>
       </c>
       <c r="L28" s="127"/>
-      <c r="M28" s="105">
+      <c r="M28" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N28" s="127"/>
-      <c r="O28" s="108">
+      <c r="O28" s="107">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
-        <v>0.921875</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="P28" s="127"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="118">
+      <c r="S28" s="114">
         <f ca="1">VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
-        <v>0.9242424242424242</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="T28" s="127"/>
       <c r="U28" s="10"/>
@@ -7141,16 +7153,16 @@
     <row r="29" spans="1:21">
       <c r="A29" s="130"/>
       <c r="B29" s="131"/>
-      <c r="C29" s="112" t="s">
+      <c r="C29" s="122" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="127"/>
-      <c r="E29" s="104">
+      <c r="E29" s="109">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>5</v>
       </c>
       <c r="F29" s="127"/>
-      <c r="G29" s="105">
+      <c r="G29" s="106">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não"))), 0)</f>
         <v>3</v>
       </c>
@@ -7160,19 +7172,19 @@
         <v>0.625</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="104">
+      <c r="K29" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
         <v>61</v>
       </c>
       <c r="L29" s="127"/>
-      <c r="M29" s="105">
+      <c r="M29" s="106">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N29" s="127"/>
-      <c r="O29" s="108">
+      <c r="O29" s="107">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
-        <v>0.953125</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="P29" s="127"/>
       <c r="Q29" s="10"/>
@@ -7213,7 +7225,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19"/>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="110" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="127"/>
@@ -7235,7 +7247,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19"/>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="105" t="s">
         <v>56</v>
       </c>
       <c r="D34" s="127"/>
@@ -7255,7 +7267,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="19"/>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="105" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="127"/>
@@ -7275,7 +7287,7 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="105" t="s">
         <v>59</v>
       </c>
       <c r="D36" s="127"/>
@@ -7302,7 +7314,7 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="19"/>
-      <c r="C37" s="107" t="s">
+      <c r="C37" s="105" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="127"/>
@@ -7329,7 +7341,7 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="19"/>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="105" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="127"/>
@@ -7356,7 +7368,7 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="19"/>
-      <c r="C39" s="107" t="s">
+      <c r="C39" s="105" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="127"/>
@@ -7383,7 +7395,7 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="19"/>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="105" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="127"/>
@@ -7410,7 +7422,7 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19"/>
-      <c r="C41" s="107" t="s">
+      <c r="C41" s="105" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="127"/>
@@ -7437,7 +7449,7 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="19"/>
-      <c r="C42" s="107" t="s">
+      <c r="C42" s="105" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="127"/>
@@ -7447,11 +7459,11 @@
       </c>
       <c r="F42" s="68">
         <f ca="1">H$3+H$4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="68">
         <f ca="1">H$7</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="68">
         <f ca="1">H$6</f>
@@ -7464,7 +7476,7 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="19"/>
-      <c r="C43" s="107" t="s">
+      <c r="C43" s="105" t="s">
         <v>66</v>
       </c>
       <c r="D43" s="127"/>
@@ -7491,17 +7503,17 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="19"/>
-      <c r="C44" s="107" t="s">
+      <c r="C44" s="105" t="s">
         <v>67</v>
       </c>
       <c r="D44" s="127"/>
       <c r="E44" s="68">
         <f ca="1">J$2+J$5</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44" s="68">
         <f ca="1">J$3+J$4</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G44" s="68">
         <f ca="1">J$7</f>
@@ -7513,12 +7525,12 @@
       </c>
       <c r="I44" s="57">
         <f ca="1">SUM(E44:H44)</f>
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="19"/>
-      <c r="C45" s="107" t="s">
+      <c r="C45" s="105" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="127"/>
@@ -7545,7 +7557,7 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="19"/>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="105" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="127"/>
@@ -7572,7 +7584,7 @@
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="19"/>
-      <c r="C47" s="107" t="s">
+      <c r="C47" s="105" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="127"/>
@@ -7606,6 +7618,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="A12:B29"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="M29:N29"/>
@@ -7622,67 +7695,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <conditionalFormatting sqref="T12">
     <cfRule type="cellIs" dxfId="306" priority="5" operator="equal">
@@ -7732,8 +7744,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="3" topLeftCell="D31" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9127,7 +9139,7 @@
         <v>Maysa Fernanda Back</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="33" t="s">
@@ -9568,9 +9580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9673,7 +9685,7 @@
       <c r="F3" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H3" s="24"/>
@@ -9731,9 +9743,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="G5" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H5" s="24"/>
@@ -9761,10 +9773,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>146</v>
+        <v>362</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -9791,7 +9803,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>144</v>
@@ -9821,7 +9833,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>144</v>
@@ -9847,8 +9859,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rafaelly Custódio</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>15</v>
+      <c r="E9" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="33" t="s">
@@ -9879,7 +9891,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G10" s="26" t="s">
         <v>144</v>
@@ -9909,7 +9921,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="26" t="s">
         <v>144</v>
@@ -9939,7 +9951,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>144</v>
@@ -9969,7 +9981,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>144</v>
@@ -10001,7 +10013,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>144</v>
@@ -10031,7 +10043,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G15" s="26" t="s">
         <v>144</v>
@@ -10061,10 +10073,10 @@
         <v>14</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>146</v>
+        <v>366</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -10091,7 +10103,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>144</v>
@@ -10121,9 +10133,9 @@
         <v>14</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G18" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H18" s="24"/>
@@ -10183,7 +10195,7 @@
       <c r="F20" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H20" s="24"/>
@@ -10211,10 +10223,10 @@
         <v>14</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>146</v>
+        <v>367</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -10241,10 +10253,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>146</v>
+        <v>365</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -10271,10 +10283,10 @@
         <v>14</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>146</v>
+        <v>365</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -10301,10 +10313,10 @@
         <v>14</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>146</v>
+        <v>368</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -10327,8 +10339,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Marcos Alexandre Esmocoviski </v>
       </c>
-      <c r="E25" s="37" t="s">
-        <v>15</v>
+      <c r="E25" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="33" t="s">
@@ -10359,13 +10371,13 @@
         <v>14</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24" t="s">
@@ -10391,13 +10403,13 @@
         <v>14</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="24" t="s">
@@ -10423,7 +10435,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>144</v>
@@ -10453,7 +10465,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>144</v>
@@ -10483,7 +10495,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>144</v>
@@ -10513,7 +10525,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>144</v>
@@ -10543,7 +10555,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>144</v>
@@ -10573,7 +10585,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>144</v>
@@ -10603,7 +10615,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>144</v>
@@ -10633,10 +10645,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>146</v>
+        <v>364</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -10663,7 +10675,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>144</v>
@@ -10693,7 +10705,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>144</v>
@@ -10723,7 +10735,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>144</v>
@@ -10753,7 +10765,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>144</v>
@@ -10783,9 +10795,9 @@
         <v>14</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="G40" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H40" s="24"/>
@@ -10843,7 +10855,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>146</v>
@@ -10873,10 +10885,10 @@
         <v>14</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="G43" s="33" t="s">
-        <v>146</v>
+        <v>364</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
@@ -10903,7 +10915,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>144</v>
@@ -10963,7 +10975,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>144</v>
@@ -11053,10 +11065,10 @@
         <v>14</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>146</v>
+        <v>370</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -11083,7 +11095,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>144</v>
@@ -11113,7 +11125,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>144</v>
@@ -11145,7 +11157,7 @@
       <c r="F52" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H52" s="24"/>
@@ -11173,13 +11185,13 @@
         <v>14</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>146</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24" t="s">
@@ -11233,9 +11245,9 @@
         <v>14</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="G55" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="G55" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H55" s="24"/>
@@ -11263,7 +11275,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>144</v>
@@ -11323,7 +11335,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>144</v>
@@ -11395,7 +11407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -11464,7 +11476,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33" t="s">
         <v>146</v>
@@ -11490,7 +11504,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Maria Regina Willers </v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="24"/>
       <c r="G3" s="33" t="s">
         <v>146</v>
@@ -11516,7 +11532,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="24"/>
       <c r="G4" s="33" t="s">
         <v>146</v>
@@ -11542,7 +11560,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="33" t="s">
         <v>146</v>
@@ -11568,7 +11588,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tania Grespan</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="24"/>
       <c r="G6" s="33" t="s">
         <v>146</v>
@@ -11594,7 +11616,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F7" s="24"/>
       <c r="G7" s="33" t="s">
         <v>146</v>
@@ -11620,7 +11644,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="33" t="s">
         <v>146</v>
@@ -11646,7 +11672,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rafaelly Custódio</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="33" t="s">
         <v>146</v>
@@ -11672,7 +11700,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="33" t="s">
         <v>146</v>
@@ -11698,7 +11728,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="33" t="s">
         <v>146</v>
@@ -11724,7 +11756,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="24"/>
       <c r="G12" s="33" t="s">
         <v>146</v>
@@ -11750,7 +11784,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="24"/>
       <c r="G13" s="33" t="s">
         <v>146</v>
@@ -11776,7 +11812,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="33" t="s">
         <v>146</v>
@@ -11802,7 +11840,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Evellyn Renata Bereza Bueno</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="33" t="s">
         <v>146</v>
@@ -11828,7 +11868,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="33" t="s">
         <v>146</v>
@@ -11854,7 +11896,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Carlos Jorge de Oliveira Moreira  </v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="33" t="s">
         <v>146</v>
@@ -11880,7 +11924,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jéssica da Silva Bortolozzo</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="33" t="s">
         <v>146</v>
@@ -11906,7 +11952,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="33" t="s">
         <v>146</v>
@@ -11932,7 +11980,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="24"/>
+      <c r="E20" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="33" t="s">
         <v>146</v>
@@ -11958,7 +12008,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Nunes</v>
       </c>
-      <c r="E21" s="24"/>
+      <c r="E21" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="33" t="s">
         <v>146</v>
@@ -11984,7 +12036,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="33" t="s">
         <v>146</v>
@@ -12010,7 +12064,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="24"/>
       <c r="G23" s="33" t="s">
         <v>146</v>
@@ -12036,7 +12092,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="33" t="s">
         <v>146</v>
@@ -12062,7 +12120,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Marcos Alexandre Esmocoviski </v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="33" t="s">
         <v>146</v>
@@ -12088,7 +12148,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rodrigo Lima</v>
       </c>
-      <c r="E26" s="24"/>
+      <c r="E26" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="33" t="s">
         <v>146</v>
@@ -12118,7 +12180,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>146</v>
@@ -12144,7 +12206,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Letícia Diniz</v>
       </c>
-      <c r="E28" s="24"/>
+      <c r="E28" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="33" t="s">
         <v>146</v>
@@ -12170,7 +12234,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tais Muller</v>
       </c>
-      <c r="E29" s="24"/>
+      <c r="E29" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F29" s="24"/>
       <c r="G29" s="33" t="s">
         <v>146</v>
@@ -12196,7 +12262,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F30" s="24"/>
       <c r="G30" s="33" t="s">
         <v>146</v>
@@ -12222,7 +12290,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Isadora Bussmann Barsotti </v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="33" t="s">
         <v>146</v>
@@ -12248,7 +12318,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Osair Wrublak</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F32" s="24"/>
       <c r="G32" s="33" t="s">
         <v>146</v>
@@ -12274,7 +12346,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gislaine Souza Rosa</v>
       </c>
-      <c r="E33" s="24"/>
+      <c r="E33" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F33" s="24"/>
       <c r="G33" s="33" t="s">
         <v>146</v>
@@ -12300,7 +12374,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Leticia Framesche</v>
       </c>
-      <c r="E34" s="24"/>
+      <c r="E34" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F34" s="24"/>
       <c r="G34" s="33" t="s">
         <v>146</v>
@@ -12326,7 +12402,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Suzana Gotardo de Meira </v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F35" s="24"/>
       <c r="G35" s="33" t="s">
         <v>146</v>
@@ -12352,8 +12430,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vinicius Patriota dos Santos</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>376</v>
+      </c>
       <c r="G36" s="33" t="s">
         <v>146</v>
       </c>
@@ -12378,7 +12460,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Patricia Teixeira dos Santos</v>
       </c>
-      <c r="E37" s="24"/>
+      <c r="E37" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F37" s="24"/>
       <c r="G37" s="33" t="s">
         <v>146</v>
@@ -12404,7 +12488,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Anderson Batista Siqueira </v>
       </c>
-      <c r="E38" s="24"/>
+      <c r="E38" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F38" s="24"/>
       <c r="G38" s="33" t="s">
         <v>146</v>
@@ -12430,7 +12516,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Aramis Vinicius de Paula Oliveira </v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F39" s="24"/>
       <c r="G39" s="33" t="s">
         <v>146</v>
@@ -12456,7 +12544,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Julliane Gonçalves</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="33" t="s">
         <v>146</v>
@@ -12482,8 +12572,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Henrique de Andrade</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="E41" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>377</v>
+      </c>
       <c r="G41" s="33" t="s">
         <v>146</v>
       </c>
@@ -12508,7 +12602,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="24"/>
+      <c r="E42" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F42" s="24"/>
       <c r="G42" s="33" t="s">
         <v>146</v>
@@ -12534,7 +12630,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Camila Maytana Flores da Silva </v>
       </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F43" s="24"/>
       <c r="G43" s="33" t="s">
         <v>146</v>
@@ -12560,7 +12658,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudiana Andria</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F44" s="24"/>
       <c r="G44" s="33" t="s">
         <v>146</v>
@@ -12586,7 +12686,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daiana Aparecida Dias</v>
       </c>
-      <c r="E45" s="24"/>
+      <c r="E45" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F45" s="24"/>
       <c r="G45" s="33" t="s">
         <v>146</v>
@@ -12612,7 +12714,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E46" s="24"/>
+      <c r="E46" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F46" s="24"/>
       <c r="G46" s="33" t="s">
         <v>146</v>
@@ -12638,7 +12742,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F47" s="24"/>
       <c r="G47" s="33" t="s">
         <v>146</v>
@@ -12664,7 +12770,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
-      <c r="E48" s="24"/>
+      <c r="E48" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F48" s="24"/>
       <c r="G48" s="33" t="s">
         <v>146</v>
@@ -12690,8 +12798,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Cigolini</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="E49" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>378</v>
+      </c>
       <c r="G49" s="33" t="s">
         <v>146</v>
       </c>
@@ -12716,7 +12828,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F50" s="24"/>
       <c r="G50" s="33" t="s">
         <v>146</v>
@@ -12742,7 +12856,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F51" s="24"/>
       <c r="G51" s="33" t="s">
         <v>146</v>
@@ -12768,7 +12884,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maristela de Oliveira Melo</v>
       </c>
-      <c r="E52" s="24"/>
+      <c r="E52" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F52" s="24"/>
       <c r="G52" s="33" t="s">
         <v>146</v>
@@ -12794,7 +12912,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Yuri Luiz de Oliveira </v>
       </c>
-      <c r="E53" s="24"/>
+      <c r="E53" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F53" s="24"/>
       <c r="G53" s="33" t="s">
         <v>146</v>
@@ -12848,7 +12968,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Eliane Stefani Dantas Dias</v>
       </c>
-      <c r="E55" s="24"/>
+      <c r="E55" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F55" s="24"/>
       <c r="G55" s="33" t="s">
         <v>146</v>
@@ -12874,7 +12996,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Diego Batista </v>
       </c>
-      <c r="E56" s="24"/>
+      <c r="E56" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F56" s="24"/>
       <c r="G56" s="33" t="s">
         <v>146</v>
@@ -12900,7 +13024,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="24"/>
+      <c r="E57" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F57" s="24"/>
       <c r="G57" s="33" t="s">
         <v>146</v>
@@ -12926,8 +13052,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Pablo Bruno Rosa Oliveira</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
+      <c r="E58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>378</v>
+      </c>
       <c r="G58" s="33" t="s">
         <v>146</v>
       </c>
@@ -17830,7 +17960,7 @@
         <v>137</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>138</v>
@@ -17842,7 +17972,7 @@
         <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>142</v>
@@ -17856,16 +17986,16 @@
         <v>129</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>146</v>
@@ -17885,7 +18015,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>190</v>
@@ -17894,7 +18024,7 @@
         <v>313</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>146</v>
@@ -17949,7 +18079,9 @@
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
     <col min="16" max="16" width="9.140625" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
     <col min="19" max="19" width="22" customWidth="1"/>
@@ -18209,7 +18341,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M2" s="72" t="str">
         <f t="array" aca="1" ref="M2" ca="1">IF(
@@ -18484,7 +18616,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M3" s="72" t="str">
         <f t="array" aca="1" ref="M3" ca="1">IF(
@@ -18759,7 +18891,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M4" s="72" t="str">
         <f t="array" aca="1" ref="M4" ca="1">IF(
@@ -19034,7 +19166,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M5" s="72" t="str">
         <f t="array" aca="1" ref="M5" ca="1">IF(
@@ -19309,7 +19441,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M6" s="72" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IF(
@@ -19584,7 +19716,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M7" s="72" t="str">
         <f t="array" aca="1" ref="M7" ca="1">IF(
@@ -19859,7 +19991,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M8" s="72" t="str">
         <f t="array" aca="1" ref="M8" ca="1">IF(
@@ -20134,7 +20266,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M9" s="72" t="str">
         <f t="array" aca="1" ref="M9" ca="1">IF(
@@ -20365,7 +20497,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado &gt;= 2</v>
+        <v>Sem Técnico</v>
       </c>
       <c r="K10" s="72" t="str">
         <f t="array" aca="1" ref="K10" ca="1">IF(
@@ -20409,7 +20541,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M10" s="72" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IF(
@@ -20684,7 +20816,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M11" s="72" t="str">
         <f t="array" aca="1" ref="M11" ca="1">IF(
@@ -20959,7 +21091,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M12" s="72" t="str">
         <f t="array" aca="1" ref="M12" ca="1">IF(
@@ -21234,7 +21366,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M13" s="72" t="str">
         <f t="array" aca="1" ref="M13" ca="1">IF(
@@ -21509,7 +21641,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="M14" s="72" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IF(
@@ -21831,7 +21963,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M17" s="72" t="str">
         <f t="array" aca="1" ref="M17" ca="1">IF(
@@ -22106,7 +22238,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M18" s="72" t="str">
         <f t="array" aca="1" ref="M18" ca="1">IF(
@@ -22381,7 +22513,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M19" s="72" t="str">
         <f t="array" aca="1" ref="M19" ca="1">IF(
@@ -22656,7 +22788,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M20" s="72" t="str">
         <f t="array" aca="1" ref="M20" ca="1">IF(
@@ -22931,7 +23063,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M21" s="72" t="str">
         <f t="array" aca="1" ref="M21" ca="1">IF(
@@ -23206,7 +23338,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M22" s="72" t="str">
         <f t="array" aca="1" ref="M22" ca="1">IF(
@@ -23481,7 +23613,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M23" s="72" t="str">
         <f t="array" aca="1" ref="M23" ca="1">IF(
@@ -23756,7 +23888,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M24" s="72" t="str">
         <f t="array" aca="1" ref="M24" ca="1">IF(
@@ -24031,7 +24163,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="M25" s="72" t="str">
         <f t="array" aca="1" ref="M25" ca="1">IF(
@@ -24312,7 +24444,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="L28" s="72" t="str">
         <f t="array" aca="1" ref="L28" ca="1">IF(
@@ -24334,7 +24466,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M28" s="72" t="str">
         <f t="array" aca="1" ref="M28" ca="1">IF(
@@ -24609,7 +24741,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="M29" s="72" t="str">
         <f t="array" aca="1" ref="M29" ca="1">IF(
@@ -24884,7 +25016,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M30" s="72" t="str">
         <f t="array" aca="1" ref="M30" ca="1">IF(
@@ -25204,7 +25336,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M33" s="72" t="str">
         <f t="array" aca="1" ref="M33" ca="1">IF(
@@ -25457,7 +25589,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="L34" s="72" t="str">
         <f t="array" aca="1" ref="L34" ca="1">IF(
@@ -25479,7 +25611,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M34" s="72" t="str">
         <f t="array" aca="1" ref="M34" ca="1">IF(
@@ -25754,7 +25886,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M35" s="72" t="str">
         <f t="array" aca="1" ref="M35" ca="1">IF(
@@ -26029,7 +26161,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M36" s="72" t="str">
         <f t="array" aca="1" ref="M36" ca="1">IF(
@@ -26304,7 +26436,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M37" s="72" t="str">
         <f t="array" aca="1" ref="M37" ca="1">IF(
@@ -26579,7 +26711,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M38" s="72" t="str">
         <f t="array" aca="1" ref="M38" ca="1">IF(
@@ -26854,7 +26986,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M39" s="72" t="str">
         <f t="array" aca="1" ref="M39" ca="1">IF(
@@ -27451,7 +27583,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M43" s="72" t="str">
         <f t="array" aca="1" ref="M43" ca="1">IF(
@@ -27726,7 +27858,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M44" s="72" t="str">
         <f t="array" aca="1" ref="M44" ca="1">IF(
@@ -28276,7 +28408,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M46" s="72" t="str">
         <f t="array" aca="1" ref="M46" ca="1">IF(
@@ -28551,7 +28683,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M47" s="72" t="str">
         <f t="array" aca="1" ref="M47" ca="1">IF(
@@ -28826,7 +28958,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M48" s="72" t="str">
         <f t="array" aca="1" ref="M48" ca="1">IF(
@@ -29101,7 +29233,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M49" s="72" t="str">
         <f t="array" aca="1" ref="M49" ca="1">IF(
@@ -29376,7 +29508,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M50" s="72" t="str">
         <f t="array" aca="1" ref="M50" ca="1">IF(
@@ -29698,7 +29830,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M53" s="72" t="str">
         <f t="array" aca="1" ref="M53" ca="1">IF(
@@ -29973,7 +30105,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M54" s="72" t="str">
         <f t="array" aca="1" ref="M54" ca="1">IF(
@@ -30248,7 +30380,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M55" s="72" t="str">
         <f t="array" aca="1" ref="M55" ca="1">IF(
@@ -30504,7 +30636,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M56" s="72" t="str">
         <f t="array" aca="1" ref="M56" ca="1">IF(
@@ -30779,7 +30911,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M57" s="72" t="str">
         <f t="array" aca="1" ref="M57" ca="1">IF(
@@ -31054,7 +31186,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M58" s="72" t="str">
         <f t="array" aca="1" ref="M58" ca="1">IF(
@@ -31329,7 +31461,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="M59" s="72" t="str">
         <f t="array" aca="1" ref="M59" ca="1">IF(
@@ -31604,7 +31736,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M60" s="72" t="str">
         <f t="array" aca="1" ref="M60" ca="1">IF(
@@ -31926,7 +32058,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M63" s="72" t="str">
         <f t="array" aca="1" ref="M63" ca="1">IF(
@@ -32209,7 +32341,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M64" s="72" t="str">
         <f t="array" aca="1" ref="M64" ca="1">IF(
@@ -32492,7 +32624,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M65" s="72" t="str">
         <f t="array" aca="1" ref="M65" ca="1">IF(
@@ -32775,7 +32907,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M66" s="72" t="str">
         <f t="array" aca="1" ref="M66" ca="1">IF(
@@ -33058,7 +33190,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M67" s="72" t="str">
         <f t="array" aca="1" ref="M67" ca="1">IF(
@@ -33341,7 +33473,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M68" s="72" t="str">
         <f t="array" aca="1" ref="M68" ca="1">IF(
@@ -33624,7 +33756,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M69" s="72" t="str">
         <f t="array" aca="1" ref="M69" ca="1">IF(
@@ -33907,7 +34039,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="M70" s="72" t="str">
         <f t="array" aca="1" ref="M70" ca="1">IF(
@@ -34336,7 +34468,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M2" s="57" t="str">
         <f t="array" aca="1" ref="M2" ca="1">IF(
@@ -34358,7 +34490,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N2" s="57" t="str">
         <f t="array" aca="1" ref="N2" ca="1">IF(
@@ -34633,7 +34765,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M3" s="57" t="str">
         <f t="array" aca="1" ref="M3" ca="1">IF(
@@ -34655,7 +34787,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N3" s="57" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IF(
@@ -34930,7 +35062,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M4" s="57" t="str">
         <f t="array" aca="1" ref="M4" ca="1">IF(
@@ -34952,7 +35084,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N4" s="57" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IF(
@@ -35227,7 +35359,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M5" s="57" t="str">
         <f t="array" aca="1" ref="M5" ca="1">IF(
@@ -35249,7 +35381,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N5" s="57" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IF(
@@ -35524,7 +35656,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M6" s="57" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IF(
@@ -35546,7 +35678,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N6" s="57" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IF(
@@ -35821,7 +35953,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M7" s="57" t="str">
         <f t="array" aca="1" ref="M7" ca="1">IF(
@@ -35843,7 +35975,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N7" s="57" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IF(
@@ -36118,7 +36250,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M8" s="57" t="str">
         <f t="array" aca="1" ref="M8" ca="1">IF(
@@ -36140,7 +36272,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N8" s="57" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IF(
@@ -36415,7 +36547,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M9" s="57" t="str">
         <f t="array" aca="1" ref="M9" ca="1">IF(
@@ -36437,7 +36569,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N9" s="57" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IF(
@@ -36712,7 +36844,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M10" s="57" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IF(
@@ -36734,7 +36866,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N10" s="57" t="str">
         <f t="array" aca="1" ref="N10" ca="1">IF(
@@ -37009,7 +37141,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M11" s="57" t="str">
         <f t="array" aca="1" ref="M11" ca="1">IF(
@@ -37031,7 +37163,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N11" s="57" t="str">
         <f t="array" aca="1" ref="N11" ca="1">IF(
@@ -37306,7 +37438,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M12" s="57" t="str">
         <f t="array" aca="1" ref="M12" ca="1">IF(
@@ -37328,7 +37460,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N12" s="57" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IF(
@@ -37603,7 +37735,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M13" s="57" t="str">
         <f t="array" aca="1" ref="M13" ca="1">IF(
@@ -37625,7 +37757,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N13" s="57" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IF(
@@ -37900,7 +38032,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M14" s="57" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IF(
@@ -37922,7 +38054,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N14" s="57" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IF(
@@ -38225,7 +38357,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L17" s="57" t="str">
         <f t="array" aca="1" ref="L17" ca="1">IF(
@@ -38247,7 +38379,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M17" s="57" t="str">
         <f t="array" aca="1" ref="M17" ca="1">IF(
@@ -38269,7 +38401,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N17" s="57" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IF(
@@ -38522,7 +38654,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L18" s="57" t="str">
         <f t="array" aca="1" ref="L18" ca="1">IF(
@@ -38544,7 +38676,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M18" s="57" t="str">
         <f t="array" aca="1" ref="M18" ca="1">IF(
@@ -38566,7 +38698,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N18" s="57" t="str">
         <f t="array" aca="1" ref="N18" ca="1">IF(
@@ -38819,7 +38951,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L19" s="57" t="str">
         <f t="array" aca="1" ref="L19" ca="1">IF(
@@ -38841,7 +38973,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M19" s="57" t="str">
         <f t="array" aca="1" ref="M19" ca="1">IF(
@@ -38863,7 +38995,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N19" s="57" t="str">
         <f t="array" aca="1" ref="N19" ca="1">IF(
@@ -39116,7 +39248,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L20" s="57" t="str">
         <f t="array" aca="1" ref="L20" ca="1">IF(
@@ -39138,7 +39270,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M20" s="57" t="str">
         <f t="array" aca="1" ref="M20" ca="1">IF(
@@ -39160,7 +39292,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N20" s="57" t="str">
         <f t="array" aca="1" ref="N20" ca="1">IF(
@@ -39413,7 +39545,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L21" s="57" t="str">
         <f t="array" aca="1" ref="L21" ca="1">IF(
@@ -39435,7 +39567,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M21" s="57" t="str">
         <f t="array" aca="1" ref="M21" ca="1">IF(
@@ -39457,7 +39589,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N21" s="57" t="str">
         <f t="array" aca="1" ref="N21" ca="1">IF(
@@ -39710,7 +39842,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L22" s="57" t="str">
         <f t="array" aca="1" ref="L22" ca="1">IF(
@@ -39732,7 +39864,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M22" s="57" t="str">
         <f t="array" aca="1" ref="M22" ca="1">IF(
@@ -39754,7 +39886,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N22" s="57" t="str">
         <f t="array" aca="1" ref="N22" ca="1">IF(
@@ -40007,7 +40139,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L23" s="57" t="str">
         <f t="array" aca="1" ref="L23" ca="1">IF(
@@ -40029,7 +40161,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M23" s="57" t="str">
         <f t="array" aca="1" ref="M23" ca="1">IF(
@@ -40051,7 +40183,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N23" s="57" t="str">
         <f t="array" aca="1" ref="N23" ca="1">IF(
@@ -40304,7 +40436,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L24" s="57" t="str">
         <f t="array" aca="1" ref="L24" ca="1">IF(
@@ -40326,7 +40458,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M24" s="57" t="str">
         <f t="array" aca="1" ref="M24" ca="1">IF(
@@ -40348,7 +40480,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N24" s="57" t="str">
         <f t="array" aca="1" ref="N24" ca="1">IF(
@@ -40601,7 +40733,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="L25" s="57" t="str">
         <f t="array" aca="1" ref="L25" ca="1">IF(
@@ -40623,7 +40755,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M25" s="57" t="str">
         <f t="array" aca="1" ref="M25" ca="1">IF(
@@ -40645,7 +40777,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N25" s="57" t="str">
         <f t="array" aca="1" ref="N25" ca="1">IF(
@@ -40970,7 +41102,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M28" s="57" t="str">
         <f t="array" aca="1" ref="M28" ca="1">IF(
@@ -40992,7 +41124,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N28" s="57" t="str">
         <f t="array" aca="1" ref="N28" ca="1">IF(
@@ -41267,7 +41399,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M29" s="57" t="str">
         <f t="array" aca="1" ref="M29" ca="1">IF(
@@ -41289,7 +41421,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N29" s="57" t="str">
         <f t="array" aca="1" ref="N29" ca="1">IF(
@@ -41564,7 +41696,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M30" s="57" t="str">
         <f t="array" aca="1" ref="M30" ca="1">IF(
@@ -41586,7 +41718,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N30" s="57" t="str">
         <f t="array" aca="1" ref="N30" ca="1">IF(
@@ -41909,7 +42041,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M33" s="57" t="str">
         <f t="array" aca="1" ref="M33" ca="1">IF(
@@ -41931,7 +42063,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N33" s="57" t="str">
         <f t="array" aca="1" ref="N33" ca="1">IF(
@@ -42206,7 +42338,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M34" s="57" t="str">
         <f t="array" aca="1" ref="M34" ca="1">IF(
@@ -42228,7 +42360,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N34" s="57" t="str">
         <f t="array" aca="1" ref="N34" ca="1">IF(
@@ -42503,7 +42635,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M35" s="57" t="str">
         <f t="array" aca="1" ref="M35" ca="1">IF(
@@ -42525,7 +42657,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N35" s="57" t="str">
         <f t="array" aca="1" ref="N35" ca="1">IF(
@@ -42800,7 +42932,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M36" s="57" t="str">
         <f t="array" aca="1" ref="M36" ca="1">IF(
@@ -42822,7 +42954,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N36" s="57" t="str">
         <f t="array" aca="1" ref="N36" ca="1">IF(
@@ -43097,7 +43229,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M37" s="57" t="str">
         <f t="array" aca="1" ref="M37" ca="1">IF(
@@ -43119,7 +43251,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N37" s="57" t="str">
         <f t="array" aca="1" ref="N37" ca="1">IF(
@@ -43394,7 +43526,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M38" s="57" t="str">
         <f t="array" aca="1" ref="M38" ca="1">IF(
@@ -43416,7 +43548,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N38" s="57" t="str">
         <f t="array" aca="1" ref="N38" ca="1">IF(
@@ -43691,7 +43823,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M39" s="57" t="str">
         <f t="array" aca="1" ref="M39" ca="1">IF(
@@ -43713,7 +43845,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N39" s="57" t="str">
         <f t="array" aca="1" ref="N39" ca="1">IF(
@@ -44335,7 +44467,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M43" s="57" t="str">
         <f t="array" aca="1" ref="M43" ca="1">IF(
@@ -44357,7 +44489,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N43" s="57" t="str">
         <f t="array" aca="1" ref="N43" ca="1">IF(
@@ -44632,7 +44764,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M44" s="57" t="str">
         <f t="array" aca="1" ref="M44" ca="1">IF(
@@ -44654,7 +44786,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N44" s="57" t="str">
         <f t="array" aca="1" ref="N44" ca="1">IF(
@@ -45226,7 +45358,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M46" s="57" t="str">
         <f t="array" aca="1" ref="M46" ca="1">IF(
@@ -45248,7 +45380,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N46" s="57" t="str">
         <f t="array" aca="1" ref="N46" ca="1">IF(
@@ -45523,7 +45655,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M47" s="57" t="str">
         <f t="array" aca="1" ref="M47" ca="1">IF(
@@ -45545,7 +45677,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N47" s="57" t="str">
         <f t="array" aca="1" ref="N47" ca="1">IF(
@@ -45820,7 +45952,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M48" s="57" t="str">
         <f t="array" aca="1" ref="M48" ca="1">IF(
@@ -45842,7 +45974,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N48" s="57" t="str">
         <f t="array" aca="1" ref="N48" ca="1">IF(
@@ -46117,7 +46249,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M49" s="57" t="str">
         <f t="array" aca="1" ref="M49" ca="1">IF(
@@ -46139,7 +46271,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N49" s="57" t="str">
         <f t="array" aca="1" ref="N49" ca="1">IF(
@@ -46414,7 +46546,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M50" s="57" t="str">
         <f t="array" aca="1" ref="M50" ca="1">IF(
@@ -46436,7 +46568,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N50" s="57" t="str">
         <f t="array" aca="1" ref="N50" ca="1">IF(
@@ -46761,7 +46893,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M53" s="57" t="str">
         <f t="array" aca="1" ref="M53" ca="1">IF(
@@ -46783,7 +46915,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N53" s="57" t="str">
         <f t="array" aca="1" ref="N53" ca="1">IF(
@@ -47058,7 +47190,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M54" s="57" t="str">
         <f t="array" aca="1" ref="M54" ca="1">IF(
@@ -47080,7 +47212,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N54" s="57" t="str">
         <f t="array" aca="1" ref="N54" ca="1">IF(
@@ -47355,7 +47487,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M55" s="57" t="str">
         <f t="array" aca="1" ref="M55" ca="1">IF(
@@ -47377,7 +47509,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N55" s="57" t="str">
         <f t="array" aca="1" ref="N55" ca="1">IF(
@@ -47652,7 +47784,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M56" s="57" t="str">
         <f t="array" aca="1" ref="M56" ca="1">IF(
@@ -47674,7 +47806,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N56" s="57" t="str">
         <f t="array" aca="1" ref="N56" ca="1">IF(
@@ -47949,7 +48081,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M57" s="57" t="str">
         <f t="array" aca="1" ref="M57" ca="1">IF(
@@ -47971,7 +48103,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N57" s="57" t="str">
         <f t="array" aca="1" ref="N57" ca="1">IF(
@@ -48246,7 +48378,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M58" s="57" t="str">
         <f t="array" aca="1" ref="M58" ca="1">IF(
@@ -48268,7 +48400,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N58" s="57" t="str">
         <f t="array" aca="1" ref="N58" ca="1">IF(
@@ -48543,7 +48675,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M59" s="57" t="str">
         <f t="array" aca="1" ref="M59" ca="1">IF(
@@ -48565,7 +48697,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N59" s="57" t="str">
         <f t="array" aca="1" ref="N59" ca="1">IF(
@@ -48840,7 +48972,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M60" s="57" t="str">
         <f t="array" aca="1" ref="M60" ca="1">IF(
@@ -48862,7 +48994,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N60" s="57" t="str">
         <f t="array" aca="1" ref="N60" ca="1">IF(
@@ -49187,7 +49319,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M63" s="57" t="str">
         <f t="array" aca="1" ref="M63" ca="1">IF(
@@ -49209,7 +49341,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N63" s="57" t="str">
         <f t="array" aca="1" ref="N63" ca="1">IF(
@@ -49492,7 +49624,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M64" s="57" t="str">
         <f t="array" aca="1" ref="M64" ca="1">IF(
@@ -49514,7 +49646,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N64" s="57" t="str">
         <f t="array" aca="1" ref="N64" ca="1">IF(
@@ -49797,7 +49929,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M65" s="57" t="str">
         <f t="array" aca="1" ref="M65" ca="1">IF(
@@ -49819,7 +49951,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N65" s="57" t="str">
         <f t="array" aca="1" ref="N65" ca="1">IF(
@@ -50102,7 +50234,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M66" s="57" t="str">
         <f t="array" aca="1" ref="M66" ca="1">IF(
@@ -50124,7 +50256,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N66" s="57" t="str">
         <f t="array" aca="1" ref="N66" ca="1">IF(
@@ -50407,7 +50539,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M67" s="57" t="str">
         <f t="array" aca="1" ref="M67" ca="1">IF(
@@ -50429,7 +50561,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N67" s="57" t="str">
         <f t="array" aca="1" ref="N67" ca="1">IF(
@@ -50712,7 +50844,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M68" s="57" t="str">
         <f t="array" aca="1" ref="M68" ca="1">IF(
@@ -50734,7 +50866,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N68" s="57" t="str">
         <f t="array" aca="1" ref="N68" ca="1">IF(
@@ -51017,7 +51149,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M69" s="57" t="str">
         <f t="array" aca="1" ref="M69" ca="1">IF(
@@ -51039,7 +51171,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N69" s="57" t="str">
         <f t="array" aca="1" ref="N69" ca="1">IF(
@@ -51322,7 +51454,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="M70" s="57" t="str">
         <f t="array" aca="1" ref="M70" ca="1">IF(
@@ -51344,7 +51476,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="N70" s="57" t="str">
         <f t="array" aca="1" ref="N70" ca="1">IF(

--- a/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
+++ b/inputs/0 - Expansão/0 - Monitoramento Form 4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_66CE87F836047AEBE5993FA45D7D7A0AFBA75A2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1CFBE2-0BEB-4449-B96B-7DBC7F3D7FE6}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_A0B41786974F3112BCF959E6083F16F16D348575" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F3D2A5-5374-47C3-9F17-4B25DC8980CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'07.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'08.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'09.25'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'11.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'12.25'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Irregulares!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'10.25'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5450" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5561" uniqueCount="424">
   <si>
     <t>Categoria</t>
   </si>
@@ -1254,6 +1254,9 @@
     <t>30/09/2025</t>
   </si>
   <si>
+    <t>Associação ainda não iniciou suas atividades sem dados</t>
+  </si>
+  <si>
     <t>02/10/2025</t>
   </si>
   <si>
@@ -1261,6 +1264,54 @@
   </si>
   <si>
     <t>Técnico afastado por motivos de saúde</t>
+  </si>
+  <si>
+    <t>Não houve comercialização. Transferência da estrutura antiga para nova UVR iniciou atividades em 21 de outubro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudança de técnico </t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>Está em processode mudança de técnica, Enviará até 14/11</t>
+  </si>
+  <si>
+    <t>Associação iniciou suas atividades em 27/10, logo sem dados para esse mês</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>09/11/2025</t>
+  </si>
+  <si>
+    <t>02/11/2025</t>
+  </si>
+  <si>
+    <t>sem atividades</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>Técnico afastado</t>
   </si>
   <si>
     <t>Mês de referência</t>
@@ -1291,7 +1342,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1458,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="61">
@@ -1930,7 +1987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2039,10 +2096,10 @@
     <xf numFmtId="0" fontId="21" fillId="59" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="60" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2237,6 +2294,10 @@
     <xf numFmtId="0" fontId="18" fillId="45" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5864,7 +5925,7 @@
       </c>
       <c r="K2" s="41">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A2)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L2" s="41">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A2)</f>
@@ -5876,7 +5937,7 @@
       </c>
       <c r="N2" s="42">
         <f ca="1">SUM(B2:M2)</f>
-        <v>468</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
@@ -5917,11 +5978,11 @@
       </c>
       <c r="J3" s="43">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A3)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" s="43">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A3)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L3" s="43">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A3)</f>
@@ -5933,7 +5994,7 @@
       </c>
       <c r="N3" s="44">
         <f ca="1">SUM(B3:M3)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
@@ -5974,7 +6035,7 @@
       </c>
       <c r="J4" s="45">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="45">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A4)</f>
@@ -5990,7 +6051,7 @@
       </c>
       <c r="N4" s="46">
         <f ca="1">SUM(B4:M4)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
@@ -6088,23 +6149,23 @@
       </c>
       <c r="J6" s="49">
         <f ca="1">COUNTIF(INDIRECT(J$1&amp;"!E2:E1000"),$A6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="49">
         <f ca="1">COUNTIF(INDIRECT(K$1&amp;"!E2:E1000"),$A6)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="49">
         <f ca="1">COUNTIF(INDIRECT(L$1&amp;"!E2:E1000"),$A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="49">
         <f ca="1">COUNTIF(INDIRECT(M$1&amp;"!E2:E1000"),$A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="50">
         <f ca="1">SUM(B6:M6)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
@@ -6206,19 +6267,19 @@
       </c>
       <c r="K8" s="53">
         <f ca="1">SUM(K2:K7)</f>
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="L8" s="53">
         <f ca="1">SUM(L2:L7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="53">
         <f ca="1">SUM(M2:M7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="53">
         <f ca="1">SUM(B8:M8)</f>
-        <v>516</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -6245,72 +6306,72 @@
       <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="117" t="s">
+      <c r="B11" s="129"/>
+      <c r="C11" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="117" t="s">
+      <c r="K11" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="129"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="131"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="115" t="s">
+      <c r="R11" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="128"/>
-      <c r="T11" s="129"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="131"/>
       <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="122" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="108" t="s">
+      <c r="A12" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="129"/>
+      <c r="C12" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="129"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="131"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="118" t="s">
+      <c r="R12" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="129"/>
+      <c r="S12" s="131"/>
       <c r="T12" s="55" t="s">
         <v>26</v>
       </c>
       <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A13" s="130"/>
-      <c r="B13" s="131"/>
+      <c r="A13" s="132"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="54" t="s">
         <v>25</v>
       </c>
@@ -6352,27 +6413,27 @@
         <v>32</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="R13" s="116" t="str">
+      <c r="R13" s="118" t="str">
         <f>_xlfn.CONCAT("Envios - Mês de Referência - ", A12)</f>
-        <v>Envios - Mês de Referência - 09.25</v>
-      </c>
-      <c r="S13" s="128"/>
-      <c r="T13" s="129"/>
+        <v>Envios - Mês de Referência - 10.25</v>
+      </c>
+      <c r="S13" s="130"/>
+      <c r="T13" s="131"/>
       <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1">
-      <c r="A14" s="130"/>
-      <c r="B14" s="131"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
       <c r="C14" s="56" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="57">
         <f t="array" aca="1" ref="D14" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C14)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" s="43">
         <f t="array" aca="1" ref="E14" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C14)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="45">
         <f t="array" aca="1" ref="F14" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C14)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6384,7 +6445,7 @@
       </c>
       <c r="H14" s="49">
         <f t="array" aca="1" ref="H14" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C14)*(INDIRECT($A$12&amp;"!E2:E100")="Outras Ocorrências"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="51">
         <f t="array" aca="1" ref="I14" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C14)*(INDIRECT($A$12&amp;"!E2:E100")="UVR Sem Técnico"))), 0)</f>
@@ -6393,11 +6454,11 @@
       <c r="J14" s="10"/>
       <c r="K14" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Enviado")</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="L14" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$2:$P$9"), "Atrasado &gt;= 2")</f>
@@ -6430,14 +6491,14 @@
       <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="131"/>
+      <c r="A15" s="132"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="58" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="57">
         <f t="array" aca="1" ref="D15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="43">
         <f t="array" aca="1" ref="E15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
@@ -6453,7 +6514,7 @@
       </c>
       <c r="H15" s="49">
         <f t="array" aca="1" ref="H15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="Outras Ocorrências"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="51">
         <f t="array" aca="1" ref="I15" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C15)*(INDIRECT($A$12&amp;"!E2:E100")="UVR Sem Técnico"))), 0)</f>
@@ -6462,11 +6523,11 @@
       <c r="J15" s="10"/>
       <c r="K15" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Enviado")</f>
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L15" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M15" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$12:$P$24"), "Atrasado &gt;= 2")</f>
@@ -6499,18 +6560,18 @@
       <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1">
-      <c r="A16" s="130"/>
-      <c r="B16" s="131"/>
+      <c r="A16" s="132"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="57">
         <f t="array" aca="1" ref="D16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="43">
         <f t="array" aca="1" ref="E16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="45">
         <f t="array" aca="1" ref="F16" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C16)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6531,7 +6592,7 @@
       <c r="J16" s="10"/>
       <c r="K16" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Enviado")</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L16" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado")</f>
@@ -6539,7 +6600,7 @@
       </c>
       <c r="M16" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Atrasado &gt;= 2")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="47">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Duplicado")</f>
@@ -6547,7 +6608,7 @@
       </c>
       <c r="O16" s="49">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "Outras Ocorrências")</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P16" s="51">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$27:$P$35"), "UVR Sem Técnico")</f>
@@ -6568,18 +6629,18 @@
       <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="131"/>
+      <c r="A17" s="132"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="57">
         <f t="array" aca="1" ref="D17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Enviado"))), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="43">
         <f t="array" aca="1" ref="E17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="45">
         <f t="array" aca="1" ref="F17" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C17)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6600,7 +6661,7 @@
       <c r="J17" s="10"/>
       <c r="K17" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$38:$P$40"), "Enviado")</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L17" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$38:$P$40"), "Atrasado")</f>
@@ -6637,8 +6698,8 @@
       <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="55" t="s">
         <v>26</v>
       </c>
@@ -6669,7 +6730,7 @@
       <c r="J18" s="10"/>
       <c r="K18" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Enviado")</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L18" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado")</f>
@@ -6677,7 +6738,7 @@
       </c>
       <c r="M18" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Atrasado &gt;= 2")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="47">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$43:$P$50"), "Duplicado")</f>
@@ -6706,8 +6767,8 @@
       <c r="U18" s="10"/>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="65" t="s">
         <v>42</v>
       </c>
@@ -6738,7 +6799,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Enviado")</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L19" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado")</f>
@@ -6746,7 +6807,7 @@
       </c>
       <c r="M19" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Atrasado &gt;= 2")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="47">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$53:$P$60"), "Duplicado")</f>
@@ -6775,8 +6836,8 @@
       <c r="U19" s="10"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A20" s="130"/>
-      <c r="B20" s="131"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="66" t="s">
         <v>43</v>
       </c>
@@ -6786,7 +6847,7 @@
       </c>
       <c r="E20" s="43">
         <f t="array" aca="1" ref="E20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado"))), 0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" s="45">
         <f t="array" aca="1" ref="F20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Atrasado &gt;= 2"))), 0)</f>
@@ -6798,7 +6859,7 @@
       </c>
       <c r="H20" s="49">
         <f t="array" aca="1" ref="H20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="Outras Ocorrências"))), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="51">
         <f t="array" aca="1" ref="I20" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C20)*(INDIRECT($A$12&amp;"!E2:E100")="UVR Sem Técnico"))), 0)</f>
@@ -6807,11 +6868,11 @@
       <c r="J20" s="10"/>
       <c r="K20" s="57">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Enviado")</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L20" s="43">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" s="45">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Atrasado &gt;= 2")</f>
@@ -6823,7 +6884,7 @@
       </c>
       <c r="O20" s="49">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "Outras Ocorrências")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P20" s="51">
         <f ca="1">COUNTIF(INDIRECT("Monitoramento!$D$63:$Q$70"), "UVR Sem Técnico")</f>
@@ -6833,124 +6894,124 @@
       <c r="R20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="S20" s="119">
+      <c r="S20" s="121">
         <f ca="1">VLOOKUP($T$12,$C$23:$I$27,7,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="T20" s="127"/>
+      <c r="T20" s="129"/>
       <c r="U20" s="10"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A21" s="130"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="108" t="s">
+      <c r="A21" s="132"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="131"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="129"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
       <c r="Q21" s="11"/>
-      <c r="R21" s="116" t="s">
+      <c r="R21" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="128"/>
-      <c r="T21" s="129"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="131"/>
       <c r="U21" s="10"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="118" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="129"/>
-      <c r="E22" s="118" t="s">
+      <c r="D22" s="131"/>
+      <c r="E22" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="118" t="s">
+      <c r="F22" s="131"/>
+      <c r="G22" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="129"/>
+      <c r="H22" s="131"/>
       <c r="I22" s="54" t="s">
         <v>49</v>
       </c>
       <c r="J22" s="10"/>
-      <c r="K22" s="118" t="s">
+      <c r="K22" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="118" t="s">
+      <c r="L22" s="131"/>
+      <c r="M22" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="129"/>
-      <c r="O22" s="118" t="s">
+      <c r="N22" s="131"/>
+      <c r="O22" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="129"/>
+      <c r="P22" s="131"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="13">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,9,FALSE)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="T22" s="14">
         <f ca="1">S22/SUM($S$22:$S$27)</f>
-        <v>0.98611111111111116</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="U22" s="10"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
-      <c r="A23" s="130"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="121" t="s">
+      <c r="A23" s="132"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="129"/>
-      <c r="E23" s="106">
+      <c r="D23" s="131"/>
+      <c r="E23" s="108">
         <f t="array" aca="1" ref="E23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>7</v>
-      </c>
-      <c r="F23" s="129"/>
-      <c r="G23" s="107">
+        <v>4</v>
+      </c>
+      <c r="F23" s="131"/>
+      <c r="G23" s="109">
         <f t="array" aca="1" ref="G23" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C23)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E14, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="129"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="131"/>
       <c r="I23" s="67">
-        <f ca="1">E23/SUM(E23:H23)</f>
-        <v>1</v>
+        <f ca="1">IFERROR(E23/SUM(E23:H23),0)</f>
+        <v>0.8</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="106">
+      <c r="K23" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Sim")</f>
-        <v>63</v>
-      </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="107">
+        <v>79</v>
+      </c>
+      <c r="L23" s="131"/>
+      <c r="M23" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D2:P9"), "Não")-SUM(L14:M14)</f>
-        <v>17</v>
-      </c>
-      <c r="N23" s="129"/>
-      <c r="O23" s="110">
+        <v>8</v>
+      </c>
+      <c r="N23" s="131"/>
+      <c r="O23" s="112">
         <f ca="1">IFERROR(K23/SUM(K23:N23), 0)</f>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="P23" s="129"/>
+        <v>0.90804597701149425</v>
+      </c>
+      <c r="P23" s="131"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="59" t="s">
         <v>36</v>
@@ -6961,98 +7022,98 @@
       </c>
       <c r="T23" s="60">
         <f ca="1">S23/SUM($S$22:$S$27)</f>
-        <v>1.3888888888888888E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="123" t="s">
+      <c r="A24" s="132"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="129"/>
-      <c r="E24" s="106">
+      <c r="D24" s="131"/>
+      <c r="E24" s="108">
         <f t="array" aca="1" ref="E24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="107">
+        <v>5</v>
+      </c>
+      <c r="F24" s="131"/>
+      <c r="G24" s="109">
         <f t="array" aca="1" ref="G24" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C24)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E15, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="H24" s="129"/>
+        <v>7</v>
+      </c>
+      <c r="H24" s="131"/>
       <c r="I24" s="67">
-        <f ca="1">E24/SUM(E24:H24)</f>
-        <v>0</v>
+        <f ca="1">IFERROR(E24/SUM(E24:H24),0)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="106">
+      <c r="K24" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Sim")</f>
-        <v>95</v>
-      </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="107">
+        <v>104</v>
+      </c>
+      <c r="L24" s="131"/>
+      <c r="M24" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D12:P24"), "Não")-SUM(L15:M15)</f>
-        <v>15</v>
-      </c>
-      <c r="N24" s="129"/>
-      <c r="O24" s="110">
+        <v>14</v>
+      </c>
+      <c r="N24" s="131"/>
+      <c r="O24" s="112">
         <f ca="1">IFERROR(K24/SUM(K24:N24), 0)</f>
-        <v>0.86363636363636365</v>
-      </c>
-      <c r="P24" s="129"/>
+        <v>0.88135593220338981</v>
+      </c>
+      <c r="P24" s="131"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="59" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="45">
         <f ca="1">VLOOKUP($T$12,$C$13:$P$18,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="61">
         <f ca="1">S24/SUM($S$22:$S$27)</f>
-        <v>0</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
-      <c r="A25" s="130"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="126" t="s">
+      <c r="A25" s="132"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="129"/>
-      <c r="E25" s="106">
+      <c r="D25" s="131"/>
+      <c r="E25" s="108">
         <f t="array" aca="1" ref="E25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="131"/>
+      <c r="G25" s="109">
+        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E16, 0)</f>
         <v>5</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="107">
-        <f t="array" aca="1" ref="G25" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C25)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E16, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="H25" s="129"/>
+      <c r="H25" s="131"/>
       <c r="I25" s="67">
-        <f ca="1">E25/SUM(E25:H25)</f>
-        <v>0.55555555555555558</v>
+        <f ca="1">IFERROR(E25/SUM(E25:H25),0)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="106">
+      <c r="K25" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Sim")</f>
         <v>42</v>
       </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="107">
+      <c r="L25" s="131"/>
+      <c r="M25" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D27:P35"), "Não")-SUM(L16:M16)</f>
-        <v>15</v>
-      </c>
-      <c r="N25" s="129"/>
-      <c r="O25" s="110">
+        <v>20</v>
+      </c>
+      <c r="N25" s="131"/>
+      <c r="O25" s="112">
         <f ca="1">IFERROR(K25/SUM(K25:N25), 0)</f>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="P25" s="129"/>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="P25" s="131"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="59" t="s">
         <v>40</v>
@@ -7068,42 +7129,42 @@
       <c r="U25" s="10"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1">
-      <c r="A26" s="130"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="125" t="s">
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="129"/>
-      <c r="E26" s="106">
+      <c r="D26" s="131"/>
+      <c r="E26" s="108">
         <f t="array" aca="1" ref="E26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="107">
+        <v>0</v>
+      </c>
+      <c r="F26" s="131"/>
+      <c r="G26" s="109">
         <f t="array" aca="1" ref="G26" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C26)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E17, 0)</f>
         <v>2</v>
       </c>
-      <c r="H26" s="129"/>
+      <c r="H26" s="131"/>
       <c r="I26" s="67">
-        <f ca="1">E26/SUM(E26:H26)</f>
-        <v>0.33333333333333331</v>
+        <f ca="1">IFERROR(E26/SUM(E26:H26),0)</f>
+        <v>0</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="106">
+      <c r="K26" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Sim")</f>
         <v>20</v>
       </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="107">
+      <c r="L26" s="131"/>
+      <c r="M26" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D38:P40"), "Não")-SUM(L17:M17)</f>
-        <v>13</v>
-      </c>
-      <c r="N26" s="129"/>
-      <c r="O26" s="110">
+        <v>15</v>
+      </c>
+      <c r="N26" s="131"/>
+      <c r="O26" s="112">
         <f ca="1">IFERROR(K26/SUM(K26:N26), 0)</f>
-        <v>0.60606060606060608</v>
-      </c>
-      <c r="P26" s="129"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="P26" s="131"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="59" t="s">
         <v>41</v>
@@ -7119,42 +7180,42 @@
       <c r="U26" s="10"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1">
-      <c r="A27" s="130"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="111" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="129"/>
-      <c r="E27" s="106">
+      <c r="D27" s="131"/>
+      <c r="E27" s="108">
         <f t="array" aca="1" ref="E27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>7</v>
       </c>
-      <c r="F27" s="129"/>
-      <c r="G27" s="107">
+      <c r="F27" s="131"/>
+      <c r="G27" s="109">
         <f t="array" aca="1" ref="G27" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C27)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E18, 0)</f>
         <v>0</v>
       </c>
-      <c r="H27" s="129"/>
+      <c r="H27" s="131"/>
       <c r="I27" s="67">
-        <f ca="1">E27/SUM(E27:H27)</f>
+        <f ca="1">IFERROR(E27/SUM(E27:H27),0)</f>
         <v>1</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="106">
+      <c r="K27" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Sim")</f>
-        <v>75</v>
-      </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="107">
+        <v>82</v>
+      </c>
+      <c r="L27" s="131"/>
+      <c r="M27" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D43:P50"), "Não")-SUM(L18:M18)</f>
         <v>4</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="110">
+      <c r="N27" s="131"/>
+      <c r="O27" s="112">
         <f ca="1">IFERROR(K27/SUM(K27:N27), 0)</f>
-        <v>0.94936708860759489</v>
-      </c>
-      <c r="P27" s="129"/>
+        <v>0.95348837209302328</v>
+      </c>
+      <c r="P27" s="131"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="59" t="s">
         <v>19</v>
@@ -7170,90 +7231,90 @@
       <c r="U27" s="10"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1">
-      <c r="A28" s="130"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="112" t="s">
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="129"/>
-      <c r="E28" s="106">
+      <c r="D28" s="131"/>
+      <c r="E28" s="108">
         <f t="array" aca="1" ref="E28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
-        <v>8</v>
-      </c>
-      <c r="F28" s="129"/>
-      <c r="G28" s="107">
+        <v>0</v>
+      </c>
+      <c r="F28" s="131"/>
+      <c r="G28" s="109">
         <f t="array" aca="1" ref="G28" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C28)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E19, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="H28" s="131"/>
+      <c r="I28" s="67">
+        <f ca="1">IFERROR(E28/SUM(E28:H28),0)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="67">
-        <f ca="1">E28/SUM(E28:H28)</f>
-        <v>1</v>
-      </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="106">
+      <c r="K28" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Sim")</f>
         <v>75</v>
       </c>
-      <c r="L28" s="129"/>
-      <c r="M28" s="107">
+      <c r="L28" s="131"/>
+      <c r="M28" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D53:P60"), "Não")-SUM(L19:M19)</f>
-        <v>2</v>
-      </c>
-      <c r="N28" s="129"/>
-      <c r="O28" s="110">
+        <v>9</v>
+      </c>
+      <c r="N28" s="131"/>
+      <c r="O28" s="112">
         <f ca="1">IFERROR(K28/SUM(K28:N28), 0)</f>
-        <v>0.97402597402597402</v>
-      </c>
-      <c r="P28" s="129"/>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="P28" s="131"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="S28" s="120">
+      <c r="S28" s="122">
         <f ca="1">VLOOKUP($T$12,$C$22:$P$29,13,FALSE)</f>
-        <v>0.94936708860759489</v>
-      </c>
-      <c r="T28" s="129"/>
+        <v>0.95348837209302328</v>
+      </c>
+      <c r="T28" s="131"/>
       <c r="U28" s="10"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="114" t="s">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="129"/>
-      <c r="E29" s="106">
+      <c r="D29" s="131"/>
+      <c r="E29" s="108">
         <f t="array" aca="1" ref="E29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Sim"))), 0)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="129"/>
-      <c r="G29" s="107">
+      <c r="F29" s="131"/>
+      <c r="G29" s="109">
         <f t="array" aca="1" ref="G29" ca="1">IFERROR(ROWS(_xlfn._xlws.FILTER(INDIRECT($A$12&amp;"!A2:E100"),(INDIRECT($A$12&amp;"!A2:A100")=$C29)*(INDIRECT($A$12&amp;"!G2:G100")="Não")))-E20, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="H29" s="129"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="131"/>
       <c r="I29" s="67">
-        <f ca="1">E29/SUM(E29:H29)</f>
+        <f ca="1">IFERROR(E29/SUM(E29:H29),0)</f>
         <v>0</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="106">
+      <c r="K29" s="108">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Sim")</f>
-        <v>75</v>
-      </c>
-      <c r="L29" s="129"/>
-      <c r="M29" s="107">
+        <v>79</v>
+      </c>
+      <c r="L29" s="131"/>
+      <c r="M29" s="109">
         <f ca="1">COUNTIF(INDIRECT("Regionais!D63:P70"), "Não")-SUM(L20:M20)</f>
-        <v>4</v>
-      </c>
-      <c r="N29" s="129"/>
-      <c r="O29" s="110">
+        <v>8</v>
+      </c>
+      <c r="N29" s="131"/>
+      <c r="O29" s="112">
         <f ca="1">IFERROR(K29/SUM(K29:N29), 0)</f>
-        <v>0.94936708860759489</v>
-      </c>
-      <c r="P29" s="129"/>
+        <v>0.90804597701149425</v>
+      </c>
+      <c r="P29" s="131"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
@@ -7292,10 +7353,10 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="19"/>
-      <c r="C33" s="124" t="s">
+      <c r="C33" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="129"/>
+      <c r="D33" s="131"/>
       <c r="E33" s="68" t="s">
         <v>52</v>
       </c>
@@ -7314,10 +7375,10 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="19"/>
-      <c r="C34" s="109" t="s">
+      <c r="C34" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="129"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="70" t="s">
         <v>57</v>
       </c>
@@ -7334,10 +7395,10 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="19"/>
-      <c r="C35" s="109" t="s">
+      <c r="C35" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="129"/>
+      <c r="D35" s="131"/>
       <c r="E35" s="70" t="s">
         <v>57</v>
       </c>
@@ -7354,10 +7415,10 @@
     </row>
     <row r="36" spans="2:9" ht="15" customHeight="1">
       <c r="B36" s="19"/>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="129"/>
+      <c r="D36" s="131"/>
       <c r="E36" s="70">
         <f ca="1">B$2+B$5</f>
         <v>52</v>
@@ -7381,10 +7442,10 @@
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="19"/>
-      <c r="C37" s="109" t="s">
+      <c r="C37" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="129"/>
+      <c r="D37" s="131"/>
       <c r="E37" s="70">
         <f ca="1">C$2+C$5</f>
         <v>53</v>
@@ -7408,10 +7469,10 @@
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="19"/>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="129"/>
+      <c r="D38" s="131"/>
       <c r="E38" s="70">
         <f ca="1">D$2+D$5</f>
         <v>53</v>
@@ -7435,10 +7496,10 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="19"/>
-      <c r="C39" s="109" t="s">
+      <c r="C39" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="129"/>
+      <c r="D39" s="131"/>
       <c r="E39" s="70">
         <f ca="1">E$2+E$5</f>
         <v>52</v>
@@ -7462,10 +7523,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="19"/>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="129"/>
+      <c r="D40" s="131"/>
       <c r="E40" s="70">
         <f ca="1">F$2+F$5</f>
         <v>52</v>
@@ -7489,10 +7550,10 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="19"/>
-      <c r="C41" s="109" t="s">
+      <c r="C41" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="129"/>
+      <c r="D41" s="131"/>
       <c r="E41" s="70">
         <f ca="1">G$2+G$5</f>
         <v>52</v>
@@ -7516,10 +7577,10 @@
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="19"/>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="129"/>
+      <c r="D42" s="131"/>
       <c r="E42" s="70">
         <f ca="1">H$2+H$5</f>
         <v>52</v>
@@ -7543,10 +7604,10 @@
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="19"/>
-      <c r="C43" s="109" t="s">
+      <c r="C43" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="129"/>
+      <c r="D43" s="131"/>
       <c r="E43" s="70">
         <f ca="1">I$2+I$5</f>
         <v>52</v>
@@ -7570,17 +7631,17 @@
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="19"/>
-      <c r="C44" s="109" t="s">
+      <c r="C44" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="129"/>
+      <c r="D44" s="131"/>
       <c r="E44" s="70">
         <f ca="1">J$2+J$5</f>
         <v>50</v>
       </c>
       <c r="F44" s="70">
         <f ca="1">J$3+J$4</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" s="70">
         <f ca="1">J$7</f>
@@ -7588,7 +7649,7 @@
       </c>
       <c r="H44" s="70">
         <f ca="1">J$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" s="59">
         <f ca="1">SUM(E44:H44)</f>
@@ -7597,17 +7658,17 @@
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="19"/>
-      <c r="C45" s="109" t="s">
+      <c r="C45" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="129"/>
+      <c r="D45" s="131"/>
       <c r="E45" s="70">
         <f ca="1">K$2+K$5</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F45" s="70">
         <f ca="1">K$3+K$4</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G45" s="70">
         <f ca="1">K$7</f>
@@ -7615,19 +7676,19 @@
       </c>
       <c r="H45" s="70">
         <f ca="1">K$6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="59">
         <f ca="1">SUM(E45:H45)</f>
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="19"/>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="129"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="70">
         <f ca="1">L$2+L$5</f>
         <v>0</v>
@@ -7642,19 +7703,19 @@
       </c>
       <c r="H46" s="70">
         <f ca="1">L$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="59">
         <f ca="1">SUM(E46:H46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" s="19"/>
-      <c r="C47" s="109" t="s">
+      <c r="C47" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="129"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="70">
         <f ca="1">M$2+M$5</f>
         <v>0</v>
@@ -7669,11 +7730,11 @@
       </c>
       <c r="H47" s="70">
         <f ca="1">M$6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="59">
         <f ca="1">SUM(E47:H47)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:9">
@@ -7725,8 +7786,8 @@
     <mergeCell ref="K21:P21"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="R21:T21"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="S20:T20"/>
     <mergeCell ref="C21:I21"/>
@@ -9656,8 +9717,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D16" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H26" sqref="H26"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11483,8 +11544,8 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D21" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G45" sqref="G45"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11493,8 +11554,7 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
@@ -11551,14 +11611,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>15</v>
+      <c r="E2" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
         <v>146</v>
@@ -11609,8 +11671,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>15</v>
+      <c r="E4" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="F4" s="24"/>
       <c r="G4" s="26" t="s">
@@ -11675,7 +11737,7 @@
       <c r="F6" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H6" s="24"/>
@@ -11795,8 +11857,8 @@
       <c r="F10" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>146</v>
+      <c r="G10" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -11825,8 +11887,8 @@
       <c r="F11" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>146</v>
+      <c r="G11" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -11855,8 +11917,8 @@
       <c r="F12" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G12" s="33" t="s">
-        <v>146</v>
+      <c r="G12" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -11885,8 +11947,8 @@
       <c r="F13" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G13" s="33" t="s">
-        <v>146</v>
+      <c r="G13" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -11915,8 +11977,8 @@
       <c r="F14" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>146</v>
+      <c r="G14" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -11945,8 +12007,8 @@
       <c r="F15" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>146</v>
+      <c r="G15" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -11975,7 +12037,7 @@
       <c r="F16" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H16" s="24"/>
@@ -12005,8 +12067,8 @@
       <c r="F17" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G17" s="33" t="s">
-        <v>146</v>
+      <c r="G17" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -12035,7 +12097,7 @@
       <c r="F18" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H18" s="24" t="s">
@@ -12061,14 +12123,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>15</v>
+      <c r="E19" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>173</v>
+      </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24" t="s">
         <v>146</v>
@@ -12095,7 +12159,7 @@
       <c r="F20" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H20" s="24"/>
@@ -12247,8 +12311,8 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Marcos Alexandre Esmocoviski </v>
       </c>
-      <c r="E25" s="38" t="s">
-        <v>15</v>
+      <c r="E25" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="33" t="s">
@@ -12341,7 +12405,7 @@
       <c r="F28" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H28" s="24"/>
@@ -12377,7 +12441,7 @@
       <c r="H29" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="38" t="s">
         <v>393</v>
       </c>
       <c r="J29" s="24" t="s">
@@ -12437,8 +12501,8 @@
       <c r="F31" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G31" s="33" t="s">
-        <v>146</v>
+      <c r="G31" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -12557,7 +12621,7 @@
       <c r="F35" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H35" s="24"/>
@@ -12647,7 +12711,7 @@
       <c r="F38" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H38" s="24"/>
@@ -12707,7 +12771,7 @@
       <c r="F40" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H40" s="24"/>
@@ -12797,7 +12861,7 @@
       <c r="F43" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H43" s="24"/>
@@ -12887,8 +12951,8 @@
       <c r="F46" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="G46" s="33" t="s">
-        <v>146</v>
+      <c r="G46" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -12911,14 +12975,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E47" s="38" t="s">
-        <v>15</v>
+      <c r="E47" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="F47" s="24"/>
-      <c r="G47" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="24"/>
+      <c r="G47" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="107" t="s">
+        <v>397</v>
+      </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24" t="s">
         <v>146</v>
@@ -12945,8 +13011,8 @@
       <c r="F48" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G48" s="33" t="s">
-        <v>146</v>
+      <c r="G48" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -12973,9 +13039,9 @@
         <v>14</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="G49" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H49" s="24"/>
@@ -13039,7 +13105,7 @@
         <v>144</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I51" s="24"/>
       <c r="J51" s="24" t="s">
@@ -13067,7 +13133,7 @@
       <c r="F52" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H52" s="24"/>
@@ -13091,15 +13157,15 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Yuri Luiz de Oliveira </v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>15</v>
+      <c r="E53" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="33" t="s">
         <v>146</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24" t="s">
@@ -13155,7 +13221,7 @@
       <c r="F55" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="26" t="s">
         <v>144</v>
       </c>
       <c r="H55" s="24"/>
@@ -13215,8 +13281,8 @@
       <c r="F57" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="G57" s="33" t="s">
-        <v>146</v>
+      <c r="G57" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -13243,10 +13309,10 @@
         <v>14</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="G58" s="33" t="s">
-        <v>146</v>
+        <v>398</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
@@ -13256,7 +13322,7 @@
       <c r="K58" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G58" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <conditionalFormatting sqref="G2:G58">
     <cfRule type="cellIs" dxfId="47" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Sim"</formula>
@@ -13317,7 +13383,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13326,10 +13392,10 @@
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -13384,12 +13450,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
         <v>146</v>
@@ -13410,12 +13480,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B3&amp;C3, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Maria Regina Willers </v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="24"/>
       <c r="G3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="24" t="s">
+        <v>401</v>
+      </c>
       <c r="I3" s="24"/>
       <c r="J3" s="24" t="s">
         <v>146</v>
@@ -13436,7 +13510,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B4&amp;C4, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudete Rodrigues Scarpelini</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F4" s="24"/>
       <c r="G4" s="33" t="s">
         <v>146</v>
@@ -13462,12 +13538,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B5&amp;C5, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vagner Perseti Alves</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="24"/>
       <c r="G5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="24"/>
+      <c r="H5" s="24" t="s">
+        <v>402</v>
+      </c>
       <c r="I5" s="24"/>
       <c r="J5" s="24" t="s">
         <v>146</v>
@@ -13488,8 +13568,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B6&amp;C6, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tania Grespan</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>403</v>
+      </c>
       <c r="G6" s="33" t="s">
         <v>146</v>
       </c>
@@ -13514,8 +13598,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B7&amp;C7, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daniele de Souza Lima Mei</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
+      <c r="E7" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>404</v>
+      </c>
       <c r="G7" s="33" t="s">
         <v>146</v>
       </c>
@@ -13540,10 +13628,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Eunice Fernandes Gonzaga </v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="E8" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="106">
+        <v>45972</v>
+      </c>
       <c r="G8" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -13566,7 +13658,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rafaelly Custódio</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F9" s="24"/>
       <c r="G9" s="33" t="s">
         <v>146</v>
@@ -13592,8 +13686,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="E10" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G10" s="33" t="s">
         <v>146</v>
       </c>
@@ -13618,8 +13716,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="E11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G11" s="33" t="s">
         <v>146</v>
       </c>
@@ -13644,8 +13746,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="E12" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G12" s="33" t="s">
         <v>146</v>
       </c>
@@ -13670,8 +13776,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="E13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G13" s="33" t="s">
         <v>146</v>
       </c>
@@ -13696,8 +13806,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Hayana dos Santos Jaines</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="E14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G14" s="33" t="s">
         <v>146</v>
       </c>
@@ -13722,8 +13836,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Evellyn Renata Bereza Bueno</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G15" s="33" t="s">
         <v>146</v>
       </c>
@@ -13748,8 +13866,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B16&amp;C16, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Anandra da Silva</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="E16" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>403</v>
+      </c>
       <c r="G16" s="33" t="s">
         <v>146</v>
       </c>
@@ -13774,8 +13896,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B17&amp;C17, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Carlos Jorge de Oliveira Moreira  </v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G17" s="33" t="s">
         <v>146</v>
       </c>
@@ -13800,12 +13926,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jéssica da Silva Bortolozzo</v>
       </c>
-      <c r="E18" s="24"/>
+      <c r="E18" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>407</v>
+      </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24" t="s">
         <v>146</v>
@@ -13826,12 +13956,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B19&amp;C19, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tássia Castelli</v>
       </c>
-      <c r="E19" s="24"/>
+      <c r="E19" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>408</v>
+      </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24" t="s">
         <v>146</v>
@@ -13852,10 +13986,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B20&amp;C20, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Bianca Monteiro</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
+      <c r="E20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>409</v>
+      </c>
       <c r="G20" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
@@ -13878,8 +14016,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B21&amp;C21, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Augusto Nunes</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="E21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G21" s="33" t="s">
         <v>146</v>
       </c>
@@ -13904,7 +14046,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E22" s="24"/>
+      <c r="E22" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="33" t="s">
         <v>146</v>
@@ -13930,7 +14074,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="24"/>
       <c r="G23" s="33" t="s">
         <v>146</v>
@@ -13956,7 +14102,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Amanda Cristina Beal Acosta</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="33" t="s">
         <v>146</v>
@@ -13982,7 +14130,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Marcos Alexandre Esmocoviski </v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="33" t="s">
         <v>146</v>
@@ -14008,10 +14158,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Rodrigo Lima</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G26" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -14034,10 +14188,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B27&amp;C27, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Savana Lemes Rodrigues</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>409</v>
+      </c>
       <c r="G27" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -14060,10 +14218,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B28&amp;C28, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Letícia Diniz</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G28" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24"/>
@@ -14086,8 +14248,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Tais Muller</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>411</v>
+      </c>
       <c r="G29" s="33" t="s">
         <v>146</v>
       </c>
@@ -14112,8 +14278,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B30&amp;C30, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernando Henrique Ferreira</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
+      <c r="E30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G30" s="33" t="s">
         <v>146</v>
       </c>
@@ -14138,7 +14308,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B31&amp;C31, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Isadora Bussmann Barsotti </v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F31" s="24"/>
       <c r="G31" s="33" t="s">
         <v>146</v>
@@ -14164,8 +14336,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B32&amp;C32, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Osair Wrublak</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G32" s="33" t="s">
         <v>146</v>
       </c>
@@ -14190,8 +14366,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B33&amp;C33, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gislaine Souza Rosa</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>412</v>
+      </c>
       <c r="G33" s="33" t="s">
         <v>146</v>
       </c>
@@ -14216,8 +14396,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B34&amp;C34, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Leticia Framesche</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
+      <c r="E34" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>411</v>
+      </c>
       <c r="G34" s="33" t="s">
         <v>146</v>
       </c>
@@ -14242,8 +14426,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Suzana Gotardo de Meira </v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="E35" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G35" s="33" t="s">
         <v>146</v>
       </c>
@@ -14268,8 +14456,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B36&amp;C36, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vinicius Patriota dos Santos</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="E36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G36" s="33" t="s">
         <v>146</v>
       </c>
@@ -14294,8 +14486,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Patricia Teixeira dos Santos</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
+      <c r="E37" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G37" s="33" t="s">
         <v>146</v>
       </c>
@@ -14320,10 +14516,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B38&amp;C38, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Anderson Batista Siqueira </v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="E38" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G38" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -14346,8 +14546,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Aramis Vinicius de Paula Oliveira </v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="E39" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G39" s="33" t="s">
         <v>146</v>
       </c>
@@ -14372,10 +14576,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B40&amp;C40, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Julliane Gonçalves</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="E40" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G40" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -14398,8 +14606,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B41&amp;C41, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Gustavo Henrique de Andrade</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="E41" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>413</v>
+      </c>
       <c r="G41" s="33" t="s">
         <v>146</v>
       </c>
@@ -14424,8 +14636,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B42&amp;C42, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ricardo Pyc</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G42" s="33" t="s">
         <v>146</v>
       </c>
@@ -14450,8 +14666,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Camila Maytana Flores da Silva </v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
+      <c r="E43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G43" s="33" t="s">
         <v>146</v>
       </c>
@@ -14476,8 +14696,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B44&amp;C44, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Claudiana Andria</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
+      <c r="E44" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>403</v>
+      </c>
       <c r="G44" s="33" t="s">
         <v>146</v>
       </c>
@@ -14502,10 +14726,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B45&amp;C45, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Daiana Aparecida Dias</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
+      <c r="E45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>411</v>
+      </c>
       <c r="G45" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -14528,10 +14756,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B46&amp;C46, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="33" t="s">
-        <v>146</v>
+      <c r="E46" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -14554,12 +14786,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maysa Fernanda Back</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="F47" s="24"/>
-      <c r="G47" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="24"/>
+      <c r="G47" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>414</v>
+      </c>
       <c r="I47" s="24"/>
       <c r="J47" s="24" t="s">
         <v>146</v>
@@ -14580,10 +14816,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B48&amp;C48, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Jean Eriksen de Miranda</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="33" t="s">
-        <v>146</v>
+      <c r="E48" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24"/>
@@ -14606,10 +14846,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B49&amp;C49, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Paula Cigolini</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="33" t="s">
-        <v>146</v>
+      <c r="E49" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24"/>
@@ -14632,8 +14876,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B50&amp;C50, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Vilmar Ribeiro</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
+      <c r="E50" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G50" s="33" t="s">
         <v>146</v>
       </c>
@@ -14658,10 +14906,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B51&amp;C51, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Ana Carolina Bertolaccini</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
+      <c r="E51" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>406</v>
+      </c>
       <c r="G51" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24"/>
@@ -14684,10 +14936,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B52&amp;C52, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Maristela de Oliveira Melo</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
+      <c r="E52" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>411</v>
+      </c>
       <c r="G52" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24"/>
@@ -14710,12 +14966,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B53&amp;C53, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Yuri Luiz de Oliveira </v>
       </c>
-      <c r="E53" s="24"/>
+      <c r="E53" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="F53" s="24"/>
       <c r="G53" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H53" s="24"/>
+      <c r="H53" s="24" t="s">
+        <v>416</v>
+      </c>
       <c r="I53" s="24"/>
       <c r="J53" s="24" t="s">
         <v>146</v>
@@ -14764,10 +15024,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Eliane Stefani Dantas Dias</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
+      <c r="E55" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>405</v>
+      </c>
       <c r="G55" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -14790,8 +15054,12 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B56&amp;C56, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v xml:space="preserve">Diego Batista </v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="E56" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>410</v>
+      </c>
       <c r="G56" s="33" t="s">
         <v>146</v>
       </c>
@@ -14816,10 +15084,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Fernanda Naiara Voinarski</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="33" t="s">
-        <v>146</v>
+      <c r="E57" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24"/>
@@ -14842,10 +15114,14 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Pablo Bruno Rosa Oliveira</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="33" t="s">
-        <v>146</v>
+      <c r="E58" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="24"/>
@@ -14896,13 +15172,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14916,7 +15192,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14983,12 +15259,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
         <v>146</v>
@@ -16495,13 +16775,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0D00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0D00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0D00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0D00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16515,7 +16795,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16582,12 +16862,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B2&amp;C2, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v>Marcia do Nascimento</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="F2" s="24"/>
       <c r="G2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="24" t="s">
+        <v>145</v>
+      </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24" t="s">
         <v>146</v>
@@ -18094,13 +18378,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="G2 G3 G4 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 G29 G30 G31 G32 G33 G34 G35 G36 G37 G38 G39 G40 G41 G42 G43 G44 G45 G46 G47 G48 G49 G50 G51 G52 G53 G54 G55 G56 G57 G58" xr:uid="{00000000-0002-0000-0E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51 J52 J53 J54 J55 J56 J57 J58" xr:uid="{00000000-0002-0000-0E00-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J58" xr:uid="{00000000-0002-0000-0E00-000001000000}">
       <formula1>"Sim,Não,Em Análise"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2 E3 E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58" xr:uid="{00000000-0002-0000-0E00-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E58" xr:uid="{00000000-0002-0000-0E00-000002000000}">
       <formula1>"Enviado, Atrasado, Atrasado &gt;= 2, Outras Ocorrências, Sem Técnico, Duplicado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18147,7 +18431,7 @@
         <v>137</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>138</v>
@@ -18159,7 +18443,7 @@
         <v>140</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>142</v>
@@ -18173,16 +18457,16 @@
         <v>129</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>146</v>
@@ -18202,7 +18486,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>190</v>
@@ -18211,7 +18495,7 @@
         <v>316</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>146</v>
@@ -18254,7 +18538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18550,7 +18836,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N2" s="74" t="str">
         <f t="array" aca="1" ref="N2" ca="1">IF(
@@ -18825,7 +19111,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N3" s="74" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IF(
@@ -19100,7 +19386,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N4" s="74" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IF(
@@ -19375,7 +19661,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N5" s="74" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IF(
@@ -19650,7 +19936,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N6" s="74" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IF(
@@ -19925,7 +20211,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N7" s="74" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IF(
@@ -20200,7 +20486,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N8" s="74" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IF(
@@ -20475,7 +20761,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N9" s="74" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IF(
@@ -20750,7 +21036,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N10" s="74" t="str">
         <f t="array" aca="1" ref="N10" ca="1">IF(
@@ -21003,7 +21289,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="M11" s="74" t="str">
         <f t="array" aca="1" ref="M11" ca="1">IF(
@@ -21025,7 +21311,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="N11" s="74" t="str">
         <f t="array" aca="1" ref="N11" ca="1">IF(
@@ -21300,7 +21586,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N12" s="74" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IF(
@@ -21575,7 +21861,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N13" s="74" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IF(
@@ -21850,7 +22136,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N14" s="74" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IF(
@@ -22172,7 +22458,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N17" s="74" t="str">
         <f t="array" aca="1" ref="N17" ca="1">IF(
@@ -22447,7 +22733,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N18" s="74" t="str">
         <f t="array" aca="1" ref="N18" ca="1">IF(
@@ -22722,7 +23008,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N19" s="74" t="str">
         <f t="array" aca="1" ref="N19" ca="1">IF(
@@ -22997,7 +23283,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N20" s="74" t="str">
         <f t="array" aca="1" ref="N20" ca="1">IF(
@@ -23272,7 +23558,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N21" s="74" t="str">
         <f t="array" aca="1" ref="N21" ca="1">IF(
@@ -23547,7 +23833,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N22" s="74" t="str">
         <f t="array" aca="1" ref="N22" ca="1">IF(
@@ -23822,7 +24108,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N23" s="74" t="str">
         <f t="array" aca="1" ref="N23" ca="1">IF(
@@ -24097,7 +24383,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N24" s="74" t="str">
         <f t="array" aca="1" ref="N24" ca="1">IF(
@@ -24372,7 +24658,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N25" s="74" t="str">
         <f t="array" aca="1" ref="N25" ca="1">IF(
@@ -24675,7 +24961,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N28" s="74" t="str">
         <f t="array" aca="1" ref="N28" ca="1">IF(
@@ -24950,7 +25236,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N29" s="74" t="str">
         <f t="array" aca="1" ref="N29" ca="1">IF(
@@ -25225,7 +25511,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N30" s="74" t="str">
         <f t="array" aca="1" ref="N30" ca="1">IF(
@@ -25523,7 +25809,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="M33" s="74" t="str">
         <f t="array" aca="1" ref="M33" ca="1">IF(
@@ -25545,7 +25831,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="N33" s="74" t="str">
         <f t="array" aca="1" ref="N33" ca="1">IF(
@@ -25798,7 +26084,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M34" s="74" t="str">
         <f t="array" aca="1" ref="M34" ca="1">IF(
@@ -25820,7 +26106,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N34" s="74" t="str">
         <f t="array" aca="1" ref="N34" ca="1">IF(
@@ -26095,7 +26381,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N35" s="74" t="str">
         <f t="array" aca="1" ref="N35" ca="1">IF(
@@ -26370,7 +26656,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N36" s="74" t="str">
         <f t="array" aca="1" ref="N36" ca="1">IF(
@@ -26645,7 +26931,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N37" s="74" t="str">
         <f t="array" aca="1" ref="N37" ca="1">IF(
@@ -26920,7 +27206,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N38" s="74" t="str">
         <f t="array" aca="1" ref="N38" ca="1">IF(
@@ -27195,7 +27481,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N39" s="74" t="str">
         <f t="array" aca="1" ref="N39" ca="1">IF(
@@ -27792,7 +28078,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N43" s="74" t="str">
         <f t="array" aca="1" ref="N43" ca="1">IF(
@@ -28067,7 +28353,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N44" s="74" t="str">
         <f t="array" aca="1" ref="N44" ca="1">IF(
@@ -28342,7 +28628,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N45" s="74" t="str">
         <f t="array" aca="1" ref="N45" ca="1">IF(
@@ -28617,7 +28903,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N46" s="74" t="str">
         <f t="array" aca="1" ref="N46" ca="1">IF(
@@ -28892,7 +29178,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N47" s="74" t="str">
         <f t="array" aca="1" ref="N47" ca="1">IF(
@@ -29167,7 +29453,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N48" s="74" t="str">
         <f t="array" aca="1" ref="N48" ca="1">IF(
@@ -29442,7 +29728,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N49" s="74" t="str">
         <f t="array" aca="1" ref="N49" ca="1">IF(
@@ -29695,7 +29981,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M50" s="74" t="str">
         <f t="array" aca="1" ref="M50" ca="1">IF(
@@ -29717,7 +30003,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N50" s="74" t="str">
         <f t="array" aca="1" ref="N50" ca="1">IF(
@@ -30017,7 +30303,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Atrasado &gt;= 2</v>
       </c>
       <c r="M53" s="74" t="str">
         <f t="array" aca="1" ref="M53" ca="1">IF(
@@ -30039,7 +30325,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N53" s="74" t="str">
         <f t="array" aca="1" ref="N53" ca="1">IF(
@@ -30314,7 +30600,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N54" s="74" t="str">
         <f t="array" aca="1" ref="N54" ca="1">IF(
@@ -30589,7 +30875,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N55" s="74" t="str">
         <f t="array" aca="1" ref="N55" ca="1">IF(
@@ -30845,7 +31131,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N56" s="74" t="str">
         <f t="array" aca="1" ref="N56" ca="1">IF(
@@ -31120,7 +31406,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N57" s="74" t="str">
         <f t="array" aca="1" ref="N57" ca="1">IF(
@@ -31395,7 +31681,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N58" s="74" t="str">
         <f t="array" aca="1" ref="N58" ca="1">IF(
@@ -31670,7 +31956,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N59" s="74" t="str">
         <f t="array" aca="1" ref="N59" ca="1">IF(
@@ -31945,7 +32231,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N60" s="74" t="str">
         <f t="array" aca="1" ref="N60" ca="1">IF(
@@ -32245,7 +32531,7 @@
         FALSE
     )
 )</f>
-        <v>Atrasado</v>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="M63" s="74" t="str">
         <f t="array" aca="1" ref="M63" ca="1">IF(
@@ -32267,7 +32553,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="N63" s="74" t="str">
         <f t="array" aca="1" ref="N63" ca="1">IF(
@@ -32289,7 +32575,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="O63" s="74" t="str">
         <f t="array" aca="1" ref="O63" ca="1">IF(
@@ -32311,7 +32597,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Outras Ocorrências</v>
       </c>
       <c r="Q63" s="81"/>
       <c r="R63" s="82" t="s">
@@ -32550,7 +32836,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N64" s="74" t="str">
         <f t="array" aca="1" ref="N64" ca="1">IF(
@@ -32833,7 +33119,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N65" s="74" t="str">
         <f t="array" aca="1" ref="N65" ca="1">IF(
@@ -33116,7 +33402,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Atrasado</v>
       </c>
       <c r="N66" s="74" t="str">
         <f t="array" aca="1" ref="N66" ca="1">IF(
@@ -33399,7 +33685,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N67" s="74" t="str">
         <f t="array" aca="1" ref="N67" ca="1">IF(
@@ -33682,7 +33968,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N68" s="74" t="str">
         <f t="array" aca="1" ref="N68" ca="1">IF(
@@ -33965,7 +34251,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N69" s="74" t="str">
         <f t="array" aca="1" ref="N69" ca="1">IF(
@@ -34248,7 +34534,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Enviado</v>
       </c>
       <c r="N70" s="74" t="str">
         <f t="array" aca="1" ref="N70" ca="1">IF(
@@ -34384,7 +34670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -34655,7 +34941,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M2" s="59" t="str">
         <f t="array" aca="1" ref="M2" ca="1">IF(
@@ -34677,7 +34963,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N2" s="59" t="str">
         <f t="array" aca="1" ref="N2" ca="1">IF(
@@ -34699,7 +34985,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O2" s="59" t="str">
         <f t="array" aca="1" ref="O2" ca="1">IF(
@@ -34952,7 +35238,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M3" s="59" t="str">
         <f t="array" aca="1" ref="M3" ca="1">IF(
@@ -34974,7 +35260,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N3" s="59" t="str">
         <f t="array" aca="1" ref="N3" ca="1">IF(
@@ -34996,7 +35282,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O3" s="59" t="str">
         <f t="array" aca="1" ref="O3" ca="1">IF(
@@ -35249,7 +35535,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M4" s="59" t="str">
         <f t="array" aca="1" ref="M4" ca="1">IF(
@@ -35271,7 +35557,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N4" s="59" t="str">
         <f t="array" aca="1" ref="N4" ca="1">IF(
@@ -35293,7 +35579,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O4" s="59" t="str">
         <f t="array" aca="1" ref="O4" ca="1">IF(
@@ -35546,7 +35832,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M5" s="59" t="str">
         <f t="array" aca="1" ref="M5" ca="1">IF(
@@ -35568,7 +35854,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N5" s="59" t="str">
         <f t="array" aca="1" ref="N5" ca="1">IF(
@@ -35590,7 +35876,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O5" s="59" t="str">
         <f t="array" aca="1" ref="O5" ca="1">IF(
@@ -35843,7 +36129,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M6" s="59" t="str">
         <f t="array" aca="1" ref="M6" ca="1">IF(
@@ -35865,7 +36151,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N6" s="59" t="str">
         <f t="array" aca="1" ref="N6" ca="1">IF(
@@ -35887,7 +36173,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O6" s="59" t="str">
         <f t="array" aca="1" ref="O6" ca="1">IF(
@@ -36140,7 +36426,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M7" s="59" t="str">
         <f t="array" aca="1" ref="M7" ca="1">IF(
@@ -36162,7 +36448,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N7" s="59" t="str">
         <f t="array" aca="1" ref="N7" ca="1">IF(
@@ -36184,7 +36470,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O7" s="59" t="str">
         <f t="array" aca="1" ref="O7" ca="1">IF(
@@ -36437,7 +36723,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M8" s="59" t="str">
         <f t="array" aca="1" ref="M8" ca="1">IF(
@@ -36459,7 +36745,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N8" s="59" t="str">
         <f t="array" aca="1" ref="N8" ca="1">IF(
@@ -36481,7 +36767,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O8" s="59" t="str">
         <f t="array" aca="1" ref="O8" ca="1">IF(
@@ -36734,7 +37020,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M9" s="59" t="str">
         <f t="array" aca="1" ref="M9" ca="1">IF(
@@ -36756,7 +37042,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N9" s="59" t="str">
         <f t="array" aca="1" ref="N9" ca="1">IF(
@@ -36778,7 +37064,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O9" s="59" t="str">
         <f t="array" aca="1" ref="O9" ca="1">IF(
@@ -37031,7 +37317,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M10" s="59" t="str">
         <f t="array" aca="1" ref="M10" ca="1">IF(
@@ -37053,7 +37339,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N10" s="59" t="str">
         <f t="array" aca="1" ref="N10" ca="1">IF(
@@ -37075,7 +37361,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O10" s="59" t="str">
         <f t="array" aca="1" ref="O10" ca="1">IF(
@@ -37328,7 +37614,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M11" s="59" t="str">
         <f t="array" aca="1" ref="M11" ca="1">IF(
@@ -37350,7 +37636,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N11" s="59" t="str">
         <f t="array" aca="1" ref="N11" ca="1">IF(
@@ -37372,7 +37658,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O11" s="59" t="str">
         <f t="array" aca="1" ref="O11" ca="1">IF(
@@ -37625,7 +37911,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M12" s="59" t="str">
         <f t="array" aca="1" ref="M12" ca="1">IF(
@@ -37647,7 +37933,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N12" s="59" t="str">
         <f t="array" aca="1" ref="N12" ca="1">IF(
@@ -37669,7 +37955,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O12" s="59" t="str">
         <f t="array" aca="1" ref="O12" ca="1">IF(
@@ -37922,7 +38208,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M13" s="59" t="str">
         <f t="array" aca="1" ref="M13" ca="1">IF(
@@ -37944,7 +38230,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N13" s="59" t="str">
         <f t="array" aca="1" ref="N13" ca="1">IF(
@@ -37966,7 +38252,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O13" s="59" t="str">
         <f t="array" aca="1" ref="O13" ca="1">IF(
@@ -38219,7 +38505,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="M14" s="59" t="str">
         <f t="array" aca="1" ref="M14" ca="1">IF(
@@ -38241,7 +38527,7 @@
         FALSE
     )
 )</f>
-        <v>Não</v>
+        <v>Sim</v>
       </c>
       <c r="N14" s="59" t="str">
         <f t="array" aca="1" ref="N14" ca="1">IF(
@@ -38263,7 +38549,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O14" s="59" t="str">
         <f t="array" aca="1" ref="O14" ca="1">IF(
@@ -38610,7 +38896,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O17" s="59" t="str">
         <f t="array" aca="1" ref="O17" ca="1">IF(
@@ -38907,7 +39193,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O18" s="59" t="str">
         <f t="array" aca="1" ref="O18" ca="1">IF(
@@ -39204,7 +39490,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O19" s="59" t="str">
         <f t="array" aca="1" ref="O19" ca="1">IF(
@@ -39501,7 +39787,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O20" s="59" t="str">
         <f t="array" aca="1" ref="O20" ca="1">IF(
@@ -39798,7 +40084,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O21" s="59" t="str">
         <f t="array" aca="1" ref="O21" ca="1">IF(
@@ -40095,7 +40381,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O22" s="59" t="str">
         <f t="array" aca="1" ref="O22" ca="1">IF(
@@ -40392,7 +40678,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O23" s="59" t="str">
         <f t="array" aca="1" ref="O23" ca="1">IF(
@@ -40689,7 +40975,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O24" s="59" t="str">
         <f t="array" aca="1" ref="O24" ca="1">IF(
@@ -40986,7 +41272,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O25" s="59" t="str">
         <f t="array" aca="1" ref="O25" ca="1">IF(
@@ -41333,7 +41619,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O28" s="59" t="str">
         <f t="array" aca="1" ref="O28" ca="1">IF(
@@ -41630,7 +41916,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O29" s="59" t="str">
         <f t="array" aca="1" ref="O29" ca="1">IF(
@@ -41927,7 +42213,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O30" s="59" t="str">
         <f t="array" aca="1" ref="O30" ca="1">IF(
@@ -42272,7 +42558,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O33" s="59" t="str">
         <f t="array" aca="1" ref="O33" ca="1">IF(
@@ -42569,7 +42855,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O34" s="59" t="str">
         <f t="array" aca="1" ref="O34" ca="1">IF(
@@ -42866,7 +43152,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O35" s="59" t="str">
         <f t="array" aca="1" ref="O35" ca="1">IF(
@@ -43163,7 +43449,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O36" s="59" t="str">
         <f t="array" aca="1" ref="O36" ca="1">IF(
@@ -43460,7 +43746,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O37" s="59" t="str">
         <f t="array" aca="1" ref="O37" ca="1">IF(
@@ -43757,7 +44043,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O38" s="59" t="str">
         <f t="array" aca="1" ref="O38" ca="1">IF(
@@ -44054,7 +44340,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O39" s="59" t="str">
         <f t="array" aca="1" ref="O39" ca="1">IF(
@@ -44698,7 +44984,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O43" s="59" t="str">
         <f t="array" aca="1" ref="O43" ca="1">IF(
@@ -44995,7 +45281,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O44" s="59" t="str">
         <f t="array" aca="1" ref="O44" ca="1">IF(
@@ -45292,7 +45578,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O45" s="59" t="str">
         <f t="array" aca="1" ref="O45" ca="1">IF(
@@ -45589,7 +45875,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O46" s="59" t="str">
         <f t="array" aca="1" ref="O46" ca="1">IF(
@@ -45886,7 +46172,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O47" s="59" t="str">
         <f t="array" aca="1" ref="O47" ca="1">IF(
@@ -46183,7 +46469,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O48" s="59" t="str">
         <f t="array" aca="1" ref="O48" ca="1">IF(
@@ -46480,7 +46766,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O49" s="59" t="str">
         <f t="array" aca="1" ref="O49" ca="1">IF(
@@ -46777,7 +47063,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O50" s="59" t="str">
         <f t="array" aca="1" ref="O50" ca="1">IF(
@@ -47124,7 +47410,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O53" s="59" t="str">
         <f t="array" aca="1" ref="O53" ca="1">IF(
@@ -47421,7 +47707,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O54" s="59" t="str">
         <f t="array" aca="1" ref="O54" ca="1">IF(
@@ -47718,7 +48004,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O55" s="59" t="str">
         <f t="array" aca="1" ref="O55" ca="1">IF(
@@ -48015,7 +48301,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O56" s="59" t="str">
         <f t="array" aca="1" ref="O56" ca="1">IF(
@@ -48312,7 +48598,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O57" s="59" t="str">
         <f t="array" aca="1" ref="O57" ca="1">IF(
@@ -48609,7 +48895,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O58" s="59" t="str">
         <f t="array" aca="1" ref="O58" ca="1">IF(
@@ -48906,7 +49192,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O59" s="59" t="str">
         <f t="array" aca="1" ref="O59" ca="1">IF(
@@ -49203,7 +49489,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O60" s="59" t="str">
         <f t="array" aca="1" ref="O60" ca="1">IF(
@@ -49550,7 +49836,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O63" s="59" t="str">
         <f t="array" aca="1" ref="O63" ca="1">IF(
@@ -49572,7 +49858,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="P63" s="59" t="str">
         <f t="array" aca="1" ref="P63" ca="1">IF(
@@ -49594,7 +49880,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="R63" s="81"/>
       <c r="S63" s="82" t="s">
@@ -49855,7 +50141,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O64" s="59" t="str">
         <f t="array" aca="1" ref="O64" ca="1">IF(
@@ -50160,7 +50446,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O65" s="59" t="str">
         <f t="array" aca="1" ref="O65" ca="1">IF(
@@ -50465,7 +50751,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Não</v>
       </c>
       <c r="O66" s="59" t="str">
         <f t="array" aca="1" ref="O66" ca="1">IF(
@@ -50770,7 +51056,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O67" s="59" t="str">
         <f t="array" aca="1" ref="O67" ca="1">IF(
@@ -51075,7 +51361,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O68" s="59" t="str">
         <f t="array" aca="1" ref="O68" ca="1">IF(
@@ -51380,7 +51666,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O69" s="59" t="str">
         <f t="array" aca="1" ref="O69" ca="1">IF(
@@ -51685,7 +51971,7 @@
         FALSE
     )
 )</f>
-        <v/>
+        <v>Sim</v>
       </c>
       <c r="O70" s="59" t="str">
         <f t="array" aca="1" ref="O70" ca="1">IF(
